--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831877577955807</v>
+        <v>0.9831877577955805</v>
       </c>
       <c r="D2">
         <v>1.004396099011662</v>
       </c>
       <c r="E2">
-        <v>0.9916756862165812</v>
+        <v>0.9916756862165811</v>
       </c>
       <c r="F2">
-        <v>0.9615303848699802</v>
+        <v>0.9615303848699801</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.003252223230855</v>
       </c>
       <c r="M2">
-        <v>0.9735530175025401</v>
+        <v>0.97355301750254</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9896542596823732</v>
+        <v>0.9896542596823723</v>
       </c>
       <c r="D3">
-        <v>1.009232751200673</v>
+        <v>1.009232751200672</v>
       </c>
       <c r="E3">
-        <v>0.9969791054427009</v>
+        <v>0.9969791054426999</v>
       </c>
       <c r="F3">
-        <v>0.9742652374121932</v>
+        <v>0.9742652374121925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039045309071141</v>
+        <v>1.03904530907114</v>
       </c>
       <c r="J3">
-        <v>1.010430989200357</v>
+        <v>1.010430989200356</v>
       </c>
       <c r="K3">
-        <v>1.019748844678156</v>
+        <v>1.019748844678155</v>
       </c>
       <c r="L3">
-        <v>1.007650785665689</v>
+        <v>1.007650785665688</v>
       </c>
       <c r="M3">
-        <v>0.9852383448901583</v>
+        <v>0.9852383448901575</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937133182733459</v>
+        <v>0.9937133182733472</v>
       </c>
       <c r="D4">
         <v>1.012266728508702</v>
       </c>
       <c r="E4">
-        <v>1.00031422573155</v>
+        <v>1.000314225731552</v>
       </c>
       <c r="F4">
-        <v>0.9821139555225951</v>
+        <v>0.9821139555225968</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04059497942169</v>
+        <v>1.040594979421691</v>
       </c>
       <c r="J4">
-        <v>1.01327921668571</v>
+        <v>1.013279216685711</v>
       </c>
       <c r="K4">
-        <v>1.022219325409098</v>
+        <v>1.022219325409099</v>
       </c>
       <c r="L4">
-        <v>1.010408859804496</v>
+        <v>1.010408859804497</v>
       </c>
       <c r="M4">
-        <v>0.9924331528431372</v>
+        <v>0.992433152843139</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9953915295410962</v>
+        <v>0.9953915295410944</v>
       </c>
       <c r="D5">
-        <v>1.013520635801319</v>
+        <v>1.013520635801318</v>
       </c>
       <c r="E5">
-        <v>1.001694529378987</v>
+        <v>1.001694529378986</v>
       </c>
       <c r="F5">
-        <v>0.9853283116847387</v>
+        <v>0.9853283116847374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041229538958481</v>
+        <v>1.04122953895848</v>
       </c>
       <c r="J5">
-        <v>1.014455275980543</v>
+        <v>1.014455275980541</v>
       </c>
       <c r="K5">
-        <v>1.023237993563896</v>
+        <v>1.023237993563895</v>
       </c>
       <c r="L5">
-        <v>1.011548457893128</v>
+        <v>1.011548457893126</v>
       </c>
       <c r="M5">
-        <v>0.9953779594753045</v>
+        <v>0.9953779594753034</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9956717017342955</v>
+        <v>0.9956717017342953</v>
       </c>
       <c r="D6">
-        <v>1.0137299429436</v>
+        <v>1.013729942943599</v>
       </c>
       <c r="E6">
-        <v>1.001925047427213</v>
+        <v>1.001925047427212</v>
       </c>
       <c r="F6">
-        <v>0.9858632413514382</v>
+        <v>0.9858632413514378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041335120691551</v>
+        <v>1.04133512069155</v>
       </c>
       <c r="J6">
         <v>1.014651525215553</v>
@@ -600,7 +600,7 @@
         <v>1.0117386670748</v>
       </c>
       <c r="M6">
-        <v>0.9958679267506079</v>
+        <v>0.9958679267506075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,13 +620,13 @@
         <v>1.000332753338689</v>
       </c>
       <c r="F7">
-        <v>0.9821572305609495</v>
+        <v>0.9821572305609507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040603523609887</v>
+        <v>1.040603523609886</v>
       </c>
       <c r="J7">
         <v>1.013295013483711</v>
@@ -638,7 +638,7 @@
         <v>1.010424163863542</v>
       </c>
       <c r="M7">
-        <v>0.9924728059285783</v>
+        <v>0.9924728059285794</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854001822947356</v>
+        <v>0.985400182294735</v>
       </c>
       <c r="D8">
         <v>1.00605132058818</v>
       </c>
       <c r="E8">
-        <v>0.9934888396692513</v>
+        <v>0.9934888396692505</v>
       </c>
       <c r="F8">
-        <v>0.9659208125226099</v>
+        <v>0.9659208125226086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037399115645666</v>
+        <v>1.037399115645665</v>
       </c>
       <c r="J8">
         <v>1.00744054059873</v>
@@ -673,10 +673,10 @@
         <v>1.017149942086848</v>
       </c>
       <c r="L8">
-        <v>1.004757737142579</v>
+        <v>1.004757737142578</v>
       </c>
       <c r="M8">
-        <v>0.9775830902322654</v>
+        <v>0.9775830902322643</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696626906816104</v>
+        <v>0.9696626906816118</v>
       </c>
       <c r="D9">
-        <v>0.99426794675357</v>
+        <v>0.9942679467535716</v>
       </c>
       <c r="E9">
-        <v>0.9806210727529612</v>
+        <v>0.9806210727529625</v>
       </c>
       <c r="F9">
-        <v>0.9338433122238565</v>
+        <v>0.9338433122238579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031119691864296</v>
+        <v>1.031119691864297</v>
       </c>
       <c r="J9">
-        <v>0.9963341769839806</v>
+        <v>0.996334176983982</v>
       </c>
       <c r="K9">
-        <v>1.007454712189293</v>
+        <v>1.007454712189294</v>
       </c>
       <c r="L9">
-        <v>0.9940365843139984</v>
+        <v>0.9940365843139998</v>
       </c>
       <c r="M9">
-        <v>0.9481094069672605</v>
+        <v>0.9481094069672619</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9583171257208506</v>
+        <v>0.9583171257208504</v>
       </c>
       <c r="D10">
-        <v>0.9857583627071806</v>
+        <v>0.9857583627071805</v>
       </c>
       <c r="E10">
-        <v>0.9713860067466865</v>
+        <v>0.9713860067466863</v>
       </c>
       <c r="F10">
-        <v>0.9092821731743811</v>
+        <v>0.9092821731743806</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026408748623265</v>
       </c>
       <c r="J10">
-        <v>0.9882880299699995</v>
+        <v>0.9882880299699992</v>
       </c>
       <c r="K10">
         <v>1.000389604999078</v>
       </c>
       <c r="L10">
-        <v>0.9862918563631934</v>
+        <v>0.9862918563631932</v>
       </c>
       <c r="M10">
-        <v>0.9255082931653538</v>
+        <v>0.9255082931653537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531596201702853</v>
+        <v>0.9531596201702863</v>
       </c>
       <c r="D11">
-        <v>0.9818849621938344</v>
+        <v>0.9818849621938353</v>
       </c>
       <c r="E11">
-        <v>0.9671990126582667</v>
+        <v>0.9671990126582676</v>
       </c>
       <c r="F11">
-        <v>0.8976217335924696</v>
+        <v>0.8976217335924715</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024214157015806</v>
+        <v>1.024214157015807</v>
       </c>
       <c r="J11">
-        <v>0.9846197336974588</v>
+        <v>0.9846197336974599</v>
       </c>
       <c r="K11">
-        <v>0.9971567828874722</v>
+        <v>0.9971567828874731</v>
       </c>
       <c r="L11">
-        <v>0.9827672015556266</v>
+        <v>0.9827672015556275</v>
       </c>
       <c r="M11">
-        <v>0.9147722759845131</v>
+        <v>0.9147722759845148</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9512025648467112</v>
+        <v>0.9512025648467115</v>
       </c>
       <c r="D12">
-        <v>0.9804141589260763</v>
+        <v>0.9804141589260768</v>
       </c>
       <c r="E12">
-        <v>0.9656119975588526</v>
+        <v>0.9656119975588527</v>
       </c>
       <c r="F12">
-        <v>0.8931038756026467</v>
+        <v>0.8931038756026469</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023372264625743</v>
       </c>
       <c r="J12">
-        <v>0.9832259806242051</v>
+        <v>0.9832259806242054</v>
       </c>
       <c r="K12">
-        <v>0.9959264647811185</v>
+        <v>0.9959264647811188</v>
       </c>
       <c r="L12">
-        <v>0.9814290647967396</v>
+        <v>0.9814290647967399</v>
       </c>
       <c r="M12">
-        <v>0.9106119050369816</v>
+        <v>0.9106119050369821</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516243145136973</v>
+        <v>0.9516243145136988</v>
       </c>
       <c r="D13">
-        <v>0.9807311712370461</v>
+        <v>0.9807311712370472</v>
       </c>
       <c r="E13">
-        <v>0.9659539212218194</v>
+        <v>0.9659539212218206</v>
       </c>
       <c r="F13">
-        <v>0.8940820605914975</v>
+        <v>0.8940820605914999</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023554129699466</v>
+        <v>1.023554129699467</v>
       </c>
       <c r="J13">
-        <v>0.9835264221915599</v>
+        <v>0.9835264221915612</v>
       </c>
       <c r="K13">
-        <v>0.9961917720255059</v>
+        <v>0.9961917720255073</v>
       </c>
       <c r="L13">
-        <v>0.9817174685906115</v>
+        <v>0.9817174685906126</v>
       </c>
       <c r="M13">
-        <v>0.9115127147176908</v>
+        <v>0.9115127147176931</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529987224675869</v>
+        <v>0.9529987224675875</v>
       </c>
       <c r="D14">
-        <v>0.981764063681937</v>
+        <v>0.9817640636819371</v>
       </c>
       <c r="E14">
-        <v>0.9670685010357913</v>
+        <v>0.9670685010357917</v>
       </c>
       <c r="F14">
-        <v>0.8972523209647272</v>
+        <v>0.897252320964728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024145134816912</v>
+        <v>1.024145134816913</v>
       </c>
       <c r="J14">
-        <v>0.9845051850951109</v>
+        <v>0.9845051850951112</v>
       </c>
       <c r="K14">
         <v>0.9970557092464151</v>
       </c>
       <c r="L14">
-        <v>0.9826572021149909</v>
+        <v>0.9826572021149911</v>
       </c>
       <c r="M14">
-        <v>0.9144321061810275</v>
+        <v>0.9144321061810283</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.95383991061212</v>
+        <v>0.9538399106121207</v>
       </c>
       <c r="D15">
-        <v>0.9823960894800789</v>
+        <v>0.9823960894800797</v>
       </c>
       <c r="E15">
-        <v>0.9677509004666299</v>
+        <v>0.9677509004666309</v>
       </c>
       <c r="F15">
-        <v>0.8991797326159879</v>
+        <v>0.899179732615987</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02450561037826</v>
       </c>
       <c r="J15">
-        <v>0.9851039818296162</v>
+        <v>0.9851039818296171</v>
       </c>
       <c r="K15">
-        <v>0.9975839825948959</v>
+        <v>0.9975839825948964</v>
       </c>
       <c r="L15">
-        <v>0.9832322612649779</v>
+        <v>0.9832322612649786</v>
       </c>
       <c r="M15">
-        <v>0.916206917431137</v>
+        <v>0.9162069174311361</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9586538886909952</v>
+        <v>0.9586538886909968</v>
       </c>
       <c r="D16">
-        <v>0.9860111560803279</v>
+        <v>0.9860111560803291</v>
       </c>
       <c r="E16">
-        <v>0.9716596376263829</v>
+        <v>0.971659637626384</v>
       </c>
       <c r="F16">
-        <v>0.9100318821515335</v>
+        <v>0.9100318821515349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026550861353036</v>
+        <v>1.026550861353037</v>
       </c>
       <c r="J16">
-        <v>0.9885273200240081</v>
+        <v>0.9885273200240096</v>
       </c>
       <c r="K16">
-        <v>1.000600226091219</v>
+        <v>1.00060022609122</v>
       </c>
       <c r="L16">
-        <v>0.9865219129110421</v>
+        <v>0.9865219129110432</v>
       </c>
       <c r="M16">
-        <v>0.9261984604321175</v>
+        <v>0.926198460432119</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9616051147367309</v>
+        <v>0.961605114736731</v>
       </c>
       <c r="D17">
-        <v>0.9882259255362695</v>
+        <v>0.9882259255362699</v>
       </c>
       <c r="E17">
-        <v>0.9740588683600147</v>
+        <v>0.9740588683600152</v>
       </c>
       <c r="F17">
         <v>0.9165446517206864</v>
@@ -1009,13 +1009,13 @@
         <v>1.027790200082155</v>
       </c>
       <c r="J17">
-        <v>0.9906231293305683</v>
+        <v>0.9906231293305686</v>
       </c>
       <c r="K17">
         <v>1.00244359516212</v>
       </c>
       <c r="L17">
-        <v>0.9885375594886323</v>
+        <v>0.9885375594886326</v>
       </c>
       <c r="M17">
         <v>0.9321933369389875</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9633032473414345</v>
+        <v>0.9633032473414354</v>
       </c>
       <c r="D18">
-        <v>0.9894998463705834</v>
+        <v>0.9894998463705842</v>
       </c>
       <c r="E18">
-        <v>0.9754404179477573</v>
+        <v>0.9754404179477584</v>
       </c>
       <c r="F18">
-        <v>0.9202471574846555</v>
+        <v>0.9202471574846557</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.028498434036246</v>
       </c>
       <c r="J18">
-        <v>0.9918280738822386</v>
+        <v>0.9918280738822395</v>
       </c>
       <c r="K18">
-        <v>1.003502321509793</v>
+        <v>1.003502321509794</v>
       </c>
       <c r="L18">
-        <v>0.9896969898700669</v>
+        <v>0.9896969898700683</v>
       </c>
       <c r="M18">
         <v>0.9356008468879987</v>
@@ -1070,13 +1070,13 @@
         <v>0.9638784427047301</v>
       </c>
       <c r="D19">
-        <v>0.9899312799671072</v>
+        <v>0.9899312799671073</v>
       </c>
       <c r="E19">
-        <v>0.9759085520303361</v>
+        <v>0.9759085520303363</v>
       </c>
       <c r="F19">
-        <v>0.9214941168013716</v>
+        <v>0.9214941168013711</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028737529045021</v>
       </c>
       <c r="J19">
-        <v>0.9922360531637606</v>
+        <v>0.9922360531637607</v>
       </c>
       <c r="K19">
         <v>1.003860615491338</v>
       </c>
       <c r="L19">
-        <v>0.9900896533107197</v>
+        <v>0.9900896533107199</v>
       </c>
       <c r="M19">
-        <v>0.9367483521603417</v>
+        <v>0.9367483521603414</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9612909125317169</v>
+        <v>0.9612909125317172</v>
       </c>
       <c r="D20">
-        <v>0.987990178879728</v>
+        <v>0.9879901788797285</v>
       </c>
       <c r="E20">
-        <v>0.9738033260240481</v>
+        <v>0.9738033260240484</v>
       </c>
       <c r="F20">
-        <v>0.9158560555780029</v>
+        <v>0.9158560555780031</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02765876832498</v>
       </c>
       <c r="J20">
-        <v>0.9904001022333093</v>
+        <v>0.9904001022333095</v>
       </c>
       <c r="K20">
         <v>1.002247545769808</v>
       </c>
       <c r="L20">
-        <v>0.9883230026355598</v>
+        <v>0.9883230026355602</v>
       </c>
       <c r="M20">
-        <v>0.9315595562569278</v>
+        <v>0.9315595562569279</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525951761800033</v>
+        <v>0.9525951761800038</v>
       </c>
       <c r="D21">
-        <v>0.9814608217304782</v>
+        <v>0.9814608217304789</v>
       </c>
       <c r="E21">
         <v>0.9667411946563959</v>
       </c>
       <c r="F21">
-        <v>0.8963242268437829</v>
+        <v>0.896324226843783</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023971869246148</v>
       </c>
       <c r="J21">
-        <v>0.9842178570670702</v>
+        <v>0.9842178570670707</v>
       </c>
       <c r="K21">
-        <v>0.9968021476541409</v>
+        <v>0.9968021476541415</v>
       </c>
       <c r="L21">
-        <v>0.9823813021038122</v>
+        <v>0.9823813021038125</v>
       </c>
       <c r="M21">
-        <v>0.9135774703265785</v>
+        <v>0.9135774703265788</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.94688561167011</v>
+        <v>0.9468856116701105</v>
       </c>
       <c r="D22">
-        <v>0.9771675271778211</v>
+        <v>0.9771675271778212</v>
       </c>
       <c r="E22">
-        <v>0.9621146758244679</v>
+        <v>0.9621146758244685</v>
       </c>
       <c r="F22">
-        <v>0.8829387338698726</v>
+        <v>0.882938733869872</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021496595917754</v>
       </c>
       <c r="J22">
-        <v>0.9801479761545889</v>
+        <v>0.9801479761545895</v>
       </c>
       <c r="K22">
         <v>0.9932052874117033</v>
       </c>
       <c r="L22">
-        <v>0.9784759560684694</v>
+        <v>0.9784759560684697</v>
       </c>
       <c r="M22">
-        <v>0.9012501725404891</v>
+        <v>0.9012501725404886</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499371319424822</v>
+        <v>0.9499371319424833</v>
       </c>
       <c r="D23">
-        <v>0.9794628084097007</v>
+        <v>0.9794628084097016</v>
       </c>
       <c r="E23">
-        <v>0.9645863448048283</v>
+        <v>0.9645863448048297</v>
       </c>
       <c r="F23">
-        <v>0.8901533866891851</v>
+        <v>0.8901533866891866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022825135285456</v>
+        <v>1.022825135285457</v>
       </c>
       <c r="J23">
-        <v>0.9823242424110854</v>
+        <v>0.9823242424110865</v>
       </c>
       <c r="K23">
-        <v>0.9951298565350102</v>
+        <v>0.995129856535011</v>
       </c>
       <c r="L23">
-        <v>0.9805636190244814</v>
+        <v>0.9805636190244826</v>
       </c>
       <c r="M23">
-        <v>0.9078947251438272</v>
+        <v>0.9078947251438289</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9614329585556144</v>
+        <v>0.9614329585556147</v>
       </c>
       <c r="D24">
-        <v>0.9880967577456504</v>
+        <v>0.9880967577456508</v>
       </c>
       <c r="E24">
-        <v>0.9739188496084565</v>
+        <v>0.9739188496084569</v>
       </c>
       <c r="F24">
-        <v>0.9161674977359262</v>
+        <v>0.916167497735927</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027718201704411</v>
       </c>
       <c r="J24">
-        <v>0.9905009324212802</v>
+        <v>0.9905009324212806</v>
       </c>
       <c r="K24">
-        <v>1.002336182729816</v>
+        <v>1.002336182729817</v>
       </c>
       <c r="L24">
-        <v>0.9884200016633299</v>
+        <v>0.9884200016633303</v>
       </c>
       <c r="M24">
-        <v>0.9318462079768707</v>
+        <v>0.9318462079768715</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738693969473652</v>
+        <v>0.9738693969473659</v>
       </c>
       <c r="D25">
-        <v>0.9974198550016573</v>
+        <v>0.9974198550016578</v>
       </c>
       <c r="E25">
-        <v>0.9840540047853455</v>
+        <v>0.9840540047853462</v>
       </c>
       <c r="F25">
-        <v>0.9426219288954043</v>
+        <v>0.9426219288954046</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032827068682898</v>
+        <v>1.032827068682899</v>
       </c>
       <c r="J25">
-        <v>0.9993093362772042</v>
+        <v>0.9993093362772046</v>
       </c>
       <c r="K25">
         <v>1.010058356879538</v>
       </c>
       <c r="L25">
-        <v>0.9969050105876914</v>
+        <v>0.996905010587692</v>
       </c>
       <c r="M25">
-        <v>0.956181450077343</v>
+        <v>0.9561814500773433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831877577955805</v>
+        <v>0.9831877577955807</v>
       </c>
       <c r="D2">
         <v>1.004396099011662</v>
       </c>
       <c r="E2">
-        <v>0.9916756862165811</v>
+        <v>0.9916756862165812</v>
       </c>
       <c r="F2">
-        <v>0.9615303848699801</v>
+        <v>0.9615303848699802</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>1.003252223230855</v>
       </c>
       <c r="M2">
-        <v>0.97355301750254</v>
+        <v>0.9735530175025401</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9896542596823723</v>
+        <v>0.9896542596823732</v>
       </c>
       <c r="D3">
-        <v>1.009232751200672</v>
+        <v>1.009232751200673</v>
       </c>
       <c r="E3">
-        <v>0.9969791054426999</v>
+        <v>0.9969791054427009</v>
       </c>
       <c r="F3">
-        <v>0.9742652374121925</v>
+        <v>0.9742652374121932</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03904530907114</v>
+        <v>1.039045309071141</v>
       </c>
       <c r="J3">
-        <v>1.010430989200356</v>
+        <v>1.010430989200357</v>
       </c>
       <c r="K3">
-        <v>1.019748844678155</v>
+        <v>1.019748844678156</v>
       </c>
       <c r="L3">
-        <v>1.007650785665688</v>
+        <v>1.007650785665689</v>
       </c>
       <c r="M3">
-        <v>0.9852383448901575</v>
+        <v>0.9852383448901583</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937133182733472</v>
+        <v>0.9937133182733459</v>
       </c>
       <c r="D4">
         <v>1.012266728508702</v>
       </c>
       <c r="E4">
-        <v>1.000314225731552</v>
+        <v>1.00031422573155</v>
       </c>
       <c r="F4">
-        <v>0.9821139555225968</v>
+        <v>0.9821139555225951</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040594979421691</v>
+        <v>1.04059497942169</v>
       </c>
       <c r="J4">
-        <v>1.013279216685711</v>
+        <v>1.01327921668571</v>
       </c>
       <c r="K4">
-        <v>1.022219325409099</v>
+        <v>1.022219325409098</v>
       </c>
       <c r="L4">
-        <v>1.010408859804497</v>
+        <v>1.010408859804496</v>
       </c>
       <c r="M4">
-        <v>0.992433152843139</v>
+        <v>0.9924331528431372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9953915295410944</v>
+        <v>0.9953915295410962</v>
       </c>
       <c r="D5">
-        <v>1.013520635801318</v>
+        <v>1.013520635801319</v>
       </c>
       <c r="E5">
-        <v>1.001694529378986</v>
+        <v>1.001694529378987</v>
       </c>
       <c r="F5">
-        <v>0.9853283116847374</v>
+        <v>0.9853283116847387</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04122953895848</v>
+        <v>1.041229538958481</v>
       </c>
       <c r="J5">
-        <v>1.014455275980541</v>
+        <v>1.014455275980543</v>
       </c>
       <c r="K5">
-        <v>1.023237993563895</v>
+        <v>1.023237993563896</v>
       </c>
       <c r="L5">
-        <v>1.011548457893126</v>
+        <v>1.011548457893128</v>
       </c>
       <c r="M5">
-        <v>0.9953779594753034</v>
+        <v>0.9953779594753045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9956717017342953</v>
+        <v>0.9956717017342955</v>
       </c>
       <c r="D6">
-        <v>1.013729942943599</v>
+        <v>1.0137299429436</v>
       </c>
       <c r="E6">
-        <v>1.001925047427212</v>
+        <v>1.001925047427213</v>
       </c>
       <c r="F6">
-        <v>0.9858632413514378</v>
+        <v>0.9858632413514382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04133512069155</v>
+        <v>1.041335120691551</v>
       </c>
       <c r="J6">
         <v>1.014651525215553</v>
@@ -600,7 +600,7 @@
         <v>1.0117386670748</v>
       </c>
       <c r="M6">
-        <v>0.9958679267506075</v>
+        <v>0.9958679267506079</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,13 +620,13 @@
         <v>1.000332753338689</v>
       </c>
       <c r="F7">
-        <v>0.9821572305609507</v>
+        <v>0.9821572305609495</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040603523609886</v>
+        <v>1.040603523609887</v>
       </c>
       <c r="J7">
         <v>1.013295013483711</v>
@@ -638,7 +638,7 @@
         <v>1.010424163863542</v>
       </c>
       <c r="M7">
-        <v>0.9924728059285794</v>
+        <v>0.9924728059285783</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,22 +649,22 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.985400182294735</v>
+        <v>0.9854001822947356</v>
       </c>
       <c r="D8">
         <v>1.00605132058818</v>
       </c>
       <c r="E8">
-        <v>0.9934888396692505</v>
+        <v>0.9934888396692513</v>
       </c>
       <c r="F8">
-        <v>0.9659208125226086</v>
+        <v>0.9659208125226099</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037399115645665</v>
+        <v>1.037399115645666</v>
       </c>
       <c r="J8">
         <v>1.00744054059873</v>
@@ -673,10 +673,10 @@
         <v>1.017149942086848</v>
       </c>
       <c r="L8">
-        <v>1.004757737142578</v>
+        <v>1.004757737142579</v>
       </c>
       <c r="M8">
-        <v>0.9775830902322643</v>
+        <v>0.9775830902322654</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696626906816118</v>
+        <v>0.9696626906816104</v>
       </c>
       <c r="D9">
-        <v>0.9942679467535716</v>
+        <v>0.99426794675357</v>
       </c>
       <c r="E9">
-        <v>0.9806210727529625</v>
+        <v>0.9806210727529612</v>
       </c>
       <c r="F9">
-        <v>0.9338433122238579</v>
+        <v>0.9338433122238565</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031119691864297</v>
+        <v>1.031119691864296</v>
       </c>
       <c r="J9">
-        <v>0.996334176983982</v>
+        <v>0.9963341769839806</v>
       </c>
       <c r="K9">
-        <v>1.007454712189294</v>
+        <v>1.007454712189293</v>
       </c>
       <c r="L9">
-        <v>0.9940365843139998</v>
+        <v>0.9940365843139984</v>
       </c>
       <c r="M9">
-        <v>0.9481094069672619</v>
+        <v>0.9481094069672605</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9583171257208504</v>
+        <v>0.9583171257208506</v>
       </c>
       <c r="D10">
-        <v>0.9857583627071805</v>
+        <v>0.9857583627071806</v>
       </c>
       <c r="E10">
-        <v>0.9713860067466863</v>
+        <v>0.9713860067466865</v>
       </c>
       <c r="F10">
-        <v>0.9092821731743806</v>
+        <v>0.9092821731743811</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026408748623265</v>
       </c>
       <c r="J10">
-        <v>0.9882880299699992</v>
+        <v>0.9882880299699995</v>
       </c>
       <c r="K10">
         <v>1.000389604999078</v>
       </c>
       <c r="L10">
-        <v>0.9862918563631932</v>
+        <v>0.9862918563631934</v>
       </c>
       <c r="M10">
-        <v>0.9255082931653537</v>
+        <v>0.9255082931653538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531596201702863</v>
+        <v>0.9531596201702853</v>
       </c>
       <c r="D11">
-        <v>0.9818849621938353</v>
+        <v>0.9818849621938344</v>
       </c>
       <c r="E11">
-        <v>0.9671990126582676</v>
+        <v>0.9671990126582667</v>
       </c>
       <c r="F11">
-        <v>0.8976217335924715</v>
+        <v>0.8976217335924696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024214157015807</v>
+        <v>1.024214157015806</v>
       </c>
       <c r="J11">
-        <v>0.9846197336974599</v>
+        <v>0.9846197336974588</v>
       </c>
       <c r="K11">
-        <v>0.9971567828874731</v>
+        <v>0.9971567828874722</v>
       </c>
       <c r="L11">
-        <v>0.9827672015556275</v>
+        <v>0.9827672015556266</v>
       </c>
       <c r="M11">
-        <v>0.9147722759845148</v>
+        <v>0.9147722759845131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9512025648467115</v>
+        <v>0.9512025648467112</v>
       </c>
       <c r="D12">
-        <v>0.9804141589260768</v>
+        <v>0.9804141589260763</v>
       </c>
       <c r="E12">
-        <v>0.9656119975588527</v>
+        <v>0.9656119975588526</v>
       </c>
       <c r="F12">
-        <v>0.8931038756026469</v>
+        <v>0.8931038756026467</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023372264625743</v>
       </c>
       <c r="J12">
-        <v>0.9832259806242054</v>
+        <v>0.9832259806242051</v>
       </c>
       <c r="K12">
-        <v>0.9959264647811188</v>
+        <v>0.9959264647811185</v>
       </c>
       <c r="L12">
-        <v>0.9814290647967399</v>
+        <v>0.9814290647967396</v>
       </c>
       <c r="M12">
-        <v>0.9106119050369821</v>
+        <v>0.9106119050369816</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516243145136988</v>
+        <v>0.9516243145136973</v>
       </c>
       <c r="D13">
-        <v>0.9807311712370472</v>
+        <v>0.9807311712370461</v>
       </c>
       <c r="E13">
-        <v>0.9659539212218206</v>
+        <v>0.9659539212218194</v>
       </c>
       <c r="F13">
-        <v>0.8940820605914999</v>
+        <v>0.8940820605914975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023554129699467</v>
+        <v>1.023554129699466</v>
       </c>
       <c r="J13">
-        <v>0.9835264221915612</v>
+        <v>0.9835264221915599</v>
       </c>
       <c r="K13">
-        <v>0.9961917720255073</v>
+        <v>0.9961917720255059</v>
       </c>
       <c r="L13">
-        <v>0.9817174685906126</v>
+        <v>0.9817174685906115</v>
       </c>
       <c r="M13">
-        <v>0.9115127147176931</v>
+        <v>0.9115127147176908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529987224675875</v>
+        <v>0.9529987224675869</v>
       </c>
       <c r="D14">
-        <v>0.9817640636819371</v>
+        <v>0.981764063681937</v>
       </c>
       <c r="E14">
-        <v>0.9670685010357917</v>
+        <v>0.9670685010357913</v>
       </c>
       <c r="F14">
-        <v>0.897252320964728</v>
+        <v>0.8972523209647272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024145134816913</v>
+        <v>1.024145134816912</v>
       </c>
       <c r="J14">
-        <v>0.9845051850951112</v>
+        <v>0.9845051850951109</v>
       </c>
       <c r="K14">
         <v>0.9970557092464151</v>
       </c>
       <c r="L14">
-        <v>0.9826572021149911</v>
+        <v>0.9826572021149909</v>
       </c>
       <c r="M14">
-        <v>0.9144321061810283</v>
+        <v>0.9144321061810275</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9538399106121207</v>
+        <v>0.95383991061212</v>
       </c>
       <c r="D15">
-        <v>0.9823960894800797</v>
+        <v>0.9823960894800789</v>
       </c>
       <c r="E15">
-        <v>0.9677509004666309</v>
+        <v>0.9677509004666299</v>
       </c>
       <c r="F15">
-        <v>0.899179732615987</v>
+        <v>0.8991797326159879</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02450561037826</v>
       </c>
       <c r="J15">
-        <v>0.9851039818296171</v>
+        <v>0.9851039818296162</v>
       </c>
       <c r="K15">
-        <v>0.9975839825948964</v>
+        <v>0.9975839825948959</v>
       </c>
       <c r="L15">
-        <v>0.9832322612649786</v>
+        <v>0.9832322612649779</v>
       </c>
       <c r="M15">
-        <v>0.9162069174311361</v>
+        <v>0.916206917431137</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9586538886909968</v>
+        <v>0.9586538886909952</v>
       </c>
       <c r="D16">
-        <v>0.9860111560803291</v>
+        <v>0.9860111560803279</v>
       </c>
       <c r="E16">
-        <v>0.971659637626384</v>
+        <v>0.9716596376263829</v>
       </c>
       <c r="F16">
-        <v>0.9100318821515349</v>
+        <v>0.9100318821515335</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026550861353037</v>
+        <v>1.026550861353036</v>
       </c>
       <c r="J16">
-        <v>0.9885273200240096</v>
+        <v>0.9885273200240081</v>
       </c>
       <c r="K16">
-        <v>1.00060022609122</v>
+        <v>1.000600226091219</v>
       </c>
       <c r="L16">
-        <v>0.9865219129110432</v>
+        <v>0.9865219129110421</v>
       </c>
       <c r="M16">
-        <v>0.926198460432119</v>
+        <v>0.9261984604321175</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.961605114736731</v>
+        <v>0.9616051147367309</v>
       </c>
       <c r="D17">
-        <v>0.9882259255362699</v>
+        <v>0.9882259255362695</v>
       </c>
       <c r="E17">
-        <v>0.9740588683600152</v>
+        <v>0.9740588683600147</v>
       </c>
       <c r="F17">
         <v>0.9165446517206864</v>
@@ -1009,13 +1009,13 @@
         <v>1.027790200082155</v>
       </c>
       <c r="J17">
-        <v>0.9906231293305686</v>
+        <v>0.9906231293305683</v>
       </c>
       <c r="K17">
         <v>1.00244359516212</v>
       </c>
       <c r="L17">
-        <v>0.9885375594886326</v>
+        <v>0.9885375594886323</v>
       </c>
       <c r="M17">
         <v>0.9321933369389875</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9633032473414354</v>
+        <v>0.9633032473414345</v>
       </c>
       <c r="D18">
-        <v>0.9894998463705842</v>
+        <v>0.9894998463705834</v>
       </c>
       <c r="E18">
-        <v>0.9754404179477584</v>
+        <v>0.9754404179477573</v>
       </c>
       <c r="F18">
-        <v>0.9202471574846557</v>
+        <v>0.9202471574846555</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.028498434036246</v>
       </c>
       <c r="J18">
-        <v>0.9918280738822395</v>
+        <v>0.9918280738822386</v>
       </c>
       <c r="K18">
-        <v>1.003502321509794</v>
+        <v>1.003502321509793</v>
       </c>
       <c r="L18">
-        <v>0.9896969898700683</v>
+        <v>0.9896969898700669</v>
       </c>
       <c r="M18">
         <v>0.9356008468879987</v>
@@ -1070,13 +1070,13 @@
         <v>0.9638784427047301</v>
       </c>
       <c r="D19">
-        <v>0.9899312799671073</v>
+        <v>0.9899312799671072</v>
       </c>
       <c r="E19">
-        <v>0.9759085520303363</v>
+        <v>0.9759085520303361</v>
       </c>
       <c r="F19">
-        <v>0.9214941168013711</v>
+        <v>0.9214941168013716</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028737529045021</v>
       </c>
       <c r="J19">
-        <v>0.9922360531637607</v>
+        <v>0.9922360531637606</v>
       </c>
       <c r="K19">
         <v>1.003860615491338</v>
       </c>
       <c r="L19">
-        <v>0.9900896533107199</v>
+        <v>0.9900896533107197</v>
       </c>
       <c r="M19">
-        <v>0.9367483521603414</v>
+        <v>0.9367483521603417</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9612909125317172</v>
+        <v>0.9612909125317169</v>
       </c>
       <c r="D20">
-        <v>0.9879901788797285</v>
+        <v>0.987990178879728</v>
       </c>
       <c r="E20">
-        <v>0.9738033260240484</v>
+        <v>0.9738033260240481</v>
       </c>
       <c r="F20">
-        <v>0.9158560555780031</v>
+        <v>0.9158560555780029</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.02765876832498</v>
       </c>
       <c r="J20">
-        <v>0.9904001022333095</v>
+        <v>0.9904001022333093</v>
       </c>
       <c r="K20">
         <v>1.002247545769808</v>
       </c>
       <c r="L20">
-        <v>0.9883230026355602</v>
+        <v>0.9883230026355598</v>
       </c>
       <c r="M20">
-        <v>0.9315595562569279</v>
+        <v>0.9315595562569278</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525951761800038</v>
+        <v>0.9525951761800033</v>
       </c>
       <c r="D21">
-        <v>0.9814608217304789</v>
+        <v>0.9814608217304782</v>
       </c>
       <c r="E21">
         <v>0.9667411946563959</v>
       </c>
       <c r="F21">
-        <v>0.896324226843783</v>
+        <v>0.8963242268437829</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023971869246148</v>
       </c>
       <c r="J21">
-        <v>0.9842178570670707</v>
+        <v>0.9842178570670702</v>
       </c>
       <c r="K21">
-        <v>0.9968021476541415</v>
+        <v>0.9968021476541409</v>
       </c>
       <c r="L21">
-        <v>0.9823813021038125</v>
+        <v>0.9823813021038122</v>
       </c>
       <c r="M21">
-        <v>0.9135774703265788</v>
+        <v>0.9135774703265785</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9468856116701105</v>
+        <v>0.94688561167011</v>
       </c>
       <c r="D22">
-        <v>0.9771675271778212</v>
+        <v>0.9771675271778211</v>
       </c>
       <c r="E22">
-        <v>0.9621146758244685</v>
+        <v>0.9621146758244679</v>
       </c>
       <c r="F22">
-        <v>0.882938733869872</v>
+        <v>0.8829387338698726</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.021496595917754</v>
       </c>
       <c r="J22">
-        <v>0.9801479761545895</v>
+        <v>0.9801479761545889</v>
       </c>
       <c r="K22">
         <v>0.9932052874117033</v>
       </c>
       <c r="L22">
-        <v>0.9784759560684697</v>
+        <v>0.9784759560684694</v>
       </c>
       <c r="M22">
-        <v>0.9012501725404886</v>
+        <v>0.9012501725404891</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499371319424833</v>
+        <v>0.9499371319424822</v>
       </c>
       <c r="D23">
-        <v>0.9794628084097016</v>
+        <v>0.9794628084097007</v>
       </c>
       <c r="E23">
-        <v>0.9645863448048297</v>
+        <v>0.9645863448048283</v>
       </c>
       <c r="F23">
-        <v>0.8901533866891866</v>
+        <v>0.8901533866891851</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022825135285457</v>
+        <v>1.022825135285456</v>
       </c>
       <c r="J23">
-        <v>0.9823242424110865</v>
+        <v>0.9823242424110854</v>
       </c>
       <c r="K23">
-        <v>0.995129856535011</v>
+        <v>0.9951298565350102</v>
       </c>
       <c r="L23">
-        <v>0.9805636190244826</v>
+        <v>0.9805636190244814</v>
       </c>
       <c r="M23">
-        <v>0.9078947251438289</v>
+        <v>0.9078947251438272</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9614329585556147</v>
+        <v>0.9614329585556144</v>
       </c>
       <c r="D24">
-        <v>0.9880967577456508</v>
+        <v>0.9880967577456504</v>
       </c>
       <c r="E24">
-        <v>0.9739188496084569</v>
+        <v>0.9739188496084565</v>
       </c>
       <c r="F24">
-        <v>0.916167497735927</v>
+        <v>0.9161674977359262</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027718201704411</v>
       </c>
       <c r="J24">
-        <v>0.9905009324212806</v>
+        <v>0.9905009324212802</v>
       </c>
       <c r="K24">
-        <v>1.002336182729817</v>
+        <v>1.002336182729816</v>
       </c>
       <c r="L24">
-        <v>0.9884200016633303</v>
+        <v>0.9884200016633299</v>
       </c>
       <c r="M24">
-        <v>0.9318462079768715</v>
+        <v>0.9318462079768707</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738693969473659</v>
+        <v>0.9738693969473652</v>
       </c>
       <c r="D25">
-        <v>0.9974198550016578</v>
+        <v>0.9974198550016573</v>
       </c>
       <c r="E25">
-        <v>0.9840540047853462</v>
+        <v>0.9840540047853455</v>
       </c>
       <c r="F25">
-        <v>0.9426219288954046</v>
+        <v>0.9426219288954043</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032827068682899</v>
+        <v>1.032827068682898</v>
       </c>
       <c r="J25">
-        <v>0.9993093362772046</v>
+        <v>0.9993093362772042</v>
       </c>
       <c r="K25">
         <v>1.010058356879538</v>
       </c>
       <c r="L25">
-        <v>0.996905010587692</v>
+        <v>0.9969050105876914</v>
       </c>
       <c r="M25">
-        <v>0.9561814500773433</v>
+        <v>0.956181450077343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831877577955807</v>
+        <v>0.9831983290193336</v>
       </c>
       <c r="D2">
-        <v>1.004396099011662</v>
+        <v>1.004404359471091</v>
       </c>
       <c r="E2">
-        <v>0.9916756862165812</v>
+        <v>0.9916854475178982</v>
       </c>
       <c r="F2">
-        <v>0.9615303848699802</v>
+        <v>0.9615355875989408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03653422925068</v>
+        <v>1.036538483433316</v>
       </c>
       <c r="J2">
-        <v>1.005883217557944</v>
+        <v>1.005893457468156</v>
       </c>
       <c r="K2">
-        <v>1.015794527069298</v>
+        <v>1.015802673714827</v>
       </c>
       <c r="L2">
-        <v>1.003252223230855</v>
+        <v>1.003261845640374</v>
       </c>
       <c r="M2">
-        <v>0.9735530175025401</v>
+        <v>0.973558140160688</v>
+      </c>
+      <c r="N2">
+        <v>1.005958438186838</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9896542596823732</v>
+        <v>0.9896615394443591</v>
       </c>
       <c r="D3">
-        <v>1.009232751200673</v>
+        <v>1.009238504184701</v>
       </c>
       <c r="E3">
-        <v>0.9969791054427009</v>
+        <v>0.9969859585032215</v>
       </c>
       <c r="F3">
-        <v>0.9742652374121932</v>
+        <v>0.974268777401355</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039045309071141</v>
+        <v>1.039048270561224</v>
       </c>
       <c r="J3">
-        <v>1.010430989200357</v>
+        <v>1.010438064800652</v>
       </c>
       <c r="K3">
-        <v>1.019748844678156</v>
+        <v>1.019754525721704</v>
       </c>
       <c r="L3">
-        <v>1.007650785665689</v>
+        <v>1.007657550374882</v>
       </c>
       <c r="M3">
-        <v>0.9852383448901583</v>
+        <v>0.9852418365229648</v>
+      </c>
+      <c r="N3">
+        <v>1.009095009100586</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937133182733459</v>
+        <v>0.9937185643942842</v>
       </c>
       <c r="D4">
-        <v>1.012266728508702</v>
+        <v>1.012270929220745</v>
       </c>
       <c r="E4">
-        <v>1.00031422573155</v>
+        <v>1.000319278559438</v>
       </c>
       <c r="F4">
-        <v>0.9821139555225951</v>
+        <v>0.9821165055277248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04059497942169</v>
+        <v>1.040597141464804</v>
       </c>
       <c r="J4">
-        <v>1.01327921668571</v>
+        <v>1.01328432630063</v>
       </c>
       <c r="K4">
-        <v>1.022219325409098</v>
+        <v>1.022223476931772</v>
       </c>
       <c r="L4">
-        <v>1.010408859804496</v>
+        <v>1.010413851697137</v>
       </c>
       <c r="M4">
-        <v>0.9924331528431372</v>
+        <v>0.992435670657833</v>
+      </c>
+      <c r="N4">
+        <v>1.01105813190475</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9953915295410962</v>
+        <v>0.9953959417500681</v>
       </c>
       <c r="D5">
-        <v>1.013520635801319</v>
+        <v>1.013524199342029</v>
       </c>
       <c r="E5">
-        <v>1.001694529378987</v>
+        <v>1.001698843328215</v>
       </c>
       <c r="F5">
-        <v>0.9853283116847387</v>
+        <v>0.9853304632833049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041229538958481</v>
+        <v>1.04123137296902</v>
       </c>
       <c r="J5">
-        <v>1.014455275980543</v>
+        <v>1.014459577031125</v>
       </c>
       <c r="K5">
-        <v>1.023237993563896</v>
+        <v>1.023241516544472</v>
       </c>
       <c r="L5">
-        <v>1.011548457893128</v>
+        <v>1.011552721296441</v>
       </c>
       <c r="M5">
-        <v>0.9953779594753045</v>
+        <v>0.9953800848123887</v>
+      </c>
+      <c r="N5">
+        <v>1.011868400528697</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9956717017342955</v>
+        <v>0.9956759751057056</v>
       </c>
       <c r="D6">
-        <v>1.0137299429436</v>
+        <v>1.013733400365937</v>
       </c>
       <c r="E6">
-        <v>1.001925047427213</v>
+        <v>1.001929238324596</v>
       </c>
       <c r="F6">
-        <v>0.9858632413514382</v>
+        <v>0.985865327027584</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041335120691551</v>
+        <v>1.041336900074925</v>
       </c>
       <c r="J6">
-        <v>1.014651525215553</v>
+        <v>1.014655691513885</v>
       </c>
       <c r="K6">
-        <v>1.023407896625468</v>
+        <v>1.023411314884523</v>
       </c>
       <c r="L6">
-        <v>1.0117386670748</v>
+        <v>1.011742809107524</v>
       </c>
       <c r="M6">
-        <v>0.9958679267506079</v>
+        <v>0.9958699871142871</v>
+      </c>
+      <c r="N6">
+        <v>1.012003590796694</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937358512964046</v>
+        <v>0.9937410861943801</v>
       </c>
       <c r="D7">
-        <v>1.012283566415634</v>
+        <v>1.01228775855497</v>
       </c>
       <c r="E7">
-        <v>1.000332753338689</v>
+        <v>1.000337796225119</v>
       </c>
       <c r="F7">
-        <v>0.9821572305609495</v>
+        <v>0.9821597751759563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040603523609887</v>
+        <v>1.040605681239145</v>
       </c>
       <c r="J7">
-        <v>1.013295013483711</v>
+        <v>1.013300112226029</v>
       </c>
       <c r="K7">
-        <v>1.022233013694093</v>
+        <v>1.022237156762911</v>
       </c>
       <c r="L7">
-        <v>1.010424163863542</v>
+        <v>1.010429145957856</v>
       </c>
       <c r="M7">
-        <v>0.9924728059285783</v>
+        <v>0.9924753184355792</v>
+      </c>
+      <c r="N7">
+        <v>1.011069016709559</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854001822947356</v>
+        <v>0.9854096199650524</v>
       </c>
       <c r="D8">
-        <v>1.00605132058818</v>
+        <v>1.006058718185408</v>
       </c>
       <c r="E8">
-        <v>0.9934888396692513</v>
+        <v>0.9934976001984033</v>
       </c>
       <c r="F8">
-        <v>0.9659208125226099</v>
+        <v>0.9659254336646087</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037399115645666</v>
+        <v>1.037402924771051</v>
       </c>
       <c r="J8">
-        <v>1.00744054059873</v>
+        <v>1.007449693215739</v>
       </c>
       <c r="K8">
-        <v>1.017149942086848</v>
+        <v>1.017157240987971</v>
       </c>
       <c r="L8">
-        <v>1.004757737142579</v>
+        <v>1.004766377037951</v>
       </c>
       <c r="M8">
-        <v>0.9775830902322654</v>
+        <v>0.9775876430428341</v>
+      </c>
+      <c r="N8">
+        <v>1.007032776147888</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696626906816104</v>
+        <v>0.9696803758145205</v>
       </c>
       <c r="D9">
-        <v>0.99426794675357</v>
+        <v>0.9942816053974739</v>
       </c>
       <c r="E9">
-        <v>0.9806210727529612</v>
+        <v>0.9806370932319445</v>
       </c>
       <c r="F9">
-        <v>0.9338433122238565</v>
+        <v>0.9338524156385454</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031119691864296</v>
+        <v>1.031126738234554</v>
       </c>
       <c r="J9">
-        <v>0.9963341769839806</v>
+        <v>0.996351181129845</v>
       </c>
       <c r="K9">
-        <v>1.007454712189293</v>
+        <v>1.007468145936234</v>
       </c>
       <c r="L9">
-        <v>0.9940365843139984</v>
+        <v>0.9940523314398609</v>
       </c>
       <c r="M9">
-        <v>0.9481094069672605</v>
+        <v>0.9481183339835966</v>
+      </c>
+      <c r="N9">
+        <v>0.9993660386308774</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9583171257208506</v>
+        <v>0.9583410552672658</v>
       </c>
       <c r="D10">
-        <v>0.9857583627071806</v>
+        <v>0.9857767359035819</v>
       </c>
       <c r="E10">
-        <v>0.9713860067466865</v>
+        <v>0.9714074874749775</v>
       </c>
       <c r="F10">
-        <v>0.9092821731743811</v>
+        <v>0.909295147636609</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026408748623265</v>
+        <v>1.026418250608093</v>
       </c>
       <c r="J10">
-        <v>0.9882880299699995</v>
+        <v>0.9883108877278131</v>
       </c>
       <c r="K10">
-        <v>1.000389604999078</v>
+        <v>1.000407633836426</v>
       </c>
       <c r="L10">
-        <v>0.9862918563631934</v>
+        <v>0.9863129187152798</v>
       </c>
       <c r="M10">
-        <v>0.9255082931653538</v>
+        <v>0.9255209665911893</v>
+      </c>
+      <c r="N10">
+        <v>0.9938064009561615</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531596201702853</v>
+        <v>0.953186484414201</v>
       </c>
       <c r="D11">
-        <v>0.9818849621938344</v>
+        <v>0.9819055438608922</v>
       </c>
       <c r="E11">
-        <v>0.9671990126582667</v>
+        <v>0.9672230476368754</v>
       </c>
       <c r="F11">
-        <v>0.8976217335924696</v>
+        <v>0.8976367148213066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024214157015806</v>
+        <v>1.024224817419995</v>
       </c>
       <c r="J11">
-        <v>0.9846197336974588</v>
+        <v>0.9846453158578629</v>
       </c>
       <c r="K11">
-        <v>0.9971567828874722</v>
+        <v>0.9971769573803771</v>
       </c>
       <c r="L11">
-        <v>0.9827672015556266</v>
+        <v>0.982790741795051</v>
       </c>
       <c r="M11">
-        <v>0.9147722759845131</v>
+        <v>0.9147868808341245</v>
+      </c>
+      <c r="N11">
+        <v>0.9912707874698014</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9512025648467112</v>
+        <v>0.9512305599008232</v>
       </c>
       <c r="D12">
-        <v>0.9804141589260763</v>
+        <v>0.9804355904348242</v>
       </c>
       <c r="E12">
-        <v>0.9656119975588526</v>
+        <v>0.9656370146426655</v>
       </c>
       <c r="F12">
-        <v>0.8931038756026467</v>
+        <v>0.893119668257448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023372264625743</v>
+        <v>1.02338337254422</v>
       </c>
       <c r="J12">
-        <v>0.9832259806242051</v>
+        <v>0.9832526080961524</v>
       </c>
       <c r="K12">
-        <v>0.9959264647811185</v>
+        <v>0.9959474638205417</v>
       </c>
       <c r="L12">
-        <v>0.9814290647967396</v>
+        <v>0.9814535563772262</v>
       </c>
       <c r="M12">
-        <v>0.9106119050369816</v>
+        <v>0.910627288864426</v>
+      </c>
+      <c r="N12">
+        <v>0.9903072876275086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516243145136973</v>
+        <v>0.9516520650467881</v>
       </c>
       <c r="D13">
-        <v>0.9807311712370461</v>
+        <v>0.9807524190312648</v>
       </c>
       <c r="E13">
-        <v>0.9659539212218194</v>
+        <v>0.9659787260403887</v>
       </c>
       <c r="F13">
-        <v>0.8940820605914975</v>
+        <v>0.894097675859572</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023554129699466</v>
+        <v>1.023565140787094</v>
       </c>
       <c r="J13">
-        <v>0.9835264221915599</v>
+        <v>0.9835528238392204</v>
       </c>
       <c r="K13">
-        <v>0.9961917720255059</v>
+        <v>0.9962125928706849</v>
       </c>
       <c r="L13">
-        <v>0.9817174685906115</v>
+        <v>0.981741754620174</v>
       </c>
       <c r="M13">
-        <v>0.9115127147176908</v>
+        <v>0.9115279283475359</v>
+      </c>
+      <c r="N13">
+        <v>0.9905149865908374</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529987224675869</v>
+        <v>0.9530256793128459</v>
       </c>
       <c r="D14">
-        <v>0.981764063681937</v>
+        <v>0.9817847149649488</v>
       </c>
       <c r="E14">
-        <v>0.9670685010357913</v>
+        <v>0.9670926164828821</v>
       </c>
       <c r="F14">
-        <v>0.8972523209647272</v>
+        <v>0.8972673677980305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024145134816912</v>
+        <v>1.024155831840866</v>
       </c>
       <c r="J14">
-        <v>0.9845051850951109</v>
+        <v>0.9845308529482651</v>
       </c>
       <c r="K14">
-        <v>0.9970557092464151</v>
+        <v>0.9970759513063837</v>
       </c>
       <c r="L14">
-        <v>0.9826572021149909</v>
+        <v>0.9826808203312629</v>
       </c>
       <c r="M14">
-        <v>0.9144321061810275</v>
+        <v>0.9144467740534239</v>
+      </c>
+      <c r="N14">
+        <v>0.9911916020442219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.95383991061212</v>
+        <v>0.9538663840461412</v>
       </c>
       <c r="D15">
-        <v>0.9823960894800789</v>
+        <v>0.9824163772976422</v>
       </c>
       <c r="E15">
-        <v>0.9677509004666299</v>
+        <v>0.9677745957531527</v>
       </c>
       <c r="F15">
-        <v>0.8991797326159879</v>
+        <v>0.8991944385811003</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02450561037826</v>
+        <v>1.024516116284151</v>
       </c>
       <c r="J15">
-        <v>0.9851039818296162</v>
+        <v>0.9851292021537621</v>
       </c>
       <c r="K15">
-        <v>0.9975839825948959</v>
+        <v>0.997603871840791</v>
       </c>
       <c r="L15">
-        <v>0.9832322612649779</v>
+        <v>0.9832554722732096</v>
       </c>
       <c r="M15">
-        <v>0.916206917431137</v>
+        <v>0.9162212577684715</v>
+      </c>
+      <c r="N15">
+        <v>0.9916055356364525</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9586538886909952</v>
+        <v>0.9586776288163239</v>
       </c>
       <c r="D16">
-        <v>0.9860111560803279</v>
+        <v>0.9860293865777092</v>
       </c>
       <c r="E16">
-        <v>0.9716596376263829</v>
+        <v>0.9716809532217358</v>
       </c>
       <c r="F16">
-        <v>0.9100318821515335</v>
+        <v>0.9100447316367074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026550861353036</v>
+        <v>1.026560288691173</v>
       </c>
       <c r="J16">
-        <v>0.9885273200240081</v>
+        <v>0.988550001354637</v>
       </c>
       <c r="K16">
-        <v>1.000600226091219</v>
+        <v>1.000618116140971</v>
       </c>
       <c r="L16">
-        <v>0.9865219129110421</v>
+        <v>0.9865428148832874</v>
       </c>
       <c r="M16">
-        <v>0.9261984604321175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9262110133368966</v>
+      </c>
+      <c r="N16">
+        <v>0.9939717874858418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9616051147367309</v>
+        <v>0.961627205940273</v>
       </c>
       <c r="D17">
-        <v>0.9882259255362695</v>
+        <v>0.9882429130189671</v>
       </c>
       <c r="E17">
-        <v>0.9740588683600147</v>
+        <v>0.9740787451140537</v>
       </c>
       <c r="F17">
-        <v>0.9165446517206864</v>
+        <v>0.9165564347081006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027790200082155</v>
+        <v>1.027798978128174</v>
       </c>
       <c r="J17">
-        <v>0.9906231293305683</v>
+        <v>0.9906442718591196</v>
       </c>
       <c r="K17">
-        <v>1.00244359516212</v>
+        <v>1.002460275499345</v>
       </c>
       <c r="L17">
-        <v>0.9885375594886323</v>
+        <v>0.9885570630765624</v>
       </c>
       <c r="M17">
-        <v>0.9321933369389875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9322048602192806</v>
+      </c>
+      <c r="N17">
+        <v>0.9954202151902672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9633032473414345</v>
+        <v>0.9633243985503499</v>
       </c>
       <c r="D18">
-        <v>0.9894998463705834</v>
+        <v>0.9895161245897857</v>
       </c>
       <c r="E18">
-        <v>0.9754404179477573</v>
+        <v>0.9754594733957878</v>
       </c>
       <c r="F18">
-        <v>0.9202471574846555</v>
+        <v>0.9202583489143294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028498434036246</v>
+        <v>1.028506842301614</v>
       </c>
       <c r="J18">
-        <v>0.9918280738822386</v>
+        <v>0.9918483367791234</v>
       </c>
       <c r="K18">
-        <v>1.003502321509793</v>
+        <v>1.003518310961547</v>
       </c>
       <c r="L18">
-        <v>0.9896969898700669</v>
+        <v>0.989715694468953</v>
       </c>
       <c r="M18">
-        <v>0.9356008468879987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9356117981630859</v>
+      </c>
+      <c r="N18">
+        <v>0.996252870343344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,75 +1118,81 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9638784427047301</v>
+        <v>0.963899276936665</v>
       </c>
       <c r="D19">
-        <v>0.9899312799671072</v>
+        <v>0.9899473189042498</v>
       </c>
       <c r="E19">
-        <v>0.9759085520303361</v>
+        <v>0.9759273303513607</v>
       </c>
       <c r="F19">
-        <v>0.9214941168013716</v>
+        <v>0.9215051113101583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028737529045021</v>
+        <v>1.028745812666414</v>
       </c>
       <c r="J19">
-        <v>0.9922360531637606</v>
+        <v>0.9922560190422092</v>
       </c>
       <c r="K19">
-        <v>1.003860615491338</v>
+        <v>1.003876371757893</v>
       </c>
       <c r="L19">
-        <v>0.9900896533107197</v>
+        <v>0.9901080881845472</v>
       </c>
       <c r="M19">
-        <v>0.9367483521603417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9367591128790742</v>
+      </c>
+      <c r="N19">
+        <v>0.9965347808367135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9612909125317169</v>
+        <v>0.9613131783558974</v>
       </c>
       <c r="D20">
-        <v>0.987990178879728</v>
+        <v>0.9880072980672031</v>
       </c>
       <c r="E20">
-        <v>0.9738033260240481</v>
+        <v>0.9738233552650709</v>
       </c>
       <c r="F20">
-        <v>0.9158560555780029</v>
+        <v>0.9158679497380749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02765876832498</v>
+        <v>1.027667615090857</v>
       </c>
       <c r="J20">
-        <v>0.9904001022333093</v>
+        <v>0.9904214079756579</v>
       </c>
       <c r="K20">
-        <v>1.002247545769808</v>
+        <v>1.002264354348985</v>
       </c>
       <c r="L20">
-        <v>0.9883230026355598</v>
+        <v>0.9883426545046677</v>
       </c>
       <c r="M20">
-        <v>0.9315595562569278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9315711869631853</v>
+      </c>
+      <c r="N20">
+        <v>0.9952660888168108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9525951761800033</v>
+        <v>0.952622365565335</v>
       </c>
       <c r="D21">
-        <v>0.9814608217304782</v>
+        <v>0.9814816478145264</v>
       </c>
       <c r="E21">
-        <v>0.9667411946563959</v>
+        <v>0.9667655121406545</v>
       </c>
       <c r="F21">
-        <v>0.8963242268437829</v>
+        <v>0.8963394390755747</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023971869246148</v>
+        <v>1.023982658249999</v>
       </c>
       <c r="J21">
-        <v>0.9842178570670702</v>
+        <v>0.98424374003833</v>
       </c>
       <c r="K21">
-        <v>0.9968021476541409</v>
+        <v>0.9968225593522126</v>
       </c>
       <c r="L21">
-        <v>0.9823813021038122</v>
+        <v>0.9824051160784638</v>
       </c>
       <c r="M21">
-        <v>0.9135774703265785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9135922970558965</v>
+      </c>
+      <c r="N21">
+        <v>0.990992975707555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.94688561167011</v>
+        <v>0.9469161367003897</v>
       </c>
       <c r="D22">
-        <v>0.9771675271778211</v>
+        <v>0.9771908579475869</v>
       </c>
       <c r="E22">
-        <v>0.9621146758244679</v>
+        <v>0.9621418858607911</v>
       </c>
       <c r="F22">
-        <v>0.8829387338698726</v>
+        <v>0.882956428847849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021496595917754</v>
+        <v>1.021508708031467</v>
       </c>
       <c r="J22">
-        <v>0.9801479761545889</v>
+        <v>0.9801769334452441</v>
       </c>
       <c r="K22">
-        <v>0.9932052874117033</v>
+        <v>0.9932281269842875</v>
       </c>
       <c r="L22">
-        <v>0.9784759560684694</v>
+        <v>0.978502569157723</v>
       </c>
       <c r="M22">
-        <v>0.9012501725404891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9012673783030346</v>
+      </c>
+      <c r="N22">
+        <v>0.9881793202920338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499371319424822</v>
+        <v>0.9499658634473959</v>
       </c>
       <c r="D23">
-        <v>0.9794628084097007</v>
+        <v>0.97948479306535</v>
       </c>
       <c r="E23">
-        <v>0.9645863448048283</v>
+        <v>0.964612000854541</v>
       </c>
       <c r="F23">
-        <v>0.8901533866891851</v>
+        <v>0.8901697202545223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022825135285456</v>
+        <v>1.022836535063297</v>
       </c>
       <c r="J23">
-        <v>0.9823242424110854</v>
+        <v>0.9823515493293533</v>
       </c>
       <c r="K23">
-        <v>0.9951298565350102</v>
+        <v>0.9951513919280885</v>
       </c>
       <c r="L23">
-        <v>0.9805636190244814</v>
+        <v>0.9805887291437173</v>
       </c>
       <c r="M23">
-        <v>0.9078947251438272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9079106276330385</v>
+      </c>
+      <c r="N23">
+        <v>0.9896838927322309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9614329585556144</v>
+        <v>0.9614551454093373</v>
       </c>
       <c r="D24">
-        <v>0.9880967577456504</v>
+        <v>0.9881138173730049</v>
       </c>
       <c r="E24">
-        <v>0.9739188496084565</v>
+        <v>0.9739388098920669</v>
       </c>
       <c r="F24">
-        <v>0.9161674977359262</v>
+        <v>0.9161793415687087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027718201704411</v>
+        <v>1.027727017391323</v>
       </c>
       <c r="J24">
-        <v>0.9905009324212802</v>
+        <v>0.9905221643592955</v>
       </c>
       <c r="K24">
-        <v>1.002336182729816</v>
+        <v>1.002352933316787</v>
       </c>
       <c r="L24">
-        <v>0.9884200016633299</v>
+        <v>0.9884395864793799</v>
       </c>
       <c r="M24">
-        <v>0.9318462079768707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9318577900547633</v>
+      </c>
+      <c r="N24">
+        <v>0.9953357693820265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738693969473652</v>
+        <v>0.9738848336922629</v>
       </c>
       <c r="D25">
-        <v>0.9974198550016573</v>
+        <v>0.9974318106907447</v>
       </c>
       <c r="E25">
-        <v>0.9840540047853455</v>
+        <v>0.9840680512228491</v>
       </c>
       <c r="F25">
-        <v>0.9426219288954043</v>
+        <v>0.9426297484049586</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032827068682898</v>
+        <v>1.032833232448838</v>
       </c>
       <c r="J25">
-        <v>0.9993093362772042</v>
+        <v>0.9993242136097208</v>
       </c>
       <c r="K25">
-        <v>1.010058356879538</v>
+        <v>1.010070125745009</v>
       </c>
       <c r="L25">
-        <v>0.9969050105876914</v>
+        <v>0.9969188298109311</v>
       </c>
       <c r="M25">
-        <v>0.956181450077343</v>
+        <v>0.956189128227622</v>
+      </c>
+      <c r="N25">
+        <v>1.00142080132419</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831983290193336</v>
+        <v>1.006439909875599</v>
       </c>
       <c r="D2">
-        <v>1.004404359471091</v>
+        <v>1.023730533453629</v>
       </c>
       <c r="E2">
-        <v>0.9916854475178982</v>
+        <v>1.017138055783232</v>
       </c>
       <c r="F2">
-        <v>0.9615355875989408</v>
+        <v>1.018456192970663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036538483433316</v>
+        <v>1.048140379816559</v>
       </c>
       <c r="J2">
-        <v>1.005893457468156</v>
+        <v>1.02842969578371</v>
       </c>
       <c r="K2">
-        <v>1.015802673714827</v>
+        <v>1.034868874826871</v>
       </c>
       <c r="L2">
-        <v>1.003261845640374</v>
+        <v>1.028363683923957</v>
       </c>
       <c r="M2">
-        <v>0.973558140160688</v>
+        <v>1.029664255047086</v>
       </c>
       <c r="N2">
-        <v>1.005958438186838</v>
+        <v>1.029890183914274</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9896615394443591</v>
+        <v>1.013610260836062</v>
       </c>
       <c r="D3">
-        <v>1.009238504184701</v>
+        <v>1.029260234659201</v>
       </c>
       <c r="E3">
-        <v>0.9969859585032215</v>
+        <v>1.023615724717036</v>
       </c>
       <c r="F3">
-        <v>0.974268777401355</v>
+        <v>1.02600410747901</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039048270561224</v>
+        <v>1.050672043499951</v>
       </c>
       <c r="J3">
-        <v>1.010438064800652</v>
+        <v>1.03373664965688</v>
       </c>
       <c r="K3">
-        <v>1.019754525721704</v>
+        <v>1.03953192867497</v>
       </c>
       <c r="L3">
-        <v>1.007657550374882</v>
+        <v>1.03395509806924</v>
       </c>
       <c r="M3">
-        <v>0.9852418365229648</v>
+        <v>1.036314730657826</v>
       </c>
       <c r="N3">
-        <v>1.009095009100586</v>
+        <v>1.035204674270643</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937185643942842</v>
+        <v>1.018111517003451</v>
       </c>
       <c r="D4">
-        <v>1.012270929220745</v>
+        <v>1.032732630563476</v>
       </c>
       <c r="E4">
-        <v>1.000319278559438</v>
+        <v>1.027688046900763</v>
       </c>
       <c r="F4">
-        <v>0.9821165055277248</v>
+        <v>1.030752050615235</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040597141464804</v>
+        <v>1.052246110041064</v>
       </c>
       <c r="J4">
-        <v>1.01328432630063</v>
+        <v>1.037063007151692</v>
       </c>
       <c r="K4">
-        <v>1.022223476931772</v>
+        <v>1.042451422247586</v>
       </c>
       <c r="L4">
-        <v>1.010413851697137</v>
+        <v>1.037463402929986</v>
       </c>
       <c r="M4">
-        <v>0.992435670657833</v>
+        <v>1.040492969046334</v>
       </c>
       <c r="N4">
-        <v>1.01105813190475</v>
+        <v>1.038535755574636</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9953959417500681</v>
+        <v>1.019972515118398</v>
       </c>
       <c r="D5">
-        <v>1.013524199342029</v>
+        <v>1.034168412027528</v>
       </c>
       <c r="E5">
-        <v>1.001698843328215</v>
+        <v>1.02937306170858</v>
       </c>
       <c r="F5">
-        <v>0.9853304632833049</v>
+        <v>1.032717337063772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04123137296902</v>
+        <v>1.052893178298962</v>
       </c>
       <c r="J5">
-        <v>1.014459577031125</v>
+        <v>1.038436966985618</v>
       </c>
       <c r="K5">
-        <v>1.023241516544472</v>
+        <v>1.043656514784334</v>
       </c>
       <c r="L5">
-        <v>1.011552721296441</v>
+        <v>1.038913400753503</v>
       </c>
       <c r="M5">
-        <v>0.9953800848123887</v>
+        <v>1.042221183735211</v>
       </c>
       <c r="N5">
-        <v>1.011868400528697</v>
+        <v>1.039911666589123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9956759751057056</v>
+        <v>1.020283197622065</v>
       </c>
       <c r="D6">
-        <v>1.013733400365937</v>
+        <v>1.034408113412659</v>
       </c>
       <c r="E6">
-        <v>1.001929238324596</v>
+        <v>1.029654442845819</v>
       </c>
       <c r="F6">
-        <v>0.985865327027584</v>
+        <v>1.033045564461979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041336900074925</v>
+        <v>1.05300098225714</v>
       </c>
       <c r="J6">
-        <v>1.014655691513885</v>
+        <v>1.03866626398667</v>
       </c>
       <c r="K6">
-        <v>1.023411314884523</v>
+        <v>1.043857581453295</v>
       </c>
       <c r="L6">
-        <v>1.011742809107524</v>
+        <v>1.03915543982129</v>
       </c>
       <c r="M6">
-        <v>0.9958699871142871</v>
+        <v>1.042509742831431</v>
       </c>
       <c r="N6">
-        <v>1.012003590796694</v>
+        <v>1.040141289218217</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937410861943801</v>
+        <v>1.018136504570453</v>
       </c>
       <c r="D7">
-        <v>1.01228775855497</v>
+        <v>1.032751908276036</v>
       </c>
       <c r="E7">
-        <v>1.000337796225119</v>
+        <v>1.027710666259444</v>
       </c>
       <c r="F7">
-        <v>0.9821597751759563</v>
+        <v>1.030778429388914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040605681239145</v>
+        <v>1.052254812988644</v>
       </c>
       <c r="J7">
-        <v>1.013300112226029</v>
+        <v>1.037081460442859</v>
       </c>
       <c r="K7">
-        <v>1.022237156762911</v>
+        <v>1.042467610772637</v>
       </c>
       <c r="L7">
-        <v>1.010429145957856</v>
+        <v>1.037482873954693</v>
       </c>
       <c r="M7">
-        <v>0.9924753184355792</v>
+        <v>1.040516170752075</v>
       </c>
       <c r="N7">
-        <v>1.011069016709559</v>
+        <v>1.038554235071594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854096199650524</v>
+        <v>1.008892969119067</v>
       </c>
       <c r="D8">
-        <v>1.006058718185408</v>
+        <v>1.025622015843827</v>
       </c>
       <c r="E8">
-        <v>0.9934976001984033</v>
+        <v>1.019352854947824</v>
       </c>
       <c r="F8">
-        <v>0.9659254336646087</v>
+        <v>1.021036366237162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037402924771051</v>
+        <v>1.049009661212881</v>
       </c>
       <c r="J8">
-        <v>1.007449693215739</v>
+        <v>1.030246313071337</v>
       </c>
       <c r="K8">
-        <v>1.017157240987971</v>
+        <v>1.036465754583142</v>
       </c>
       <c r="L8">
-        <v>1.004766377037951</v>
+        <v>1.030276908359322</v>
       </c>
       <c r="M8">
-        <v>0.9775876430428341</v>
+        <v>1.031938730946487</v>
       </c>
       <c r="N8">
-        <v>1.007032776147888</v>
+        <v>1.031709381006802</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696803758145205</v>
+        <v>0.9914541019648454</v>
       </c>
       <c r="D9">
-        <v>0.9942816053974739</v>
+        <v>1.012184742184322</v>
       </c>
       <c r="E9">
-        <v>0.9806370932319445</v>
+        <v>1.003636197091475</v>
       </c>
       <c r="F9">
-        <v>0.9338524156385454</v>
+        <v>1.002736727154376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031126738234554</v>
+        <v>1.042766927640439</v>
       </c>
       <c r="J9">
-        <v>0.996351181129845</v>
+        <v>1.017312289609591</v>
       </c>
       <c r="K9">
-        <v>1.007468145936234</v>
+        <v>1.025083176028669</v>
       </c>
       <c r="L9">
-        <v>0.9940523314398609</v>
+        <v>1.016670553734151</v>
       </c>
       <c r="M9">
-        <v>0.9481183339835966</v>
+        <v>1.015785558371715</v>
       </c>
       <c r="N9">
-        <v>0.9993660386308774</v>
+        <v>1.018756989748187</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9583410552672658</v>
+        <v>0.9789123049595657</v>
       </c>
       <c r="D10">
-        <v>0.9857767359035819</v>
+        <v>1.00253866066799</v>
       </c>
       <c r="E10">
-        <v>0.9714074874749775</v>
+        <v>0.9923730983591954</v>
       </c>
       <c r="F10">
-        <v>0.909295147636609</v>
+        <v>0.9896322899388516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026418250608093</v>
+        <v>1.038199831524089</v>
       </c>
       <c r="J10">
-        <v>0.9883108877278131</v>
+        <v>1.007988311034454</v>
       </c>
       <c r="K10">
-        <v>1.000407633836426</v>
+        <v>1.016862229595497</v>
       </c>
       <c r="L10">
-        <v>0.9863129187152798</v>
+        <v>1.006881437966848</v>
       </c>
       <c r="M10">
-        <v>0.9255209665911893</v>
+        <v>1.004191294167964</v>
       </c>
       <c r="N10">
-        <v>0.9938064009561615</v>
+        <v>1.009419770053998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.953186484414201</v>
+        <v>0.9732269375289441</v>
       </c>
       <c r="D11">
-        <v>0.9819055438608922</v>
+        <v>0.9981723115320007</v>
       </c>
       <c r="E11">
-        <v>0.9672230476368754</v>
+        <v>0.9872782589980821</v>
       </c>
       <c r="F11">
-        <v>0.8976367148213066</v>
+        <v>0.9837058091437582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024224817419995</v>
+        <v>1.036112290891444</v>
       </c>
       <c r="J11">
-        <v>0.9846453158578629</v>
+        <v>1.003757537885118</v>
       </c>
       <c r="K11">
-        <v>0.9971769573803771</v>
+        <v>1.013128777885513</v>
       </c>
       <c r="L11">
-        <v>0.982790741795051</v>
+        <v>1.002444143786196</v>
       </c>
       <c r="M11">
-        <v>0.9147868808341245</v>
+        <v>0.9989416939578361</v>
       </c>
       <c r="N11">
-        <v>0.9912707874698014</v>
+        <v>1.005182988721513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9512305599008232</v>
+        <v>0.9710731758163781</v>
       </c>
       <c r="D12">
-        <v>0.9804355904348242</v>
+        <v>0.9965193846552513</v>
       </c>
       <c r="E12">
-        <v>0.9656370146426655</v>
+        <v>0.9853499689101151</v>
       </c>
       <c r="F12">
-        <v>0.893119668257448</v>
+        <v>0.981462853756437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02338337254422</v>
+        <v>1.035319002951217</v>
       </c>
       <c r="J12">
-        <v>0.9832526080961524</v>
+        <v>1.002154309209505</v>
       </c>
       <c r="K12">
-        <v>0.9959474638205417</v>
+        <v>1.011713572948912</v>
       </c>
       <c r="L12">
-        <v>0.9814535563772262</v>
+        <v>1.000763327446523</v>
       </c>
       <c r="M12">
-        <v>0.910627288864426</v>
+        <v>0.9969540270106984</v>
       </c>
       <c r="N12">
-        <v>0.9903072876275086</v>
+        <v>1.003577483277288</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516520650467881</v>
+        <v>0.9715371287968847</v>
       </c>
       <c r="D13">
-        <v>0.9807524190312648</v>
+        <v>0.9968753944970906</v>
       </c>
       <c r="E13">
-        <v>0.9659787260403887</v>
+        <v>0.9857652699975393</v>
       </c>
       <c r="F13">
-        <v>0.894097675859572</v>
+        <v>0.9819459226631198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023565140787094</v>
+        <v>1.035489998969997</v>
       </c>
       <c r="J13">
-        <v>0.9835528238392204</v>
+        <v>1.002499689877923</v>
       </c>
       <c r="K13">
-        <v>0.9962125928706849</v>
+        <v>1.012018466807457</v>
       </c>
       <c r="L13">
-        <v>0.981741754620174</v>
+        <v>1.001125392494502</v>
       </c>
       <c r="M13">
-        <v>0.9115279283475359</v>
+        <v>0.9973821535030979</v>
       </c>
       <c r="N13">
-        <v>0.9905149865908374</v>
+        <v>1.003923354425871</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9530256793128459</v>
+        <v>0.9730497861170834</v>
       </c>
       <c r="D14">
-        <v>0.9817847149649488</v>
+        <v>0.9980363301316473</v>
       </c>
       <c r="E14">
-        <v>0.9670926164828821</v>
+        <v>0.9871196165250351</v>
       </c>
       <c r="F14">
-        <v>0.8972673677980305</v>
+        <v>0.9835212775378239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024155831840866</v>
+        <v>1.03604709077726</v>
       </c>
       <c r="J14">
-        <v>0.9845308529482651</v>
+        <v>1.003625678517129</v>
       </c>
       <c r="K14">
-        <v>0.9970759513063837</v>
+        <v>1.013012391261883</v>
       </c>
       <c r="L14">
-        <v>0.9826808203312629</v>
+        <v>1.002305889556575</v>
       </c>
       <c r="M14">
-        <v>0.9144467740534239</v>
+        <v>0.9987781831306562</v>
       </c>
       <c r="N14">
-        <v>0.9911916020442219</v>
+        <v>1.005050942098097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9538663840461412</v>
+        <v>0.9739761045921848</v>
       </c>
       <c r="D15">
-        <v>0.9824163772976422</v>
+        <v>0.9987474203443462</v>
       </c>
       <c r="E15">
-        <v>0.9677745957531527</v>
+        <v>0.9879492249146575</v>
       </c>
       <c r="F15">
-        <v>0.8991944385811003</v>
+        <v>0.9844862743032722</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024516116284151</v>
+        <v>1.036387920034379</v>
       </c>
       <c r="J15">
-        <v>0.9851292021537621</v>
+        <v>1.004315146691387</v>
       </c>
       <c r="K15">
-        <v>0.997603871840791</v>
+        <v>1.013620937989494</v>
       </c>
       <c r="L15">
-        <v>0.9832554722732096</v>
+        <v>1.003028822534191</v>
       </c>
       <c r="M15">
-        <v>0.9162212577684715</v>
+        <v>0.9996332171949343</v>
       </c>
       <c r="N15">
-        <v>0.9916055356364525</v>
+        <v>1.005741389396246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9586776288163239</v>
+        <v>0.9792839534106934</v>
       </c>
       <c r="D16">
-        <v>0.9860293865777092</v>
+        <v>1.002824233700765</v>
       </c>
       <c r="E16">
-        <v>0.9716809532217358</v>
+        <v>0.992706379943333</v>
       </c>
       <c r="F16">
-        <v>0.9100447316367074</v>
+        <v>0.9900199922833051</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026560288691173</v>
+        <v>1.038335945725216</v>
       </c>
       <c r="J16">
-        <v>0.988550001354637</v>
+        <v>1.008264798108557</v>
       </c>
       <c r="K16">
-        <v>1.000618116140971</v>
+        <v>1.017106153866398</v>
       </c>
       <c r="L16">
-        <v>0.9865428148832874</v>
+        <v>1.007171514498272</v>
       </c>
       <c r="M16">
-        <v>0.9262110133368966</v>
+        <v>1.004534592148567</v>
       </c>
       <c r="N16">
-        <v>0.9939717874858418</v>
+        <v>1.00969664977146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.961627205940273</v>
+        <v>0.982542778049582</v>
       </c>
       <c r="D17">
-        <v>0.9882429130189671</v>
+        <v>1.005329038280477</v>
       </c>
       <c r="E17">
-        <v>0.9740787451140537</v>
+        <v>0.9956300223525748</v>
       </c>
       <c r="F17">
-        <v>0.9165564347081006</v>
+        <v>0.9934211635571304</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027798978128174</v>
+        <v>1.039527544089705</v>
       </c>
       <c r="J17">
-        <v>0.9906442718591196</v>
+        <v>1.010688744999094</v>
       </c>
       <c r="K17">
-        <v>1.002460275499345</v>
+        <v>1.019244270900613</v>
       </c>
       <c r="L17">
-        <v>0.9885570630765624</v>
+        <v>1.009715109424923</v>
       </c>
       <c r="M17">
-        <v>0.9322048602192806</v>
+        <v>1.007545535342253</v>
       </c>
       <c r="N17">
-        <v>0.9954202151902672</v>
+        <v>1.012124038944612</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9633243985503499</v>
+        <v>0.9844192961115922</v>
       </c>
       <c r="D18">
-        <v>0.9895161245897857</v>
+        <v>1.006771953397099</v>
       </c>
       <c r="E18">
-        <v>0.9754594733957878</v>
+        <v>0.9973145452442105</v>
       </c>
       <c r="F18">
-        <v>0.9202583489143294</v>
+        <v>0.9953809532298294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028506842301614</v>
+        <v>1.040212074785499</v>
       </c>
       <c r="J18">
-        <v>0.9918483367791234</v>
+        <v>1.012084126965974</v>
       </c>
       <c r="K18">
-        <v>1.003518310961547</v>
+        <v>1.020474809037918</v>
       </c>
       <c r="L18">
-        <v>0.989715694468953</v>
+        <v>1.011179794700197</v>
       </c>
       <c r="M18">
-        <v>0.9356117981630859</v>
+        <v>1.009279896629027</v>
       </c>
       <c r="N18">
-        <v>0.996252870343344</v>
+        <v>1.013521402513938</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.963899276936665</v>
+        <v>0.9850551232214714</v>
       </c>
       <c r="D19">
-        <v>0.9899473189042498</v>
+        <v>1.007260954383387</v>
       </c>
       <c r="E19">
-        <v>0.9759273303513607</v>
+        <v>0.9978854859658096</v>
       </c>
       <c r="F19">
-        <v>0.9215051113101583</v>
+        <v>0.9960452154121484</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028745812666414</v>
+        <v>1.040443738194921</v>
       </c>
       <c r="J19">
-        <v>0.9922560190422092</v>
+        <v>1.012556859654284</v>
       </c>
       <c r="K19">
-        <v>1.003876371757893</v>
+        <v>1.020891642929185</v>
       </c>
       <c r="L19">
-        <v>0.9901080881845472</v>
+        <v>1.011676078763024</v>
       </c>
       <c r="M19">
-        <v>0.9367591128790742</v>
+        <v>1.009867652491669</v>
       </c>
       <c r="N19">
-        <v>0.9965347808367135</v>
+        <v>1.013994806536889</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9613131783558974</v>
+        <v>0.9821956755644037</v>
       </c>
       <c r="D20">
-        <v>0.9880072980672031</v>
+        <v>1.005062185794879</v>
       </c>
       <c r="E20">
-        <v>0.9738233552650709</v>
+        <v>0.995318514612262</v>
       </c>
       <c r="F20">
-        <v>0.9158679497380749</v>
+        <v>0.9930587635498174</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027667615090857</v>
+        <v>1.039400793087147</v>
       </c>
       <c r="J20">
-        <v>0.9904214079756579</v>
+        <v>1.010430606574459</v>
       </c>
       <c r="K20">
-        <v>1.002264354348985</v>
+        <v>1.019016602994913</v>
       </c>
       <c r="L20">
-        <v>0.9883426545046677</v>
+        <v>1.009444184839951</v>
       </c>
       <c r="M20">
-        <v>0.9315711869631853</v>
+        <v>1.007224774288486</v>
       </c>
       <c r="N20">
-        <v>0.9952660888168108</v>
+        <v>1.011865533933805</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.952622365565335</v>
+        <v>0.9726055368374593</v>
       </c>
       <c r="D21">
-        <v>0.9814816478145264</v>
+        <v>0.9976953437750284</v>
       </c>
       <c r="E21">
-        <v>0.9667655121406545</v>
+        <v>0.9867218116471445</v>
       </c>
       <c r="F21">
-        <v>0.8963394390755747</v>
+        <v>0.9830585553565073</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023982658249999</v>
+        <v>1.035883546611099</v>
       </c>
       <c r="J21">
-        <v>0.98424374003833</v>
+        <v>1.003295002093098</v>
       </c>
       <c r="K21">
-        <v>0.9968225593522126</v>
+        <v>1.012720510516899</v>
       </c>
       <c r="L21">
-        <v>0.9824051160784638</v>
+        <v>1.001959186899643</v>
       </c>
       <c r="M21">
-        <v>0.9135922970558965</v>
+        <v>0.998368157459221</v>
       </c>
       <c r="N21">
-        <v>0.990992975707555</v>
+        <v>1.004719796075615</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9469161367003897</v>
+        <v>0.9663308351552985</v>
       </c>
       <c r="D22">
-        <v>0.9771908579475869</v>
+        <v>0.9928822066126554</v>
       </c>
       <c r="E22">
-        <v>0.9621418858607911</v>
+        <v>0.9811075064609269</v>
       </c>
       <c r="F22">
-        <v>0.882956428847849</v>
+        <v>0.9765281428136227</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021508708031467</v>
+        <v>1.033567839397683</v>
       </c>
       <c r="J22">
-        <v>0.9801769334452441</v>
+        <v>0.9986233823229578</v>
       </c>
       <c r="K22">
-        <v>0.9932281269842875</v>
+        <v>1.00859599951196</v>
       </c>
       <c r="L22">
-        <v>0.978502569157723</v>
+        <v>0.9970627534413835</v>
       </c>
       <c r="M22">
-        <v>0.9012673783030346</v>
+        <v>0.9925793764929536</v>
       </c>
       <c r="N22">
-        <v>0.9881793202920338</v>
+        <v>1.000041542069559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499658634473959</v>
+        <v>0.9696817674000839</v>
       </c>
       <c r="D23">
-        <v>0.97948479306535</v>
+        <v>0.9954518873517346</v>
       </c>
       <c r="E23">
-        <v>0.964612000854541</v>
+        <v>0.9841047385067643</v>
       </c>
       <c r="F23">
-        <v>0.8901697202545223</v>
+        <v>0.980014435081345</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022836535063297</v>
+        <v>1.034805827450354</v>
       </c>
       <c r="J23">
-        <v>0.9823515493293533</v>
+        <v>1.001118437813413</v>
       </c>
       <c r="K23">
-        <v>0.9951513919280885</v>
+        <v>1.010799070363425</v>
       </c>
       <c r="L23">
-        <v>0.9805887291437173</v>
+        <v>0.9996775138359664</v>
       </c>
       <c r="M23">
-        <v>0.9079106276330385</v>
+        <v>0.995670218593569</v>
       </c>
       <c r="N23">
-        <v>0.9896838927322309</v>
+        <v>1.002540140824998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9614551454093373</v>
+        <v>0.9823525910544844</v>
       </c>
       <c r="D24">
-        <v>0.9881138173730049</v>
+        <v>1.005182820673525</v>
       </c>
       <c r="E24">
-        <v>0.9739388098920669</v>
+        <v>0.9954593355630718</v>
       </c>
       <c r="F24">
-        <v>0.9161793415687087</v>
+        <v>0.9932225905793757</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027727017391323</v>
+        <v>1.039458098782555</v>
       </c>
       <c r="J24">
-        <v>0.9905221643592955</v>
+        <v>1.010547305082447</v>
       </c>
       <c r="K24">
-        <v>1.002352933316787</v>
+        <v>1.019119527414833</v>
       </c>
       <c r="L24">
-        <v>0.9884395864793799</v>
+        <v>1.009566662355365</v>
       </c>
       <c r="M24">
-        <v>0.9318577900547633</v>
+        <v>1.00736977974542</v>
       </c>
       <c r="N24">
-        <v>0.9953357693820265</v>
+        <v>1.01198239816706</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738848336922629</v>
+        <v>0.9961124678372479</v>
       </c>
       <c r="D25">
-        <v>0.9974318106907447</v>
+        <v>1.01577178085592</v>
       </c>
       <c r="E25">
-        <v>0.9840680512228491</v>
+        <v>1.007828099377295</v>
       </c>
       <c r="F25">
-        <v>0.9426297484049586</v>
+        <v>1.007615598248712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032833232448838</v>
+        <v>1.044448027155804</v>
       </c>
       <c r="J25">
-        <v>0.9993242136097208</v>
+        <v>1.020771374989414</v>
       </c>
       <c r="K25">
-        <v>1.010070125745009</v>
+        <v>1.028130096244509</v>
       </c>
       <c r="L25">
-        <v>0.9969188298109311</v>
+        <v>1.020306097556877</v>
       </c>
       <c r="M25">
-        <v>0.956189128227622</v>
+        <v>1.020096831095621</v>
       </c>
       <c r="N25">
-        <v>1.00142080132419</v>
+        <v>1.022220987426012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006439909875599</v>
+        <v>0.9918438471363478</v>
       </c>
       <c r="D2">
-        <v>1.023730533453629</v>
+        <v>1.0137090931494</v>
       </c>
       <c r="E2">
-        <v>1.017138055783232</v>
+        <v>0.999381844064719</v>
       </c>
       <c r="F2">
-        <v>1.018456192970663</v>
+        <v>1.014148080929087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048140379816559</v>
+        <v>1.040358560773041</v>
       </c>
       <c r="J2">
-        <v>1.02842969578371</v>
+        <v>1.014271274419988</v>
       </c>
       <c r="K2">
-        <v>1.034868874826871</v>
+        <v>1.024980686088453</v>
       </c>
       <c r="L2">
-        <v>1.028363683923957</v>
+        <v>1.01084979750394</v>
       </c>
       <c r="M2">
-        <v>1.029664255047086</v>
+        <v>1.025413767489104</v>
       </c>
       <c r="N2">
-        <v>1.029890183914274</v>
+        <v>1.0157116559682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013610260836062</v>
+        <v>0.9963182148553072</v>
       </c>
       <c r="D3">
-        <v>1.029260234659201</v>
+        <v>1.017015402012449</v>
       </c>
       <c r="E3">
-        <v>1.023615724717036</v>
+        <v>1.002943575395173</v>
       </c>
       <c r="F3">
-        <v>1.02600410747901</v>
+        <v>1.018383151925707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050672043499951</v>
+        <v>1.041287891990749</v>
       </c>
       <c r="J3">
-        <v>1.03373664965688</v>
+        <v>1.016909754752823</v>
       </c>
       <c r="K3">
-        <v>1.03953192867497</v>
+        <v>1.027435100039487</v>
       </c>
       <c r="L3">
-        <v>1.03395509806924</v>
+        <v>1.013538930667043</v>
       </c>
       <c r="M3">
-        <v>1.036314730657826</v>
+        <v>1.028786098364846</v>
       </c>
       <c r="N3">
-        <v>1.035204674270643</v>
+        <v>1.018353883245752</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018111517003451</v>
+        <v>0.9991557509731024</v>
       </c>
       <c r="D4">
-        <v>1.032732630563476</v>
+        <v>1.019114461830165</v>
       </c>
       <c r="E4">
-        <v>1.027688046900763</v>
+        <v>1.00520861954378</v>
       </c>
       <c r="F4">
-        <v>1.030752050615235</v>
+        <v>1.021074031915698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052246110041064</v>
+        <v>1.041866452539839</v>
       </c>
       <c r="J4">
-        <v>1.037063007151692</v>
+        <v>1.018581077409554</v>
       </c>
       <c r="K4">
-        <v>1.042451422247586</v>
+        <v>1.028987538451913</v>
       </c>
       <c r="L4">
-        <v>1.037463402929986</v>
+        <v>1.015244584985609</v>
       </c>
       <c r="M4">
-        <v>1.040492969046334</v>
+        <v>1.030924595055978</v>
       </c>
       <c r="N4">
-        <v>1.038535755574636</v>
+        <v>1.020027579372358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019972515118398</v>
+        <v>1.000335330036966</v>
       </c>
       <c r="D5">
-        <v>1.034168412027528</v>
+        <v>1.019987538967624</v>
       </c>
       <c r="E5">
-        <v>1.02937306170858</v>
+        <v>1.006151671088815</v>
       </c>
       <c r="F5">
-        <v>1.032717337063772</v>
+        <v>1.02219382314252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052893178298962</v>
+        <v>1.042104328728924</v>
       </c>
       <c r="J5">
-        <v>1.038436966985618</v>
+        <v>1.019275354382786</v>
       </c>
       <c r="K5">
-        <v>1.043656514784334</v>
+        <v>1.029631864940714</v>
       </c>
       <c r="L5">
-        <v>1.038913400753503</v>
+        <v>1.015953661585747</v>
       </c>
       <c r="M5">
-        <v>1.042221183735211</v>
+        <v>1.031813493354621</v>
       </c>
       <c r="N5">
-        <v>1.039911666589123</v>
+        <v>1.020722842298527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020283197622065</v>
+        <v>1.00053261912128</v>
       </c>
       <c r="D6">
-        <v>1.034408113412659</v>
+        <v>1.020133591337758</v>
       </c>
       <c r="E6">
-        <v>1.029654442845819</v>
+        <v>1.006309484584402</v>
       </c>
       <c r="F6">
-        <v>1.033045564461979</v>
+        <v>1.022381180428909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05300098225714</v>
+        <v>1.042143958309945</v>
       </c>
       <c r="J6">
-        <v>1.03866626398667</v>
+        <v>1.019391444379921</v>
       </c>
       <c r="K6">
-        <v>1.043857581453295</v>
+        <v>1.02973956902499</v>
       </c>
       <c r="L6">
-        <v>1.03915543982129</v>
+        <v>1.016072257839761</v>
       </c>
       <c r="M6">
-        <v>1.042509742831431</v>
+        <v>1.031962158499744</v>
       </c>
       <c r="N6">
-        <v>1.040141289218217</v>
+        <v>1.020839097156774</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018136504570453</v>
+        <v>0.9991715642809011</v>
       </c>
       <c r="D7">
-        <v>1.032751908276036</v>
+        <v>1.019126164362205</v>
       </c>
       <c r="E7">
-        <v>1.027710666259444</v>
+        <v>1.005221256280642</v>
       </c>
       <c r="F7">
-        <v>1.030778429388914</v>
+        <v>1.021089039120735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052254812988644</v>
+        <v>1.04186965194487</v>
       </c>
       <c r="J7">
-        <v>1.037081460442859</v>
+        <v>1.018590386835597</v>
       </c>
       <c r="K7">
-        <v>1.042467610772637</v>
+        <v>1.028996180356107</v>
       </c>
       <c r="L7">
-        <v>1.037482873954693</v>
+        <v>1.015254090731998</v>
       </c>
       <c r="M7">
-        <v>1.040516170752075</v>
+        <v>1.03093651193397</v>
       </c>
       <c r="N7">
-        <v>1.038554235071594</v>
+        <v>1.020036902018854</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008892969119067</v>
+        <v>0.99336822464135</v>
       </c>
       <c r="D8">
-        <v>1.025622015843827</v>
+        <v>1.014835008378614</v>
       </c>
       <c r="E8">
-        <v>1.019352854947824</v>
+        <v>1.000593949057063</v>
       </c>
       <c r="F8">
-        <v>1.021036366237162</v>
+        <v>1.015589834435265</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049009661212881</v>
+        <v>1.040677412617217</v>
       </c>
       <c r="J8">
-        <v>1.030246313071337</v>
+        <v>1.01517056533181</v>
       </c>
       <c r="K8">
-        <v>1.036465754583142</v>
+        <v>1.02581771073304</v>
       </c>
       <c r="L8">
-        <v>1.030276908359322</v>
+        <v>1.011765880931669</v>
       </c>
       <c r="M8">
-        <v>1.031938730946487</v>
+        <v>1.026562692461156</v>
       </c>
       <c r="N8">
-        <v>1.031709381006802</v>
+        <v>1.016612223976273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9914541019648454</v>
+        <v>0.9826770752598969</v>
       </c>
       <c r="D9">
-        <v>1.012184742184322</v>
+        <v>1.006950690774334</v>
       </c>
       <c r="E9">
-        <v>1.003636197091475</v>
+        <v>0.9921215443452559</v>
       </c>
       <c r="F9">
-        <v>1.002736727154376</v>
+        <v>1.005501780575832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042766927640439</v>
+        <v>1.038397186355539</v>
       </c>
       <c r="J9">
-        <v>1.017312289609591</v>
+        <v>1.008856738491912</v>
       </c>
       <c r="K9">
-        <v>1.025083176028669</v>
+        <v>1.019931995538266</v>
       </c>
       <c r="L9">
-        <v>1.016670553734151</v>
+        <v>1.005343750503145</v>
       </c>
       <c r="M9">
-        <v>1.015785558371715</v>
+        <v>1.018506221468642</v>
       </c>
       <c r="N9">
-        <v>1.018756989748187</v>
+        <v>1.010289430778056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789123049595657</v>
+        <v>0.9752025738848442</v>
       </c>
       <c r="D10">
-        <v>1.00253866066799</v>
+        <v>1.001457064030086</v>
       </c>
       <c r="E10">
-        <v>0.9923730983591954</v>
+        <v>0.986236981680505</v>
       </c>
       <c r="F10">
-        <v>0.9896322899388516</v>
+        <v>0.9984812815751005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038199831524089</v>
+        <v>1.036749167942789</v>
       </c>
       <c r="J10">
-        <v>1.007988311034454</v>
+        <v>1.004435798342619</v>
       </c>
       <c r="K10">
-        <v>1.016862229595497</v>
+        <v>1.015800060476305</v>
       </c>
       <c r="L10">
-        <v>1.006881437966848</v>
+        <v>1.000859258936417</v>
       </c>
       <c r="M10">
-        <v>1.004191294167964</v>
+        <v>1.012878011200354</v>
       </c>
       <c r="N10">
-        <v>1.009419770053998</v>
+        <v>1.005862212386662</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9732269375289441</v>
+        <v>0.9718753618594389</v>
       </c>
       <c r="D11">
-        <v>0.9981723115320007</v>
+        <v>0.999017034870618</v>
       </c>
       <c r="E11">
-        <v>0.9872782589980821</v>
+        <v>0.9836275205450823</v>
       </c>
       <c r="F11">
-        <v>0.9837058091437582</v>
+        <v>0.9953646525297029</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036112290891444</v>
+        <v>1.036003464806555</v>
       </c>
       <c r="J11">
-        <v>1.003757537885118</v>
+        <v>1.002466840560775</v>
       </c>
       <c r="K11">
-        <v>1.013128777885513</v>
+        <v>1.013957512312272</v>
       </c>
       <c r="L11">
-        <v>1.002444143786196</v>
+        <v>0.9988649468535721</v>
       </c>
       <c r="M11">
-        <v>0.9989416939578361</v>
+        <v>1.010374517360495</v>
       </c>
       <c r="N11">
-        <v>1.005182988721513</v>
+        <v>1.003890458458925</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710731758163781</v>
+        <v>0.970625091164235</v>
       </c>
       <c r="D12">
-        <v>0.9965193846552513</v>
+        <v>0.9981010463254307</v>
       </c>
       <c r="E12">
-        <v>0.9853499689101151</v>
+        <v>0.9826485358839708</v>
       </c>
       <c r="F12">
-        <v>0.981462853756437</v>
+        <v>0.9941948615209834</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035319002951217</v>
+        <v>1.035721492283861</v>
       </c>
       <c r="J12">
-        <v>1.002154309209505</v>
+        <v>1.001726863200223</v>
       </c>
       <c r="K12">
-        <v>1.011713572948912</v>
+        <v>1.01326471794356</v>
       </c>
       <c r="L12">
-        <v>1.000763327446523</v>
+        <v>0.9981158875458863</v>
       </c>
       <c r="M12">
-        <v>0.9969540270106984</v>
+        <v>1.009434130363415</v>
       </c>
       <c r="N12">
-        <v>1.003577483277288</v>
+        <v>1.003149430245645</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9715371287968847</v>
+        <v>0.9708939428654304</v>
       </c>
       <c r="D13">
-        <v>0.9968753944970906</v>
+        <v>0.9982979733641303</v>
       </c>
       <c r="E13">
-        <v>0.9857652699975393</v>
+        <v>0.982858979234048</v>
       </c>
       <c r="F13">
-        <v>0.9819459226631198</v>
+        <v>0.9944463451293498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035489998969997</v>
+        <v>1.035782204668569</v>
       </c>
       <c r="J13">
-        <v>1.002499689877923</v>
+        <v>1.001885987707628</v>
       </c>
       <c r="K13">
-        <v>1.012018466807457</v>
+        <v>1.013413710537785</v>
       </c>
       <c r="L13">
-        <v>1.001125392494502</v>
+        <v>0.9982769447851443</v>
       </c>
       <c r="M13">
-        <v>0.9973821535030979</v>
+        <v>1.009636329042577</v>
       </c>
       <c r="N13">
-        <v>1.003923354425871</v>
+        <v>1.003308780728102</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9730497861170834</v>
+        <v>0.9717723124055581</v>
       </c>
       <c r="D14">
-        <v>0.9980363301316473</v>
+        <v>0.9989415186023675</v>
       </c>
       <c r="E14">
-        <v>0.9871196165250351</v>
+        <v>0.983546798485051</v>
       </c>
       <c r="F14">
-        <v>0.9835212775378239</v>
+        <v>0.9952682084979231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03604709077726</v>
+        <v>1.035980259544757</v>
       </c>
       <c r="J14">
-        <v>1.003625678517129</v>
+        <v>1.002405852070538</v>
       </c>
       <c r="K14">
-        <v>1.013012391261883</v>
+        <v>1.013900419083287</v>
       </c>
       <c r="L14">
-        <v>1.002305889556575</v>
+        <v>0.9988032007318888</v>
       </c>
       <c r="M14">
-        <v>0.9987781831306562</v>
+        <v>1.010297001408787</v>
       </c>
       <c r="N14">
-        <v>1.005050942098097</v>
+        <v>1.003829383358037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739761045921848</v>
+        <v>0.9723115733456231</v>
       </c>
       <c r="D15">
-        <v>0.9987474203443462</v>
+        <v>0.9993367349564268</v>
       </c>
       <c r="E15">
-        <v>0.9879492249146575</v>
+        <v>0.9839692841718505</v>
       </c>
       <c r="F15">
-        <v>0.9844862743032722</v>
+        <v>0.9957729584849211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036387920034379</v>
+        <v>1.036101622058794</v>
       </c>
       <c r="J15">
-        <v>1.004315146691387</v>
+        <v>1.002725002962749</v>
       </c>
       <c r="K15">
-        <v>1.013620937989494</v>
+        <v>1.014199173097745</v>
       </c>
       <c r="L15">
-        <v>1.003028822534191</v>
+        <v>0.9991263345187205</v>
       </c>
       <c r="M15">
-        <v>0.9996332171949343</v>
+        <v>1.010702659641297</v>
       </c>
       <c r="N15">
-        <v>1.005741389396246</v>
+        <v>1.004148987481121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9792839534106934</v>
+        <v>0.9754214145664903</v>
       </c>
       <c r="D16">
-        <v>1.002824233700765</v>
+        <v>1.001617672421895</v>
       </c>
       <c r="E16">
-        <v>0.992706379943333</v>
+        <v>0.9864088282518503</v>
       </c>
       <c r="F16">
-        <v>0.9900199922833051</v>
+        <v>0.9986864545501439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038335945725216</v>
+        <v>1.036797967870926</v>
       </c>
       <c r="J16">
-        <v>1.008264798108557</v>
+        <v>1.0045652858596</v>
       </c>
       <c r="K16">
-        <v>1.017106153866398</v>
+        <v>1.015921188529182</v>
       </c>
       <c r="L16">
-        <v>1.007171514498272</v>
+        <v>1.00099047561353</v>
       </c>
       <c r="M16">
-        <v>1.004534592148567</v>
+        <v>1.013042718420334</v>
       </c>
       <c r="N16">
-        <v>1.00969664977146</v>
+        <v>1.005991883790769</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.982542778049582</v>
+        <v>0.9773473258205208</v>
       </c>
       <c r="D17">
-        <v>1.005329038280477</v>
+        <v>1.003031736301477</v>
       </c>
       <c r="E17">
-        <v>0.9956300223525748</v>
+        <v>0.9879223143379804</v>
       </c>
       <c r="F17">
-        <v>0.9934211635571304</v>
+        <v>1.00049305772424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039527544089705</v>
+        <v>1.037226061779617</v>
       </c>
       <c r="J17">
-        <v>1.010688744999094</v>
+        <v>1.005704733853787</v>
       </c>
       <c r="K17">
-        <v>1.019244270900613</v>
+        <v>1.01698681619683</v>
       </c>
       <c r="L17">
-        <v>1.009715109424923</v>
+        <v>1.002145475781526</v>
       </c>
       <c r="M17">
-        <v>1.007545535342253</v>
+        <v>1.014492447372195</v>
       </c>
       <c r="N17">
-        <v>1.012124038944612</v>
+        <v>1.007132949931805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9844192961115922</v>
+        <v>0.9784619803907635</v>
       </c>
       <c r="D18">
-        <v>1.006771953397099</v>
+        <v>1.003850657818542</v>
       </c>
       <c r="E18">
-        <v>0.9973145452442105</v>
+        <v>0.9887992150018771</v>
       </c>
       <c r="F18">
-        <v>0.9953809532298294</v>
+        <v>1.001539461131863</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040212074785499</v>
+        <v>1.037472676049088</v>
       </c>
       <c r="J18">
-        <v>1.012084126965974</v>
+        <v>1.006364109426397</v>
       </c>
       <c r="K18">
-        <v>1.020474809037918</v>
+        <v>1.017603253283623</v>
       </c>
       <c r="L18">
-        <v>1.011179794700197</v>
+        <v>1.002814130684524</v>
       </c>
       <c r="M18">
-        <v>1.009279896629027</v>
+        <v>1.01533167427648</v>
       </c>
       <c r="N18">
-        <v>1.013521402513938</v>
+        <v>1.007793261893359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9850551232214714</v>
+        <v>0.9788405961237241</v>
       </c>
       <c r="D19">
-        <v>1.007260954383387</v>
+        <v>1.00412890507886</v>
       </c>
       <c r="E19">
-        <v>0.9978854859658096</v>
+        <v>0.9890972307151885</v>
       </c>
       <c r="F19">
-        <v>0.9960452154121484</v>
+        <v>1.001895027587011</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040443738194921</v>
+        <v>1.037556246512978</v>
       </c>
       <c r="J19">
-        <v>1.012556859654284</v>
+        <v>1.006588061680874</v>
       </c>
       <c r="K19">
-        <v>1.020891642929185</v>
+        <v>1.017812583805667</v>
       </c>
       <c r="L19">
-        <v>1.011676078763024</v>
+        <v>1.003041281925178</v>
       </c>
       <c r="M19">
-        <v>1.009867652491669</v>
+        <v>1.015616762092636</v>
       </c>
       <c r="N19">
-        <v>1.013994806536889</v>
+        <v>1.008017532185725</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9821956755644037</v>
+        <v>0.977141598713326</v>
       </c>
       <c r="D20">
-        <v>1.005062185794879</v>
+        <v>1.002880631783077</v>
       </c>
       <c r="E20">
-        <v>0.995318514612262</v>
+        <v>0.9877605442826113</v>
       </c>
       <c r="F20">
-        <v>0.9930587635498174</v>
+        <v>1.000299991631411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039400793087147</v>
+        <v>1.037180451658591</v>
       </c>
       <c r="J20">
-        <v>1.010430606574459</v>
+        <v>1.005583027249557</v>
       </c>
       <c r="K20">
-        <v>1.019016602994913</v>
+        <v>1.01687301717062</v>
       </c>
       <c r="L20">
-        <v>1.009444184839951</v>
+        <v>1.002022078986797</v>
       </c>
       <c r="M20">
-        <v>1.007224774288486</v>
+        <v>1.014337568098371</v>
       </c>
       <c r="N20">
-        <v>1.011865533933805</v>
+        <v>1.007011070490237</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9726055368374593</v>
+        <v>0.9715140583168201</v>
       </c>
       <c r="D21">
-        <v>0.9976953437750284</v>
+        <v>0.99875228081076</v>
       </c>
       <c r="E21">
-        <v>0.9867218116471445</v>
+        <v>0.9833445251207137</v>
       </c>
       <c r="F21">
-        <v>0.9830585553565073</v>
+        <v>0.9950265303595471</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035883546611099</v>
+        <v>1.035922076296291</v>
       </c>
       <c r="J21">
-        <v>1.003295002093098</v>
+        <v>1.002253006298012</v>
       </c>
       <c r="K21">
-        <v>1.012720510516899</v>
+        <v>1.013757330233917</v>
       </c>
       <c r="L21">
-        <v>1.001959186899643</v>
+        <v>0.9986484634376035</v>
       </c>
       <c r="M21">
-        <v>0.998368157459221</v>
+        <v>1.010102743255014</v>
       </c>
       <c r="N21">
-        <v>1.004719796075615</v>
+        <v>1.003676320526981</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9663308351552985</v>
+        <v>0.9678920882051872</v>
       </c>
       <c r="D22">
-        <v>0.9928822066126554</v>
+        <v>0.9961005276250934</v>
       </c>
       <c r="E22">
-        <v>0.9811075064609269</v>
+        <v>0.9805115264659312</v>
       </c>
       <c r="F22">
-        <v>0.9765281428136227</v>
+        <v>0.9916403460559303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033567839397683</v>
+        <v>1.035101954324116</v>
       </c>
       <c r="J22">
-        <v>0.9986233823229578</v>
+        <v>1.00010920235156</v>
       </c>
       <c r="K22">
-        <v>1.00859599951196</v>
+        <v>1.011749631656243</v>
       </c>
       <c r="L22">
-        <v>0.9970627534413835</v>
+        <v>0.996479198532494</v>
       </c>
       <c r="M22">
-        <v>0.9925793764929536</v>
+        <v>1.007379248485594</v>
       </c>
       <c r="N22">
-        <v>1.000041542069559</v>
+        <v>1.001529472133029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9696817674000839</v>
+        <v>0.9698203692242875</v>
       </c>
       <c r="D23">
-        <v>0.9954518873517346</v>
+        <v>0.9975117477257434</v>
       </c>
       <c r="E23">
-        <v>0.9841047385067643</v>
+        <v>0.9820188774979202</v>
       </c>
       <c r="F23">
-        <v>0.980014435081345</v>
+        <v>0.99344232895431</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034805827450354</v>
+        <v>1.035539516078872</v>
       </c>
       <c r="J23">
-        <v>1.001118437813413</v>
+        <v>1.001250564256467</v>
       </c>
       <c r="K23">
-        <v>1.010799070363425</v>
+        <v>1.012818700483984</v>
       </c>
       <c r="L23">
-        <v>0.9996775138359664</v>
+        <v>0.997633869227442</v>
       </c>
       <c r="M23">
-        <v>0.995670218593569</v>
+        <v>1.008828970892111</v>
       </c>
       <c r="N23">
-        <v>1.002540140824998</v>
+        <v>1.002672454902755</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9823525910544844</v>
+        <v>0.9772345847575343</v>
       </c>
       <c r="D24">
-        <v>1.005182820673525</v>
+        <v>1.00294892754307</v>
       </c>
       <c r="E24">
-        <v>0.9954593355630718</v>
+        <v>0.9878336593744124</v>
       </c>
       <c r="F24">
-        <v>0.9932225905793757</v>
+        <v>1.000387252581419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039458098782555</v>
+        <v>1.037201070432793</v>
       </c>
       <c r="J24">
-        <v>1.010547305082447</v>
+        <v>1.005638037404837</v>
       </c>
       <c r="K24">
-        <v>1.019119527414833</v>
+        <v>1.016924453864792</v>
       </c>
       <c r="L24">
-        <v>1.009566662355365</v>
+        <v>1.002077852224434</v>
       </c>
       <c r="M24">
-        <v>1.00736977974542</v>
+        <v>1.014407571041705</v>
       </c>
       <c r="N24">
-        <v>1.01198239816706</v>
+        <v>1.007066158766247</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9961124678372479</v>
+        <v>0.9854995024097587</v>
       </c>
       <c r="D25">
-        <v>1.01577178085592</v>
+        <v>1.009029248841999</v>
       </c>
       <c r="E25">
-        <v>1.007828099377295</v>
+        <v>0.9943518053073407</v>
       </c>
       <c r="F25">
-        <v>1.007615598248712</v>
+        <v>1.00815966775802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044448027155804</v>
+        <v>1.039008654139981</v>
       </c>
       <c r="J25">
-        <v>1.020771374989414</v>
+        <v>1.010524918211736</v>
       </c>
       <c r="K25">
-        <v>1.028130096244509</v>
+        <v>1.021488995908299</v>
       </c>
       <c r="L25">
-        <v>1.020306097556877</v>
+        <v>1.007038439613281</v>
       </c>
       <c r="M25">
-        <v>1.020096831095621</v>
+        <v>1.020632622314369</v>
       </c>
       <c r="N25">
-        <v>1.022220987426012</v>
+        <v>1.011959979504425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9918438471363478</v>
+        <v>1.024831875083829</v>
       </c>
       <c r="D2">
-        <v>1.0137090931494</v>
+        <v>1.033231186621255</v>
       </c>
       <c r="E2">
-        <v>0.999381844064719</v>
+        <v>1.025262092286521</v>
       </c>
       <c r="F2">
-        <v>1.014148080929087</v>
+        <v>1.041822726686595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040358560773041</v>
+        <v>1.030703326759</v>
       </c>
       <c r="J2">
-        <v>1.014271274419988</v>
+        <v>1.030004285704727</v>
       </c>
       <c r="K2">
-        <v>1.024980686088453</v>
+        <v>1.036034131710098</v>
       </c>
       <c r="L2">
-        <v>1.01084979750394</v>
+        <v>1.028088178694022</v>
       </c>
       <c r="M2">
-        <v>1.025413767489104</v>
+        <v>1.044601153539867</v>
       </c>
       <c r="N2">
-        <v>1.0157116559682</v>
+        <v>1.031467009933577</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9963182148553072</v>
+        <v>1.025784332309181</v>
       </c>
       <c r="D3">
-        <v>1.017015402012449</v>
+        <v>1.033955741450153</v>
       </c>
       <c r="E3">
-        <v>1.002943575395173</v>
+        <v>1.026070820503341</v>
       </c>
       <c r="F3">
-        <v>1.018383151925707</v>
+        <v>1.042782500365465</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041287891990749</v>
+        <v>1.03083766256289</v>
       </c>
       <c r="J3">
-        <v>1.016909754752823</v>
+        <v>1.030595802537291</v>
       </c>
       <c r="K3">
-        <v>1.027435100039487</v>
+        <v>1.03656784919079</v>
       </c>
       <c r="L3">
-        <v>1.013538930667043</v>
+        <v>1.028704168659835</v>
       </c>
       <c r="M3">
-        <v>1.028786098364846</v>
+        <v>1.045371242308983</v>
       </c>
       <c r="N3">
-        <v>1.018353883245752</v>
+        <v>1.032059366787885</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9991557509731024</v>
+        <v>1.026401156995317</v>
       </c>
       <c r="D4">
-        <v>1.019114461830165</v>
+        <v>1.034424823200633</v>
       </c>
       <c r="E4">
-        <v>1.00520861954378</v>
+        <v>1.026594950050615</v>
       </c>
       <c r="F4">
-        <v>1.021074031915698</v>
+        <v>1.043404305906185</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041866452539839</v>
+        <v>1.030923291962704</v>
       </c>
       <c r="J4">
-        <v>1.018581077409554</v>
+        <v>1.030978482296347</v>
       </c>
       <c r="K4">
-        <v>1.028987538451913</v>
+        <v>1.036912777896708</v>
       </c>
       <c r="L4">
-        <v>1.015244584985609</v>
+        <v>1.029102934168904</v>
       </c>
       <c r="M4">
-        <v>1.030924595055978</v>
+        <v>1.045869688963475</v>
       </c>
       <c r="N4">
-        <v>1.020027579372358</v>
+        <v>1.032442589996093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000335330036966</v>
+        <v>1.026660593926928</v>
       </c>
       <c r="D5">
-        <v>1.019987538967624</v>
+        <v>1.034622082721213</v>
       </c>
       <c r="E5">
-        <v>1.006151671088815</v>
+        <v>1.026815491061498</v>
       </c>
       <c r="F5">
-        <v>1.02219382314252</v>
+        <v>1.043665895374549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042104328728924</v>
+        <v>1.030958980031071</v>
       </c>
       <c r="J5">
-        <v>1.019275354382786</v>
+        <v>1.03113934285611</v>
       </c>
       <c r="K5">
-        <v>1.029631864940714</v>
+        <v>1.03705768379023</v>
       </c>
       <c r="L5">
-        <v>1.015953661585747</v>
+        <v>1.029270616955149</v>
       </c>
       <c r="M5">
-        <v>1.031813493354621</v>
+        <v>1.046079270051868</v>
       </c>
       <c r="N5">
-        <v>1.020722842298527</v>
+        <v>1.032603678996301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00053261912128</v>
+        <v>1.026704161763873</v>
       </c>
       <c r="D6">
-        <v>1.020133591337758</v>
+        <v>1.034655206796365</v>
       </c>
       <c r="E6">
-        <v>1.006309484584402</v>
+        <v>1.026852532377589</v>
       </c>
       <c r="F6">
-        <v>1.022381180428909</v>
+        <v>1.043709828054054</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042143958309945</v>
+        <v>1.030964953989339</v>
       </c>
       <c r="J6">
-        <v>1.019391444379921</v>
+        <v>1.031166350967594</v>
       </c>
       <c r="K6">
-        <v>1.02973956902499</v>
+        <v>1.037082008107328</v>
       </c>
       <c r="L6">
-        <v>1.016072257839761</v>
+        <v>1.029298774051724</v>
       </c>
       <c r="M6">
-        <v>1.031962158499744</v>
+        <v>1.046114461602977</v>
       </c>
       <c r="N6">
-        <v>1.020839097156774</v>
+        <v>1.032630725462402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9991715642809011</v>
+        <v>1.026404623118877</v>
       </c>
       <c r="D7">
-        <v>1.019126164362205</v>
+        <v>1.034427458767643</v>
       </c>
       <c r="E7">
-        <v>1.005221256280642</v>
+        <v>1.026597896158217</v>
       </c>
       <c r="F7">
-        <v>1.021089039120735</v>
+        <v>1.043407800562427</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04186965194487</v>
+        <v>1.030923770049272</v>
       </c>
       <c r="J7">
-        <v>1.018590386835597</v>
+        <v>1.030980631795006</v>
       </c>
       <c r="K7">
-        <v>1.028996180356107</v>
+        <v>1.036914714539</v>
       </c>
       <c r="L7">
-        <v>1.015254090731998</v>
+        <v>1.029105174591695</v>
       </c>
       <c r="M7">
-        <v>1.03093651193397</v>
+        <v>1.045872489263758</v>
       </c>
       <c r="N7">
-        <v>1.020036902018854</v>
+        <v>1.032444742547286</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.99336822464135</v>
+        <v>1.025153653986139</v>
       </c>
       <c r="D8">
-        <v>1.014835008378614</v>
+        <v>1.033476001461907</v>
       </c>
       <c r="E8">
-        <v>1.000593949057063</v>
+        <v>1.025535233454138</v>
       </c>
       <c r="F8">
-        <v>1.015589834435265</v>
+        <v>1.042146926880958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040677412617217</v>
+        <v>1.030748993953574</v>
       </c>
       <c r="J8">
-        <v>1.01517056533181</v>
+        <v>1.030204205744204</v>
       </c>
       <c r="K8">
-        <v>1.02581771073304</v>
+        <v>1.036214590811526</v>
       </c>
       <c r="L8">
-        <v>1.011765880931669</v>
+        <v>1.028296317736652</v>
       </c>
       <c r="M8">
-        <v>1.026562692461156</v>
+        <v>1.0448613773044</v>
       </c>
       <c r="N8">
-        <v>1.016612223976273</v>
+        <v>1.031667213882435</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9826770752598969</v>
+        <v>1.022953319441341</v>
       </c>
       <c r="D9">
-        <v>1.006950690774334</v>
+        <v>1.031801361269094</v>
       </c>
       <c r="E9">
-        <v>0.9921215443452559</v>
+        <v>1.023669089500834</v>
       </c>
       <c r="F9">
-        <v>1.005501780575832</v>
+        <v>1.039931048184654</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038397186355539</v>
+        <v>1.030431123092232</v>
       </c>
       <c r="J9">
-        <v>1.008856738491912</v>
+        <v>1.028835541406988</v>
       </c>
       <c r="K9">
-        <v>1.019931995538266</v>
+        <v>1.034977696654702</v>
       </c>
       <c r="L9">
-        <v>1.005343750503145</v>
+        <v>1.026872424053712</v>
       </c>
       <c r="M9">
-        <v>1.018506221468642</v>
+        <v>1.043080855478284</v>
       </c>
       <c r="N9">
-        <v>1.010289430778056</v>
+        <v>1.030296605884872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9752025738848442</v>
+        <v>1.021489195659868</v>
       </c>
       <c r="D10">
-        <v>1.001457064030086</v>
+        <v>1.030686328756293</v>
       </c>
       <c r="E10">
-        <v>0.986236981680505</v>
+        <v>1.022429378653272</v>
       </c>
       <c r="F10">
-        <v>0.9984812815751005</v>
+        <v>1.038457872607516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036749167942789</v>
+        <v>1.030212589678071</v>
       </c>
       <c r="J10">
-        <v>1.004435798342619</v>
+        <v>1.027922817678369</v>
       </c>
       <c r="K10">
-        <v>1.015800060476305</v>
+        <v>1.034151020502537</v>
       </c>
       <c r="L10">
-        <v>1.000859258936417</v>
+        <v>1.025924174623114</v>
       </c>
       <c r="M10">
-        <v>1.012878011200354</v>
+        <v>1.041894712416805</v>
       </c>
       <c r="N10">
-        <v>1.005862212386662</v>
+        <v>1.029382585983867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9718753618594389</v>
+        <v>1.020855880978255</v>
       </c>
       <c r="D11">
-        <v>0.999017034870618</v>
+        <v>1.030203855558442</v>
       </c>
       <c r="E11">
-        <v>0.9836275205450823</v>
+        <v>1.02189362689345</v>
       </c>
       <c r="F11">
-        <v>0.9953646525297029</v>
+        <v>1.037820955284493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036003464806555</v>
+        <v>1.030116398891163</v>
       </c>
       <c r="J11">
-        <v>1.002466840560775</v>
+        <v>1.027527543406635</v>
       </c>
       <c r="K11">
-        <v>1.013957512312272</v>
+        <v>1.033792580228143</v>
       </c>
       <c r="L11">
-        <v>0.9988649468535721</v>
+        <v>1.025513825171196</v>
       </c>
       <c r="M11">
-        <v>1.010374517360495</v>
+        <v>1.041381321356535</v>
       </c>
       <c r="N11">
-        <v>1.003890458458925</v>
+        <v>1.028986750377329</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.970625091164235</v>
+        <v>1.020620739786641</v>
       </c>
       <c r="D12">
-        <v>0.9981010463254307</v>
+        <v>1.030024696485486</v>
       </c>
       <c r="E12">
-        <v>0.9826485358839708</v>
+        <v>1.021694784091993</v>
       </c>
       <c r="F12">
-        <v>0.9941948615209834</v>
+        <v>1.03758452401427</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035721492283861</v>
+        <v>1.030080434828302</v>
       </c>
       <c r="J12">
-        <v>1.001726863200223</v>
+        <v>1.02738071301633</v>
       </c>
       <c r="K12">
-        <v>1.01326471794356</v>
+        <v>1.033659367843922</v>
       </c>
       <c r="L12">
-        <v>0.9981158875458863</v>
+        <v>1.025361441496992</v>
       </c>
       <c r="M12">
-        <v>1.009434130363415</v>
+        <v>1.041190658813434</v>
       </c>
       <c r="N12">
-        <v>1.003149430245645</v>
+        <v>1.028839711471028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9708939428654304</v>
+        <v>1.020671173828179</v>
       </c>
       <c r="D13">
-        <v>0.9982979733641303</v>
+        <v>1.030063124296227</v>
       </c>
       <c r="E13">
-        <v>0.982858979234048</v>
+        <v>1.021737429319965</v>
       </c>
       <c r="F13">
-        <v>0.9944463451293498</v>
+        <v>1.037635232597297</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035782204668569</v>
+        <v>1.030088159846301</v>
       </c>
       <c r="J13">
-        <v>1.001885987707628</v>
+        <v>1.02741220897739</v>
       </c>
       <c r="K13">
-        <v>1.013413710537785</v>
+        <v>1.03368794558111</v>
       </c>
       <c r="L13">
-        <v>0.9982769447851443</v>
+        <v>1.025394126559377</v>
       </c>
       <c r="M13">
-        <v>1.009636329042577</v>
+        <v>1.041231555029416</v>
       </c>
       <c r="N13">
-        <v>1.003308780728102</v>
+        <v>1.028871252159965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9717723124055581</v>
+        <v>1.020836442087564</v>
       </c>
       <c r="D14">
-        <v>0.9989415186023675</v>
+        <v>1.030189045125302</v>
       </c>
       <c r="E14">
-        <v>0.983546798485051</v>
+        <v>1.021877187229019</v>
       </c>
       <c r="F14">
-        <v>0.9952682084979231</v>
+        <v>1.037801408771338</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035980259544757</v>
+        <v>1.030113430871737</v>
       </c>
       <c r="J14">
-        <v>1.002405852070538</v>
+        <v>1.027515406517142</v>
       </c>
       <c r="K14">
-        <v>1.013900419083287</v>
+        <v>1.033781570307829</v>
       </c>
       <c r="L14">
-        <v>0.9988032007318888</v>
+        <v>1.02550122830035</v>
       </c>
       <c r="M14">
-        <v>1.010297001408787</v>
+        <v>1.041365560435719</v>
       </c>
       <c r="N14">
-        <v>1.003829383358037</v>
+        <v>1.028974596252061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9723115733456231</v>
+        <v>1.020938282603289</v>
       </c>
       <c r="D15">
-        <v>0.9993367349564268</v>
+        <v>1.030266636162513</v>
       </c>
       <c r="E15">
-        <v>0.9839692841718505</v>
+        <v>1.021963317831978</v>
       </c>
       <c r="F15">
-        <v>0.9957729584849211</v>
+        <v>1.037903815072244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036101622058794</v>
+        <v>1.030128970123375</v>
       </c>
       <c r="J15">
-        <v>1.002725002962749</v>
+        <v>1.027578988904543</v>
       </c>
       <c r="K15">
-        <v>1.014199173097745</v>
+        <v>1.033839246120511</v>
       </c>
       <c r="L15">
-        <v>0.9991263345187205</v>
+        <v>1.025567222333883</v>
       </c>
       <c r="M15">
-        <v>1.010702659641297</v>
+        <v>1.041448130098023</v>
       </c>
       <c r="N15">
-        <v>1.004148987481121</v>
+        <v>1.029038268933745</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9754214145664903</v>
+        <v>1.021531240658292</v>
       </c>
       <c r="D16">
-        <v>1.001617672421895</v>
+        <v>1.030718356263516</v>
       </c>
       <c r="E16">
-        <v>0.9864088282518503</v>
+        <v>1.022464956993993</v>
       </c>
       <c r="F16">
-        <v>0.9986864545501439</v>
+        <v>1.038500163419746</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036797967870926</v>
+        <v>1.03021894062754</v>
       </c>
       <c r="J16">
-        <v>1.0045652858596</v>
+        <v>1.027949049567987</v>
       </c>
       <c r="K16">
-        <v>1.015921188529182</v>
+        <v>1.034174798891456</v>
       </c>
       <c r="L16">
-        <v>1.00099047561353</v>
+        <v>1.025951413492449</v>
       </c>
       <c r="M16">
-        <v>1.013042718420334</v>
+        <v>1.041928789158675</v>
       </c>
       <c r="N16">
-        <v>1.005991883790769</v>
+        <v>1.029408855125777</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9773473258205208</v>
+        <v>1.021903365023833</v>
       </c>
       <c r="D17">
-        <v>1.003031736301477</v>
+        <v>1.031001801222858</v>
       </c>
       <c r="E17">
-        <v>0.9879223143379804</v>
+        <v>1.02277990436205</v>
       </c>
       <c r="F17">
-        <v>1.00049305772424</v>
+        <v>1.038874499609033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037226061779617</v>
+        <v>1.030274958278233</v>
       </c>
       <c r="J17">
-        <v>1.005704733853787</v>
+        <v>1.028181163731453</v>
       </c>
       <c r="K17">
-        <v>1.01698681619683</v>
+        <v>1.034385153403671</v>
       </c>
       <c r="L17">
-        <v>1.002145475781526</v>
+        <v>1.026192473776715</v>
       </c>
       <c r="M17">
-        <v>1.014492447372195</v>
+        <v>1.042230352753197</v>
       </c>
       <c r="N17">
-        <v>1.007132949931805</v>
+        <v>1.029641298917979</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9784619803907635</v>
+        <v>1.022120482550271</v>
       </c>
       <c r="D18">
-        <v>1.003850657818542</v>
+        <v>1.031167162896679</v>
       </c>
       <c r="E18">
-        <v>0.9887992150018771</v>
+        <v>1.022963709171941</v>
       </c>
       <c r="F18">
-        <v>1.001539461131863</v>
+        <v>1.03909293779249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037472676049088</v>
+        <v>1.030307481452356</v>
       </c>
       <c r="J18">
-        <v>1.006364109426397</v>
+        <v>1.028316546253746</v>
       </c>
       <c r="K18">
-        <v>1.017603253283623</v>
+        <v>1.034507802860246</v>
       </c>
       <c r="L18">
-        <v>1.002814130684524</v>
+        <v>1.026333104101327</v>
       </c>
       <c r="M18">
-        <v>1.01533167427648</v>
+        <v>1.042406270525122</v>
       </c>
       <c r="N18">
-        <v>1.007793261893359</v>
+        <v>1.029776873698983</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9788405961237241</v>
+        <v>1.022194524791844</v>
       </c>
       <c r="D19">
-        <v>1.00412890507886</v>
+        <v>1.031223552513443</v>
       </c>
       <c r="E19">
-        <v>0.9890972307151885</v>
+        <v>1.023026399010706</v>
       </c>
       <c r="F19">
-        <v>1.001895027587011</v>
+        <v>1.039167435508425</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037556246512978</v>
+        <v>1.03031854539104</v>
       </c>
       <c r="J19">
-        <v>1.006588061680874</v>
+        <v>1.028362707193333</v>
       </c>
       <c r="K19">
-        <v>1.017812583805667</v>
+        <v>1.034549615191248</v>
       </c>
       <c r="L19">
-        <v>1.003041281925178</v>
+        <v>1.026381059437829</v>
       </c>
       <c r="M19">
-        <v>1.015616762092636</v>
+        <v>1.042466257435847</v>
       </c>
       <c r="N19">
-        <v>1.008017532185725</v>
+        <v>1.029823100192399</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.977141598713326</v>
+        <v>1.021863433008379</v>
       </c>
       <c r="D20">
-        <v>1.002880631783077</v>
+        <v>1.030971386835295</v>
       </c>
       <c r="E20">
-        <v>0.9877605442826113</v>
+        <v>1.022746102998591</v>
       </c>
       <c r="F20">
-        <v>1.000299991631411</v>
+        <v>1.03883432712357</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037180451658591</v>
+        <v>1.03026896372671</v>
       </c>
       <c r="J20">
-        <v>1.005583027249557</v>
+        <v>1.028156260665702</v>
       </c>
       <c r="K20">
-        <v>1.01687301717062</v>
+        <v>1.034362589185725</v>
       </c>
       <c r="L20">
-        <v>1.002022078986797</v>
+        <v>1.02616660780618</v>
       </c>
       <c r="M20">
-        <v>1.014337568098371</v>
+        <v>1.042197995670332</v>
       </c>
       <c r="N20">
-        <v>1.007011070490237</v>
+        <v>1.029616360487018</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9715140583168201</v>
+        <v>1.020787771934961</v>
       </c>
       <c r="D21">
-        <v>0.99875228081076</v>
+        <v>1.030151963106685</v>
       </c>
       <c r="E21">
-        <v>0.9833445251207137</v>
+        <v>1.021836027601294</v>
       </c>
       <c r="F21">
-        <v>0.9950265303595471</v>
+        <v>1.037752469928622</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035922076296291</v>
+        <v>1.030105995654471</v>
       </c>
       <c r="J21">
-        <v>1.002253006298012</v>
+        <v>1.027485017625231</v>
       </c>
       <c r="K21">
-        <v>1.013757330233917</v>
+        <v>1.033754002130644</v>
       </c>
       <c r="L21">
-        <v>0.9986484634376035</v>
+        <v>1.025469688439461</v>
       </c>
       <c r="M21">
-        <v>1.010102743255014</v>
+        <v>1.041326098242125</v>
       </c>
       <c r="N21">
-        <v>1.003676320526981</v>
+        <v>1.028944164204438</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9678920882051872</v>
+        <v>1.020112040571534</v>
       </c>
       <c r="D22">
-        <v>0.9961005276250934</v>
+        <v>1.029637065952014</v>
       </c>
       <c r="E22">
-        <v>0.9805115264659312</v>
+        <v>1.021264749141932</v>
       </c>
       <c r="F22">
-        <v>0.9916403460559303</v>
+        <v>1.037073121370967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035101954324116</v>
+        <v>1.03000217454132</v>
       </c>
       <c r="J22">
-        <v>1.00010920235156</v>
+        <v>1.027062935081365</v>
       </c>
       <c r="K22">
-        <v>1.011749631656243</v>
+        <v>1.033370944924226</v>
       </c>
       <c r="L22">
-        <v>0.996479198532494</v>
+        <v>1.025031730141992</v>
       </c>
       <c r="M22">
-        <v>1.007379248485594</v>
+        <v>1.040778097615468</v>
       </c>
       <c r="N22">
-        <v>1.001529472133029</v>
+        <v>1.028521482254946</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9698203692242875</v>
+        <v>1.020470203347482</v>
       </c>
       <c r="D23">
-        <v>0.9975117477257434</v>
+        <v>1.029909993106628</v>
       </c>
       <c r="E23">
-        <v>0.9820188774979202</v>
+        <v>1.021567506819513</v>
       </c>
       <c r="F23">
-        <v>0.99344232895431</v>
+        <v>1.037433175120192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035539516078872</v>
+        <v>1.030057340499509</v>
       </c>
       <c r="J23">
-        <v>1.001250564256467</v>
+        <v>1.027286693020445</v>
       </c>
       <c r="K23">
-        <v>1.012818700483984</v>
+        <v>1.033574049735322</v>
       </c>
       <c r="L23">
-        <v>0.997633869227442</v>
+        <v>1.025263878690141</v>
       </c>
       <c r="M23">
-        <v>1.008828970892111</v>
+        <v>1.041068584147891</v>
       </c>
       <c r="N23">
-        <v>1.002672454902755</v>
+        <v>1.028745557955965</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9772345847575343</v>
+        <v>1.021881476370583</v>
       </c>
       <c r="D24">
-        <v>1.00294892754307</v>
+        <v>1.030985129685963</v>
       </c>
       <c r="E24">
-        <v>0.9878336593744124</v>
+        <v>1.022761376066791</v>
       </c>
       <c r="F24">
-        <v>1.000387252581419</v>
+        <v>1.038852479049545</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037201070432793</v>
+        <v>1.03027167287304</v>
       </c>
       <c r="J24">
-        <v>1.005638037404837</v>
+        <v>1.028167513306993</v>
       </c>
       <c r="K24">
-        <v>1.016924453864792</v>
+        <v>1.034372785129155</v>
       </c>
       <c r="L24">
-        <v>1.002077852224434</v>
+        <v>1.026178295451</v>
       </c>
       <c r="M24">
-        <v>1.014407571041705</v>
+        <v>1.042212616379028</v>
       </c>
       <c r="N24">
-        <v>1.007066158766247</v>
+        <v>1.029627629108351</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9854995024097587</v>
+        <v>1.023521675153259</v>
       </c>
       <c r="D25">
-        <v>1.009029248841999</v>
+        <v>1.032234056278317</v>
       </c>
       <c r="E25">
-        <v>0.9943518053073407</v>
+        <v>1.024150765375778</v>
       </c>
       <c r="F25">
-        <v>1.00815966775802</v>
+        <v>1.04050319336801</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039008654139981</v>
+        <v>1.030514469410416</v>
       </c>
       <c r="J25">
-        <v>1.010524918211736</v>
+        <v>1.029189427618647</v>
       </c>
       <c r="K25">
-        <v>1.021488995908299</v>
+        <v>1.035297834642232</v>
       </c>
       <c r="L25">
-        <v>1.007038439613281</v>
+        <v>1.027240360642637</v>
       </c>
       <c r="M25">
-        <v>1.020632622314369</v>
+        <v>1.043541014840851</v>
       </c>
       <c r="N25">
-        <v>1.011959979504425</v>
+        <v>1.030650994655543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024831875083829</v>
+        <v>0.9918438471363481</v>
       </c>
       <c r="D2">
-        <v>1.033231186621255</v>
+        <v>1.0137090931494</v>
       </c>
       <c r="E2">
-        <v>1.025262092286521</v>
+        <v>0.9993818440647191</v>
       </c>
       <c r="F2">
-        <v>1.041822726686595</v>
+        <v>1.014148080929087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030703326759</v>
+        <v>1.040358560773041</v>
       </c>
       <c r="J2">
-        <v>1.030004285704727</v>
+        <v>1.014271274419989</v>
       </c>
       <c r="K2">
-        <v>1.036034131710098</v>
+        <v>1.024980686088454</v>
       </c>
       <c r="L2">
-        <v>1.028088178694022</v>
+        <v>1.01084979750394</v>
       </c>
       <c r="M2">
-        <v>1.044601153539867</v>
+        <v>1.025413767489104</v>
       </c>
       <c r="N2">
-        <v>1.031467009933577</v>
+        <v>1.0157116559682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025784332309181</v>
+        <v>0.9963182148553071</v>
       </c>
       <c r="D3">
-        <v>1.033955741450153</v>
+        <v>1.017015402012449</v>
       </c>
       <c r="E3">
-        <v>1.026070820503341</v>
+        <v>1.002943575395172</v>
       </c>
       <c r="F3">
-        <v>1.042782500365465</v>
+        <v>1.018383151925707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03083766256289</v>
+        <v>1.041287891990749</v>
       </c>
       <c r="J3">
-        <v>1.030595802537291</v>
+        <v>1.016909754752823</v>
       </c>
       <c r="K3">
-        <v>1.03656784919079</v>
+        <v>1.027435100039487</v>
       </c>
       <c r="L3">
-        <v>1.028704168659835</v>
+        <v>1.013538930667043</v>
       </c>
       <c r="M3">
-        <v>1.045371242308983</v>
+        <v>1.028786098364846</v>
       </c>
       <c r="N3">
-        <v>1.032059366787885</v>
+        <v>1.018353883245752</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026401156995317</v>
+        <v>0.9991557509731027</v>
       </c>
       <c r="D4">
-        <v>1.034424823200633</v>
+        <v>1.019114461830166</v>
       </c>
       <c r="E4">
-        <v>1.026594950050615</v>
+        <v>1.00520861954378</v>
       </c>
       <c r="F4">
-        <v>1.043404305906185</v>
+        <v>1.021074031915699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030923291962704</v>
+        <v>1.041866452539839</v>
       </c>
       <c r="J4">
-        <v>1.030978482296347</v>
+        <v>1.018581077409555</v>
       </c>
       <c r="K4">
-        <v>1.036912777896708</v>
+        <v>1.028987538451913</v>
       </c>
       <c r="L4">
-        <v>1.029102934168904</v>
+        <v>1.015244584985609</v>
       </c>
       <c r="M4">
-        <v>1.045869688963475</v>
+        <v>1.030924595055979</v>
       </c>
       <c r="N4">
-        <v>1.032442589996093</v>
+        <v>1.020027579372359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026660593926928</v>
+        <v>1.000335330036966</v>
       </c>
       <c r="D5">
-        <v>1.034622082721213</v>
+        <v>1.019987538967625</v>
       </c>
       <c r="E5">
-        <v>1.026815491061498</v>
+        <v>1.006151671088815</v>
       </c>
       <c r="F5">
-        <v>1.043665895374549</v>
+        <v>1.022193823142521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030958980031071</v>
+        <v>1.042104328728924</v>
       </c>
       <c r="J5">
-        <v>1.03113934285611</v>
+        <v>1.019275354382787</v>
       </c>
       <c r="K5">
-        <v>1.03705768379023</v>
+        <v>1.029631864940715</v>
       </c>
       <c r="L5">
-        <v>1.029270616955149</v>
+        <v>1.015953661585747</v>
       </c>
       <c r="M5">
-        <v>1.046079270051868</v>
+        <v>1.031813493354621</v>
       </c>
       <c r="N5">
-        <v>1.032603678996301</v>
+        <v>1.020722842298527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026704161763873</v>
+        <v>1.00053261912128</v>
       </c>
       <c r="D6">
-        <v>1.034655206796365</v>
+        <v>1.020133591337758</v>
       </c>
       <c r="E6">
-        <v>1.026852532377589</v>
+        <v>1.006309484584401</v>
       </c>
       <c r="F6">
-        <v>1.043709828054054</v>
+        <v>1.022381180428909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030964953989339</v>
+        <v>1.042143958309945</v>
       </c>
       <c r="J6">
-        <v>1.031166350967594</v>
+        <v>1.019391444379921</v>
       </c>
       <c r="K6">
-        <v>1.037082008107328</v>
+        <v>1.029739569024989</v>
       </c>
       <c r="L6">
-        <v>1.029298774051724</v>
+        <v>1.01607225783976</v>
       </c>
       <c r="M6">
-        <v>1.046114461602977</v>
+        <v>1.031962158499745</v>
       </c>
       <c r="N6">
-        <v>1.032630725462402</v>
+        <v>1.020839097156773</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026404623118877</v>
+        <v>0.9991715642809009</v>
       </c>
       <c r="D7">
-        <v>1.034427458767643</v>
+        <v>1.019126164362204</v>
       </c>
       <c r="E7">
-        <v>1.026597896158217</v>
+        <v>1.005221256280641</v>
       </c>
       <c r="F7">
-        <v>1.043407800562427</v>
+        <v>1.021089039120735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030923770049272</v>
+        <v>1.041869651944869</v>
       </c>
       <c r="J7">
-        <v>1.030980631795006</v>
+        <v>1.018590386835597</v>
       </c>
       <c r="K7">
-        <v>1.036914714539</v>
+        <v>1.028996180356107</v>
       </c>
       <c r="L7">
-        <v>1.029105174591695</v>
+        <v>1.015254090731998</v>
       </c>
       <c r="M7">
-        <v>1.045872489263758</v>
+        <v>1.03093651193397</v>
       </c>
       <c r="N7">
-        <v>1.032444742547286</v>
+        <v>1.020036902018854</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025153653986139</v>
+        <v>0.9933682246413508</v>
       </c>
       <c r="D8">
-        <v>1.033476001461907</v>
+        <v>1.014835008378615</v>
       </c>
       <c r="E8">
-        <v>1.025535233454138</v>
+        <v>1.000593949057063</v>
       </c>
       <c r="F8">
-        <v>1.042146926880958</v>
+        <v>1.015589834435266</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030748993953574</v>
+        <v>1.040677412617218</v>
       </c>
       <c r="J8">
-        <v>1.030204205744204</v>
+        <v>1.015170565331811</v>
       </c>
       <c r="K8">
-        <v>1.036214590811526</v>
+        <v>1.025817710733041</v>
       </c>
       <c r="L8">
-        <v>1.028296317736652</v>
+        <v>1.011765880931669</v>
       </c>
       <c r="M8">
-        <v>1.0448613773044</v>
+        <v>1.026562692461157</v>
       </c>
       <c r="N8">
-        <v>1.031667213882435</v>
+        <v>1.016612223976274</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022953319441341</v>
+        <v>0.9826770752598966</v>
       </c>
       <c r="D9">
-        <v>1.031801361269094</v>
+        <v>1.006950690774334</v>
       </c>
       <c r="E9">
-        <v>1.023669089500834</v>
+        <v>0.9921215443452555</v>
       </c>
       <c r="F9">
-        <v>1.039931048184654</v>
+        <v>1.005501780575832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030431123092232</v>
+        <v>1.038397186355539</v>
       </c>
       <c r="J9">
-        <v>1.028835541406988</v>
+        <v>1.008856738491912</v>
       </c>
       <c r="K9">
-        <v>1.034977696654702</v>
+        <v>1.019931995538266</v>
       </c>
       <c r="L9">
-        <v>1.026872424053712</v>
+        <v>1.005343750503145</v>
       </c>
       <c r="M9">
-        <v>1.043080855478284</v>
+        <v>1.018506221468642</v>
       </c>
       <c r="N9">
-        <v>1.030296605884872</v>
+        <v>1.010289430778056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021489195659868</v>
+        <v>0.975202573884844</v>
       </c>
       <c r="D10">
-        <v>1.030686328756293</v>
+        <v>1.001457064030086</v>
       </c>
       <c r="E10">
-        <v>1.022429378653272</v>
+        <v>0.9862369816805048</v>
       </c>
       <c r="F10">
-        <v>1.038457872607516</v>
+        <v>0.9984812815751006</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030212589678071</v>
+        <v>1.036749167942789</v>
       </c>
       <c r="J10">
-        <v>1.027922817678369</v>
+        <v>1.004435798342619</v>
       </c>
       <c r="K10">
-        <v>1.034151020502537</v>
+        <v>1.015800060476304</v>
       </c>
       <c r="L10">
-        <v>1.025924174623114</v>
+        <v>1.000859258936417</v>
       </c>
       <c r="M10">
-        <v>1.041894712416805</v>
+        <v>1.012878011200354</v>
       </c>
       <c r="N10">
-        <v>1.029382585983867</v>
+        <v>1.005862212386662</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020855880978255</v>
+        <v>0.9718753618594388</v>
       </c>
       <c r="D11">
-        <v>1.030203855558442</v>
+        <v>0.9990170348706177</v>
       </c>
       <c r="E11">
-        <v>1.02189362689345</v>
+        <v>0.9836275205450822</v>
       </c>
       <c r="F11">
-        <v>1.037820955284493</v>
+        <v>0.9953646525297027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030116398891163</v>
+        <v>1.036003464806555</v>
       </c>
       <c r="J11">
-        <v>1.027527543406635</v>
+        <v>1.002466840560775</v>
       </c>
       <c r="K11">
-        <v>1.033792580228143</v>
+        <v>1.013957512312272</v>
       </c>
       <c r="L11">
-        <v>1.025513825171196</v>
+        <v>0.998864946853572</v>
       </c>
       <c r="M11">
-        <v>1.041381321356535</v>
+        <v>1.010374517360495</v>
       </c>
       <c r="N11">
-        <v>1.028986750377329</v>
+        <v>1.003890458458925</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020620739786641</v>
+        <v>0.9706250911642345</v>
       </c>
       <c r="D12">
-        <v>1.030024696485486</v>
+        <v>0.9981010463254302</v>
       </c>
       <c r="E12">
-        <v>1.021694784091993</v>
+        <v>0.9826485358839699</v>
       </c>
       <c r="F12">
-        <v>1.03758452401427</v>
+        <v>0.9941948615209828</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030080434828302</v>
+        <v>1.035721492283861</v>
       </c>
       <c r="J12">
-        <v>1.02738071301633</v>
+        <v>1.001726863200223</v>
       </c>
       <c r="K12">
-        <v>1.033659367843922</v>
+        <v>1.01326471794356</v>
       </c>
       <c r="L12">
-        <v>1.025361441496992</v>
+        <v>0.9981158875458855</v>
       </c>
       <c r="M12">
-        <v>1.041190658813434</v>
+        <v>1.009434130363414</v>
       </c>
       <c r="N12">
-        <v>1.028839711471028</v>
+        <v>1.003149430245644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020671173828179</v>
+        <v>0.9708939428654303</v>
       </c>
       <c r="D13">
-        <v>1.030063124296227</v>
+        <v>0.9982979733641302</v>
       </c>
       <c r="E13">
-        <v>1.021737429319965</v>
+        <v>0.9828589792340483</v>
       </c>
       <c r="F13">
-        <v>1.037635232597297</v>
+        <v>0.9944463451293498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030088159846301</v>
+        <v>1.035782204668569</v>
       </c>
       <c r="J13">
-        <v>1.02741220897739</v>
+        <v>1.001885987707628</v>
       </c>
       <c r="K13">
-        <v>1.03368794558111</v>
+        <v>1.013413710537785</v>
       </c>
       <c r="L13">
-        <v>1.025394126559377</v>
+        <v>0.9982769447851444</v>
       </c>
       <c r="M13">
-        <v>1.041231555029416</v>
+        <v>1.009636329042577</v>
       </c>
       <c r="N13">
-        <v>1.028871252159965</v>
+        <v>1.003308780728102</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020836442087564</v>
+        <v>0.9717723124055577</v>
       </c>
       <c r="D14">
-        <v>1.030189045125302</v>
+        <v>0.998941518602367</v>
       </c>
       <c r="E14">
-        <v>1.021877187229019</v>
+        <v>0.9835467984850507</v>
       </c>
       <c r="F14">
-        <v>1.037801408771338</v>
+        <v>0.9952682084979225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030113430871737</v>
+        <v>1.035980259544757</v>
       </c>
       <c r="J14">
-        <v>1.027515406517142</v>
+        <v>1.002405852070538</v>
       </c>
       <c r="K14">
-        <v>1.033781570307829</v>
+        <v>1.013900419083286</v>
       </c>
       <c r="L14">
-        <v>1.02550122830035</v>
+        <v>0.9988032007318884</v>
       </c>
       <c r="M14">
-        <v>1.041365560435719</v>
+        <v>1.010297001408787</v>
       </c>
       <c r="N14">
-        <v>1.028974596252061</v>
+        <v>1.003829383358037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020938282603289</v>
+        <v>0.9723115733456231</v>
       </c>
       <c r="D15">
-        <v>1.030266636162513</v>
+        <v>0.9993367349564268</v>
       </c>
       <c r="E15">
-        <v>1.021963317831978</v>
+        <v>0.9839692841718501</v>
       </c>
       <c r="F15">
-        <v>1.037903815072244</v>
+        <v>0.9957729584849212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030128970123375</v>
+        <v>1.036101622058794</v>
       </c>
       <c r="J15">
-        <v>1.027578988904543</v>
+        <v>1.002725002962748</v>
       </c>
       <c r="K15">
-        <v>1.033839246120511</v>
+        <v>1.014199173097745</v>
       </c>
       <c r="L15">
-        <v>1.025567222333883</v>
+        <v>0.9991263345187202</v>
       </c>
       <c r="M15">
-        <v>1.041448130098023</v>
+        <v>1.010702659641298</v>
       </c>
       <c r="N15">
-        <v>1.029038268933745</v>
+        <v>1.004148987481121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021531240658292</v>
+        <v>0.9754214145664903</v>
       </c>
       <c r="D16">
-        <v>1.030718356263516</v>
+        <v>1.001617672421895</v>
       </c>
       <c r="E16">
-        <v>1.022464956993993</v>
+        <v>0.9864088282518498</v>
       </c>
       <c r="F16">
-        <v>1.038500163419746</v>
+        <v>0.9986864545501438</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03021894062754</v>
+        <v>1.036797967870926</v>
       </c>
       <c r="J16">
-        <v>1.027949049567987</v>
+        <v>1.004565285859599</v>
       </c>
       <c r="K16">
-        <v>1.034174798891456</v>
+        <v>1.015921188529182</v>
       </c>
       <c r="L16">
-        <v>1.025951413492449</v>
+        <v>1.000990475613529</v>
       </c>
       <c r="M16">
-        <v>1.041928789158675</v>
+        <v>1.013042718420334</v>
       </c>
       <c r="N16">
-        <v>1.029408855125777</v>
+        <v>1.005991883790769</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021903365023833</v>
+        <v>0.9773473258205206</v>
       </c>
       <c r="D17">
-        <v>1.031001801222858</v>
+        <v>1.003031736301477</v>
       </c>
       <c r="E17">
-        <v>1.02277990436205</v>
+        <v>0.9879223143379804</v>
       </c>
       <c r="F17">
-        <v>1.038874499609033</v>
+        <v>1.00049305772424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030274958278233</v>
+        <v>1.037226061779617</v>
       </c>
       <c r="J17">
-        <v>1.028181163731453</v>
+        <v>1.005704733853787</v>
       </c>
       <c r="K17">
-        <v>1.034385153403671</v>
+        <v>1.01698681619683</v>
       </c>
       <c r="L17">
-        <v>1.026192473776715</v>
+        <v>1.002145475781526</v>
       </c>
       <c r="M17">
-        <v>1.042230352753197</v>
+        <v>1.014492447372194</v>
       </c>
       <c r="N17">
-        <v>1.029641298917979</v>
+        <v>1.007132949931805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022120482550271</v>
+        <v>0.9784619803907633</v>
       </c>
       <c r="D18">
-        <v>1.031167162896679</v>
+        <v>1.003850657818542</v>
       </c>
       <c r="E18">
-        <v>1.022963709171941</v>
+        <v>0.988799215001877</v>
       </c>
       <c r="F18">
-        <v>1.03909293779249</v>
+        <v>1.001539461131863</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030307481452356</v>
+        <v>1.037472676049088</v>
       </c>
       <c r="J18">
-        <v>1.028316546253746</v>
+        <v>1.006364109426396</v>
       </c>
       <c r="K18">
-        <v>1.034507802860246</v>
+        <v>1.017603253283623</v>
       </c>
       <c r="L18">
-        <v>1.026333104101327</v>
+        <v>1.002814130684524</v>
       </c>
       <c r="M18">
-        <v>1.042406270525122</v>
+        <v>1.01533167427648</v>
       </c>
       <c r="N18">
-        <v>1.029776873698983</v>
+        <v>1.007793261893359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022194524791844</v>
+        <v>0.9788405961237233</v>
       </c>
       <c r="D19">
-        <v>1.031223552513443</v>
+        <v>1.004128905078859</v>
       </c>
       <c r="E19">
-        <v>1.023026399010706</v>
+        <v>0.9890972307151876</v>
       </c>
       <c r="F19">
-        <v>1.039167435508425</v>
+        <v>1.00189502758701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03031854539104</v>
+        <v>1.037556246512978</v>
       </c>
       <c r="J19">
-        <v>1.028362707193333</v>
+        <v>1.006588061680873</v>
       </c>
       <c r="K19">
-        <v>1.034549615191248</v>
+        <v>1.017812583805666</v>
       </c>
       <c r="L19">
-        <v>1.026381059437829</v>
+        <v>1.003041281925177</v>
       </c>
       <c r="M19">
-        <v>1.042466257435847</v>
+        <v>1.015616762092636</v>
       </c>
       <c r="N19">
-        <v>1.029823100192399</v>
+        <v>1.008017532185724</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021863433008379</v>
+        <v>0.9771415987133257</v>
       </c>
       <c r="D20">
-        <v>1.030971386835295</v>
+        <v>1.002880631783076</v>
       </c>
       <c r="E20">
-        <v>1.022746102998591</v>
+        <v>0.9877605442826108</v>
       </c>
       <c r="F20">
-        <v>1.03883432712357</v>
+        <v>1.000299991631411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03026896372671</v>
+        <v>1.037180451658591</v>
       </c>
       <c r="J20">
-        <v>1.028156260665702</v>
+        <v>1.005583027249557</v>
       </c>
       <c r="K20">
-        <v>1.034362589185725</v>
+        <v>1.01687301717062</v>
       </c>
       <c r="L20">
-        <v>1.02616660780618</v>
+        <v>1.002022078986797</v>
       </c>
       <c r="M20">
-        <v>1.042197995670332</v>
+        <v>1.01433756809837</v>
       </c>
       <c r="N20">
-        <v>1.029616360487018</v>
+        <v>1.007011070490236</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020787771934961</v>
+        <v>0.9715140583168197</v>
       </c>
       <c r="D21">
-        <v>1.030151963106685</v>
+        <v>0.9987522808107597</v>
       </c>
       <c r="E21">
-        <v>1.021836027601294</v>
+        <v>0.9833445251207129</v>
       </c>
       <c r="F21">
-        <v>1.037752469928622</v>
+        <v>0.9950265303595471</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030105995654471</v>
+        <v>1.03592207629629</v>
       </c>
       <c r="J21">
-        <v>1.027485017625231</v>
+        <v>1.002253006298011</v>
       </c>
       <c r="K21">
-        <v>1.033754002130644</v>
+        <v>1.013757330233916</v>
       </c>
       <c r="L21">
-        <v>1.025469688439461</v>
+        <v>0.9986484634376031</v>
       </c>
       <c r="M21">
-        <v>1.041326098242125</v>
+        <v>1.010102743255014</v>
       </c>
       <c r="N21">
-        <v>1.028944164204438</v>
+        <v>1.003676320526981</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020112040571534</v>
+        <v>0.9678920882051872</v>
       </c>
       <c r="D22">
-        <v>1.029637065952014</v>
+        <v>0.9961005276250933</v>
       </c>
       <c r="E22">
-        <v>1.021264749141932</v>
+        <v>0.980511526465931</v>
       </c>
       <c r="F22">
-        <v>1.037073121370967</v>
+        <v>0.9916403460559301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03000217454132</v>
+        <v>1.035101954324116</v>
       </c>
       <c r="J22">
-        <v>1.027062935081365</v>
+        <v>1.00010920235156</v>
       </c>
       <c r="K22">
-        <v>1.033370944924226</v>
+        <v>1.011749631656243</v>
       </c>
       <c r="L22">
-        <v>1.025031730141992</v>
+        <v>0.9964791985324938</v>
       </c>
       <c r="M22">
-        <v>1.040778097615468</v>
+        <v>1.007379248485594</v>
       </c>
       <c r="N22">
-        <v>1.028521482254946</v>
+        <v>1.001529472133029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020470203347482</v>
+        <v>0.9698203692242867</v>
       </c>
       <c r="D23">
-        <v>1.029909993106628</v>
+        <v>0.9975117477257428</v>
       </c>
       <c r="E23">
-        <v>1.021567506819513</v>
+        <v>0.9820188774979197</v>
       </c>
       <c r="F23">
-        <v>1.037433175120192</v>
+        <v>0.9934423289543087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030057340499509</v>
+        <v>1.035539516078872</v>
       </c>
       <c r="J23">
-        <v>1.027286693020445</v>
+        <v>1.001250564256466</v>
       </c>
       <c r="K23">
-        <v>1.033574049735322</v>
+        <v>1.012818700483983</v>
       </c>
       <c r="L23">
-        <v>1.025263878690141</v>
+        <v>0.9976338692274413</v>
       </c>
       <c r="M23">
-        <v>1.041068584147891</v>
+        <v>1.00882897089211</v>
       </c>
       <c r="N23">
-        <v>1.028745557955965</v>
+        <v>1.002672454902755</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021881476370583</v>
+        <v>0.9772345847575346</v>
       </c>
       <c r="D24">
-        <v>1.030985129685963</v>
+        <v>1.00294892754307</v>
       </c>
       <c r="E24">
-        <v>1.022761376066791</v>
+        <v>0.9878336593744125</v>
       </c>
       <c r="F24">
-        <v>1.038852479049545</v>
+        <v>1.000387252581419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03027167287304</v>
+        <v>1.037201070432793</v>
       </c>
       <c r="J24">
-        <v>1.028167513306993</v>
+        <v>1.005638037404837</v>
       </c>
       <c r="K24">
-        <v>1.034372785129155</v>
+        <v>1.016924453864792</v>
       </c>
       <c r="L24">
-        <v>1.026178295451</v>
+        <v>1.002077852224434</v>
       </c>
       <c r="M24">
-        <v>1.042212616379028</v>
+        <v>1.014407571041706</v>
       </c>
       <c r="N24">
-        <v>1.029627629108351</v>
+        <v>1.007066158766247</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023521675153259</v>
+        <v>0.9854995024097591</v>
       </c>
       <c r="D25">
-        <v>1.032234056278317</v>
+        <v>1.009029248842</v>
       </c>
       <c r="E25">
-        <v>1.024150765375778</v>
+        <v>0.9943518053073411</v>
       </c>
       <c r="F25">
-        <v>1.04050319336801</v>
+        <v>1.008159667758021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030514469410416</v>
+        <v>1.039008654139981</v>
       </c>
       <c r="J25">
-        <v>1.029189427618647</v>
+        <v>1.010524918211736</v>
       </c>
       <c r="K25">
-        <v>1.035297834642232</v>
+        <v>1.0214889959083</v>
       </c>
       <c r="L25">
-        <v>1.027240360642637</v>
+        <v>1.007038439613281</v>
       </c>
       <c r="M25">
-        <v>1.043541014840851</v>
+        <v>1.020632622314369</v>
       </c>
       <c r="N25">
-        <v>1.030650994655543</v>
+        <v>1.011959979504425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9918438471363481</v>
+        <v>1.010752778031291</v>
       </c>
       <c r="D2">
-        <v>1.0137090931494</v>
+        <v>1.028346283860112</v>
       </c>
       <c r="E2">
-        <v>0.9993818440647191</v>
+        <v>1.023969944939416</v>
       </c>
       <c r="F2">
-        <v>1.014148080929087</v>
+        <v>1.031385315595412</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040358560773041</v>
+        <v>1.049975674669159</v>
       </c>
       <c r="J2">
-        <v>1.014271274419989</v>
+        <v>1.032616563922117</v>
       </c>
       <c r="K2">
-        <v>1.024980686088454</v>
+        <v>1.039424345050174</v>
       </c>
       <c r="L2">
-        <v>1.01084979750394</v>
+        <v>1.035105142929311</v>
       </c>
       <c r="M2">
-        <v>1.025413767489104</v>
+        <v>1.042424056516362</v>
       </c>
       <c r="N2">
-        <v>1.0157116559682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014782099020242</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042148183723772</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038946703121246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963182148553071</v>
+        <v>1.014017359437943</v>
       </c>
       <c r="D3">
-        <v>1.017015402012449</v>
+        <v>1.030483505393705</v>
       </c>
       <c r="E3">
-        <v>1.002943575395172</v>
+        <v>1.02658304433847</v>
       </c>
       <c r="F3">
-        <v>1.018383151925707</v>
+        <v>1.034092023287261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041287891990749</v>
+        <v>1.050768015100204</v>
       </c>
       <c r="J3">
-        <v>1.016909754752823</v>
+        <v>1.034133056536744</v>
       </c>
       <c r="K3">
-        <v>1.027435100039487</v>
+        <v>1.040740653182297</v>
       </c>
       <c r="L3">
-        <v>1.013538930667043</v>
+        <v>1.036886723550962</v>
       </c>
       <c r="M3">
-        <v>1.028786098364846</v>
+        <v>1.044306509503383</v>
       </c>
       <c r="N3">
-        <v>1.018353883245752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015290125836596</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043638014124019</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039874781491363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9991557509731027</v>
+        <v>1.016094618245562</v>
       </c>
       <c r="D4">
-        <v>1.019114461830166</v>
+        <v>1.031846483563536</v>
       </c>
       <c r="E4">
-        <v>1.00520861954378</v>
+        <v>1.028251345550515</v>
       </c>
       <c r="F4">
-        <v>1.021074031915699</v>
+        <v>1.035822868468947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041866452539839</v>
+        <v>1.051262573455784</v>
       </c>
       <c r="J4">
-        <v>1.018581077409555</v>
+        <v>1.035095393860507</v>
       </c>
       <c r="K4">
-        <v>1.028987538451913</v>
+        <v>1.041575162228107</v>
       </c>
       <c r="L4">
-        <v>1.015244584985609</v>
+        <v>1.038020351466937</v>
       </c>
       <c r="M4">
-        <v>1.030924595055979</v>
+        <v>1.04550734427873</v>
       </c>
       <c r="N4">
-        <v>1.020027579372359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015612579237856</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044588389602413</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040465744619147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000335330036966</v>
+        <v>1.016961988943695</v>
       </c>
       <c r="D5">
-        <v>1.019987538967625</v>
+        <v>1.032418347846731</v>
       </c>
       <c r="E5">
-        <v>1.006151671088815</v>
+        <v>1.028949291582332</v>
       </c>
       <c r="F5">
-        <v>1.022193823142521</v>
+        <v>1.036547035971206</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042104328728924</v>
+        <v>1.051468097278702</v>
       </c>
       <c r="J5">
-        <v>1.019275354382787</v>
+        <v>1.035497751013786</v>
       </c>
       <c r="K5">
-        <v>1.029631864940715</v>
+        <v>1.041925445247293</v>
       </c>
       <c r="L5">
-        <v>1.015953661585747</v>
+        <v>1.03849427555817</v>
       </c>
       <c r="M5">
-        <v>1.031813493354621</v>
+        <v>1.046009447951881</v>
       </c>
       <c r="N5">
-        <v>1.020722842298527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015747677509747</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044985768649504</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040720586964134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00053261912128</v>
+        <v>1.017109936369088</v>
       </c>
       <c r="D6">
-        <v>1.020133591337758</v>
+        <v>1.032518407777888</v>
       </c>
       <c r="E6">
-        <v>1.006309484584401</v>
+        <v>1.02906844242495</v>
       </c>
       <c r="F6">
-        <v>1.022381180428909</v>
+        <v>1.036669957255397</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042143958309945</v>
+        <v>1.051504668112429</v>
       </c>
       <c r="J6">
-        <v>1.019391444379921</v>
+        <v>1.035567771539736</v>
       </c>
       <c r="K6">
-        <v>1.029739569024989</v>
+        <v>1.041988290202235</v>
       </c>
       <c r="L6">
-        <v>1.01607225783976</v>
+        <v>1.038575831997417</v>
       </c>
       <c r="M6">
-        <v>1.031962158499745</v>
+        <v>1.046095110617023</v>
       </c>
       <c r="N6">
-        <v>1.020839097156773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015771509213757</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04505356448382</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040773759338268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9991715642809009</v>
+        <v>1.016113704195353</v>
       </c>
       <c r="D7">
-        <v>1.019126164362204</v>
+        <v>1.031865674641731</v>
       </c>
       <c r="E7">
-        <v>1.005221256280641</v>
+        <v>1.02826677233307</v>
       </c>
       <c r="F7">
-        <v>1.021089039120735</v>
+        <v>1.035836876702569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041869651944869</v>
+        <v>1.051271517373929</v>
       </c>
       <c r="J7">
-        <v>1.018590386835597</v>
+        <v>1.035108068859677</v>
       </c>
       <c r="K7">
-        <v>1.028996180356107</v>
+        <v>1.041591261337185</v>
       </c>
       <c r="L7">
-        <v>1.015254090731998</v>
+        <v>1.038032713375226</v>
       </c>
       <c r="M7">
-        <v>1.03093651193397</v>
+        <v>1.045518334605696</v>
       </c>
       <c r="N7">
-        <v>1.020036902018854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015617704585097</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044597087660305</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040497220207528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9933682246413508</v>
+        <v>1.011872654898705</v>
       </c>
       <c r="D8">
-        <v>1.014835008378615</v>
+        <v>1.029086871542619</v>
       </c>
       <c r="E8">
-        <v>1.000593949057063</v>
+        <v>1.024865306659673</v>
       </c>
       <c r="F8">
-        <v>1.015589834435266</v>
+        <v>1.032309728254808</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040677412617218</v>
+        <v>1.050254791780039</v>
       </c>
       <c r="J8">
-        <v>1.015170565331811</v>
+        <v>1.033141974138363</v>
       </c>
       <c r="K8">
-        <v>1.025817710733041</v>
+        <v>1.03988674568957</v>
       </c>
       <c r="L8">
-        <v>1.011765880931669</v>
+        <v>1.035718674519936</v>
       </c>
       <c r="M8">
-        <v>1.026562692461157</v>
+        <v>1.043069131013015</v>
       </c>
       <c r="N8">
-        <v>1.016612223976274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014959227582612</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042658715593374</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039296548194733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9826770752598966</v>
+        <v>1.004108490433733</v>
       </c>
       <c r="D9">
-        <v>1.006950690774334</v>
+        <v>1.024014880993788</v>
       </c>
       <c r="E9">
-        <v>0.9921215443452555</v>
+        <v>1.018683319099137</v>
       </c>
       <c r="F9">
-        <v>1.005501780575832</v>
+        <v>1.025924272439579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038397186355539</v>
+        <v>1.048312145363056</v>
       </c>
       <c r="J9">
-        <v>1.008856738491912</v>
+        <v>1.029516996859145</v>
       </c>
       <c r="K9">
-        <v>1.019931995538266</v>
+        <v>1.036729988941552</v>
       </c>
       <c r="L9">
-        <v>1.005343750503145</v>
+        <v>1.031480374472074</v>
       </c>
       <c r="M9">
-        <v>1.018506221468642</v>
+        <v>1.03861029659416</v>
       </c>
       <c r="N9">
-        <v>1.010289430778056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013744289163294</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039129849026719</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037061344987235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.975202573884844</v>
+        <v>0.9987887617377322</v>
       </c>
       <c r="D10">
-        <v>1.001457064030086</v>
+        <v>1.020566354814816</v>
       </c>
       <c r="E10">
-        <v>0.9862369816805048</v>
+        <v>1.014538300719248</v>
       </c>
       <c r="F10">
-        <v>0.9984812815751006</v>
+        <v>1.021724735688819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036749167942789</v>
+        <v>1.046949876236861</v>
       </c>
       <c r="J10">
-        <v>1.004435798342619</v>
+        <v>1.027050518733555</v>
       </c>
       <c r="K10">
-        <v>1.015800060476304</v>
+        <v>1.034573947435502</v>
       </c>
       <c r="L10">
-        <v>1.000859258936417</v>
+        <v>1.028649930998987</v>
       </c>
       <c r="M10">
-        <v>1.012878011200354</v>
+        <v>1.03571251756764</v>
       </c>
       <c r="N10">
-        <v>1.005862212386662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012921859377688</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036887981006972</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035553698956517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9718753618594388</v>
+        <v>0.9968979845961945</v>
       </c>
       <c r="D11">
-        <v>0.9990170348706177</v>
+        <v>1.019395749237588</v>
       </c>
       <c r="E11">
-        <v>0.9836275205450822</v>
+        <v>1.013542858894718</v>
       </c>
       <c r="F11">
-        <v>0.9953646525297027</v>
+        <v>1.021265387232972</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036003464806555</v>
+        <v>1.046582335036123</v>
       </c>
       <c r="J11">
-        <v>1.002466840560775</v>
+        <v>1.026400382865863</v>
       </c>
       <c r="K11">
-        <v>1.013957512312272</v>
+        <v>1.033960930847792</v>
       </c>
       <c r="L11">
-        <v>0.998864946853572</v>
+        <v>1.028213817497098</v>
       </c>
       <c r="M11">
-        <v>1.010374517360495</v>
+        <v>1.035797111353424</v>
       </c>
       <c r="N11">
-        <v>1.003890458458925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012735518327027</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037391682973043</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035153107177805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706250911642345</v>
+        <v>0.9963548099200439</v>
       </c>
       <c r="D12">
-        <v>0.9981010463254302</v>
+        <v>1.019076493125256</v>
       </c>
       <c r="E12">
-        <v>0.9826485358839699</v>
+        <v>1.013467370524618</v>
       </c>
       <c r="F12">
-        <v>0.9941948615209828</v>
+        <v>1.021589337827348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035721492283861</v>
+        <v>1.046528423755623</v>
       </c>
       <c r="J12">
-        <v>1.001726863200223</v>
+        <v>1.026314245962109</v>
       </c>
       <c r="K12">
-        <v>1.01326471794356</v>
+        <v>1.033847121631354</v>
       </c>
       <c r="L12">
-        <v>0.9981158875458855</v>
+        <v>1.028341026589211</v>
       </c>
       <c r="M12">
-        <v>1.009434130363414</v>
+        <v>1.03631428801768</v>
       </c>
       <c r="N12">
-        <v>1.003149430245644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012730235355814</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038127373512368</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035072640420133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9708939428654303</v>
+        <v>0.9968198521535494</v>
       </c>
       <c r="D13">
-        <v>0.9982979733641302</v>
+        <v>1.019402594057392</v>
       </c>
       <c r="E13">
-        <v>0.9828589792340483</v>
+        <v>1.014102761259083</v>
       </c>
       <c r="F13">
-        <v>0.9944463451293498</v>
+        <v>1.022557960170128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035782204668569</v>
+        <v>1.046723147841068</v>
       </c>
       <c r="J13">
-        <v>1.001885987707628</v>
+        <v>1.026666298195337</v>
       </c>
       <c r="K13">
-        <v>1.013413710537785</v>
+        <v>1.034124459286384</v>
       </c>
       <c r="L13">
-        <v>0.9982769447851444</v>
+        <v>1.028921527874998</v>
       </c>
       <c r="M13">
-        <v>1.009636329042577</v>
+        <v>1.03722275315601</v>
       </c>
       <c r="N13">
-        <v>1.003308780728102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012868498913217</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039122424634164</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035266235151287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9717723124055577</v>
+        <v>0.9976004313120097</v>
       </c>
       <c r="D14">
-        <v>0.998941518602367</v>
+        <v>1.019923274405271</v>
       </c>
       <c r="E14">
-        <v>0.9835467984850507</v>
+        <v>1.014864223799866</v>
       </c>
       <c r="F14">
-        <v>0.9952682084979225</v>
+        <v>1.02352176388585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035980259544757</v>
+        <v>1.046971290045799</v>
       </c>
       <c r="J14">
-        <v>1.002405852070538</v>
+        <v>1.027109174256978</v>
       </c>
       <c r="K14">
-        <v>1.013900419083286</v>
+        <v>1.034495489257856</v>
       </c>
       <c r="L14">
-        <v>0.9988032007318884</v>
+        <v>1.029527771845974</v>
       </c>
       <c r="M14">
-        <v>1.010297001408787</v>
+        <v>1.038029726794965</v>
       </c>
       <c r="N14">
-        <v>1.003829383358037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013029716562389</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039933638512794</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035529989463566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9723115733456231</v>
+        <v>0.9980149062446636</v>
       </c>
       <c r="D15">
-        <v>0.9993367349564268</v>
+        <v>1.020196478158389</v>
       </c>
       <c r="E15">
-        <v>0.9839692841718501</v>
+        <v>1.015216487494787</v>
       </c>
       <c r="F15">
-        <v>0.9957729584849212</v>
+        <v>1.023919648418491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036101622058794</v>
+        <v>1.047089795315191</v>
       </c>
       <c r="J15">
-        <v>1.002725002962748</v>
+        <v>1.027318910939947</v>
       </c>
       <c r="K15">
-        <v>1.014199173097745</v>
+        <v>1.034677441127825</v>
       </c>
       <c r="L15">
-        <v>0.9991263345187202</v>
+        <v>1.029786670994055</v>
       </c>
       <c r="M15">
-        <v>1.010702659641298</v>
+        <v>1.038334642918742</v>
       </c>
       <c r="N15">
-        <v>1.004148987481121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013102777125411</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040212174587237</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035664504043661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9754214145664903</v>
+        <v>1.000169735116567</v>
       </c>
       <c r="D16">
-        <v>1.001617672421895</v>
+        <v>1.021589242787155</v>
       </c>
       <c r="E16">
-        <v>0.9864088282518498</v>
+        <v>1.016848411088825</v>
       </c>
       <c r="F16">
-        <v>0.9986864545501438</v>
+        <v>1.025548427000608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036797967870926</v>
+        <v>1.047641338130463</v>
       </c>
       <c r="J16">
-        <v>1.004565285859599</v>
+        <v>1.028299856614104</v>
       </c>
       <c r="K16">
-        <v>1.015921188529182</v>
+        <v>1.035543772526893</v>
       </c>
       <c r="L16">
-        <v>1.000990475613529</v>
+        <v>1.030884178213325</v>
       </c>
       <c r="M16">
-        <v>1.013042718420334</v>
+        <v>1.03943585583175</v>
       </c>
       <c r="N16">
-        <v>1.005991883790769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013426382361613</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041043862303653</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036280197820134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9773473258205206</v>
+        <v>1.001417735477086</v>
       </c>
       <c r="D17">
-        <v>1.003031736301477</v>
+        <v>1.022388460627914</v>
       </c>
       <c r="E17">
-        <v>0.9879223143379804</v>
+        <v>1.017705024110768</v>
       </c>
       <c r="F17">
-        <v>1.00049305772424</v>
+        <v>1.026289406940454</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037226061779617</v>
+        <v>1.047933242367092</v>
       </c>
       <c r="J17">
-        <v>1.005704733853787</v>
+        <v>1.028821541010006</v>
       </c>
       <c r="K17">
-        <v>1.01698681619683</v>
+        <v>1.036015005210432</v>
       </c>
       <c r="L17">
-        <v>1.002145475781526</v>
+        <v>1.031409581803167</v>
       </c>
       <c r="M17">
-        <v>1.014492447372194</v>
+        <v>1.039851671402773</v>
       </c>
       <c r="N17">
-        <v>1.007132949931805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013590490821173</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041243523992374</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036615964886431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9784619803907633</v>
+        <v>1.001988086038883</v>
       </c>
       <c r="D18">
-        <v>1.003850657818542</v>
+        <v>1.022734440295066</v>
       </c>
       <c r="E18">
-        <v>0.988799215001877</v>
+        <v>1.017932266600407</v>
       </c>
       <c r="F18">
-        <v>1.001539461131863</v>
+        <v>1.02625834176569</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037472676049088</v>
+        <v>1.048018951484655</v>
       </c>
       <c r="J18">
-        <v>1.006364109426396</v>
+        <v>1.028976195706093</v>
       </c>
       <c r="K18">
-        <v>1.017603253283623</v>
+        <v>1.03617195666456</v>
       </c>
       <c r="L18">
-        <v>1.002814130684524</v>
+        <v>1.031448481943406</v>
       </c>
       <c r="M18">
-        <v>1.01533167427648</v>
+        <v>1.039638709122302</v>
       </c>
       <c r="N18">
-        <v>1.007793261893359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013624461709983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040837501726697</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036715304253924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9788405961237233</v>
+        <v>1.001947272844807</v>
       </c>
       <c r="D19">
-        <v>1.004128905078859</v>
+        <v>1.022680696539232</v>
       </c>
       <c r="E19">
-        <v>0.9890972307151876</v>
+        <v>1.017580230327026</v>
       </c>
       <c r="F19">
-        <v>1.00189502758701</v>
+        <v>1.025508506136382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037556246512978</v>
+        <v>1.047924894212224</v>
       </c>
       <c r="J19">
-        <v>1.006588061680873</v>
+        <v>1.02880271756899</v>
       </c>
       <c r="K19">
-        <v>1.017812583805666</v>
+        <v>1.036056580477181</v>
       </c>
       <c r="L19">
-        <v>1.003041281925177</v>
+        <v>1.031039298161</v>
       </c>
       <c r="M19">
-        <v>1.015616762092636</v>
+        <v>1.038838728574036</v>
       </c>
       <c r="N19">
-        <v>1.008017532185724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013544507926794</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03987936766348</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036640121533252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9771415987133257</v>
+        <v>1.000185380116655</v>
       </c>
       <c r="D20">
-        <v>1.002880631783076</v>
+        <v>1.021486272271001</v>
       </c>
       <c r="E20">
-        <v>0.9877605442826108</v>
+        <v>1.015627459552581</v>
       </c>
       <c r="F20">
-        <v>1.000299991631411</v>
+        <v>1.022826174484674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037180451658591</v>
+        <v>1.047321657692305</v>
       </c>
       <c r="J20">
-        <v>1.005583027249557</v>
+        <v>1.027709157541192</v>
       </c>
       <c r="K20">
-        <v>1.01687301717062</v>
+        <v>1.035161547858431</v>
       </c>
       <c r="L20">
-        <v>1.002022078986797</v>
+        <v>1.029400974301244</v>
       </c>
       <c r="M20">
-        <v>1.01433756809837</v>
+        <v>1.036479186502213</v>
       </c>
       <c r="N20">
-        <v>1.007011070490236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013144125488057</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037484150501601</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036011216782791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9715140583168197</v>
+        <v>0.9961086409272331</v>
       </c>
       <c r="D21">
-        <v>0.9987522808107597</v>
+        <v>1.01883825400695</v>
       </c>
       <c r="E21">
-        <v>0.9833445251207129</v>
+        <v>1.012371842264263</v>
       </c>
       <c r="F21">
-        <v>0.9950265303595471</v>
+        <v>1.019426431665829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03592207629629</v>
+        <v>1.04623546212367</v>
       </c>
       <c r="J21">
-        <v>1.002253006298011</v>
+        <v>1.025769964063791</v>
       </c>
       <c r="K21">
-        <v>1.013757330233916</v>
+        <v>1.033471308107646</v>
       </c>
       <c r="L21">
-        <v>0.9986484634376031</v>
+        <v>1.027122556891875</v>
       </c>
       <c r="M21">
-        <v>1.010102743255014</v>
+        <v>1.034048879757438</v>
       </c>
       <c r="N21">
-        <v>1.003676320526981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012491816036071</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035519777429381</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034819377250953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9678920882051872</v>
+        <v>0.9935193063537587</v>
       </c>
       <c r="D22">
-        <v>0.9961005276250933</v>
+        <v>1.017157716272385</v>
       </c>
       <c r="E22">
-        <v>0.980511526465931</v>
+        <v>1.010340372620183</v>
       </c>
       <c r="F22">
-        <v>0.9916403460559301</v>
+        <v>1.017343760371184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035101954324116</v>
+        <v>1.045539831068997</v>
       </c>
       <c r="J22">
-        <v>1.00010920235156</v>
+        <v>1.024546602607728</v>
       </c>
       <c r="K22">
-        <v>1.011749631656243</v>
+        <v>1.032396769785012</v>
       </c>
       <c r="L22">
-        <v>0.9964791985324938</v>
+        <v>1.025709730685031</v>
       </c>
       <c r="M22">
-        <v>1.007379248485594</v>
+        <v>1.032579289894413</v>
       </c>
       <c r="N22">
-        <v>1.001529472133029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012081055866703</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034356686519312</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034046124303693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9698203692242867</v>
+        <v>0.9948899881793414</v>
       </c>
       <c r="D23">
-        <v>0.9975117477257428</v>
+        <v>1.018041293530714</v>
       </c>
       <c r="E23">
-        <v>0.9820188774979197</v>
+        <v>1.011414779431348</v>
       </c>
       <c r="F23">
-        <v>0.9934423289543087</v>
+        <v>1.018446630517481</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035539516078872</v>
+        <v>1.045905475195503</v>
       </c>
       <c r="J23">
-        <v>1.001250564256466</v>
+        <v>1.025191213375363</v>
       </c>
       <c r="K23">
-        <v>1.012818700483983</v>
+        <v>1.03295888770696</v>
       </c>
       <c r="L23">
-        <v>0.9976338692274413</v>
+        <v>1.026455794393488</v>
       </c>
       <c r="M23">
-        <v>1.00882897089211</v>
+        <v>1.03335674310609</v>
       </c>
       <c r="N23">
-        <v>1.002672454902755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012296548283657</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034971993644724</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.0344339305823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9772345847575346</v>
+        <v>1.000197591377724</v>
       </c>
       <c r="D24">
-        <v>1.00294892754307</v>
+        <v>1.021480938624107</v>
       </c>
       <c r="E24">
-        <v>0.9878336593744125</v>
+        <v>1.015590754906573</v>
       </c>
       <c r="F24">
-        <v>1.000387252581419</v>
+        <v>1.02273700059718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037201070432793</v>
+        <v>1.047307323939817</v>
       </c>
       <c r="J24">
-        <v>1.005638037404837</v>
+        <v>1.027688037303786</v>
       </c>
       <c r="K24">
-        <v>1.016924453864792</v>
+        <v>1.035141041592706</v>
       </c>
       <c r="L24">
-        <v>1.002077852224434</v>
+        <v>1.029349501657607</v>
       </c>
       <c r="M24">
-        <v>1.014407571041706</v>
+        <v>1.036376257327745</v>
       </c>
       <c r="N24">
-        <v>1.007066158766247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013132954111504</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037361751181899</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035969317900727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9854995024097591</v>
+        <v>1.006161769743589</v>
       </c>
       <c r="D25">
-        <v>1.009029248842</v>
+        <v>1.02536298421984</v>
       </c>
       <c r="E25">
-        <v>0.9943518053073411</v>
+        <v>1.020312971930338</v>
       </c>
       <c r="F25">
-        <v>1.008159667758021</v>
+        <v>1.027601982734271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039008654139981</v>
+        <v>1.048840861117294</v>
       </c>
       <c r="J25">
-        <v>1.010524918211736</v>
+        <v>1.030483530382532</v>
       </c>
       <c r="K25">
-        <v>1.0214889959083</v>
+        <v>1.037579929605068</v>
       </c>
       <c r="L25">
-        <v>1.007038439613281</v>
+        <v>1.032603931402631</v>
       </c>
       <c r="M25">
-        <v>1.020632622314369</v>
+        <v>1.03978640793761</v>
       </c>
       <c r="N25">
-        <v>1.011959979504425</v>
+        <v>1.01406965428164</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040060663469532</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03769087581231</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010752778031291</v>
+        <v>1.010309158613635</v>
       </c>
       <c r="D2">
-        <v>1.028346283860112</v>
+        <v>1.027384169871322</v>
       </c>
       <c r="E2">
-        <v>1.023969944939416</v>
+        <v>1.023629088062033</v>
       </c>
       <c r="F2">
-        <v>1.031385315595412</v>
+        <v>1.031143111333494</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049975674669159</v>
+        <v>1.04949948248383</v>
       </c>
       <c r="J2">
-        <v>1.032616563922117</v>
+        <v>1.032185836744528</v>
       </c>
       <c r="K2">
-        <v>1.039424345050174</v>
+        <v>1.038474739999155</v>
       </c>
       <c r="L2">
-        <v>1.035105142929311</v>
+        <v>1.034768761931543</v>
       </c>
       <c r="M2">
-        <v>1.042424056516362</v>
+        <v>1.042184975362237</v>
       </c>
       <c r="N2">
-        <v>1.014782099020242</v>
+        <v>1.015739948962168</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042148183723772</v>
+        <v>1.041958967426888</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038946703121246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038284021185962</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022320385171482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014017359437943</v>
+        <v>1.013474020228919</v>
       </c>
       <c r="D3">
-        <v>1.030483505393705</v>
+        <v>1.029379072699224</v>
       </c>
       <c r="E3">
-        <v>1.02658304433847</v>
+        <v>1.02616381846105</v>
       </c>
       <c r="F3">
-        <v>1.034092023287261</v>
+        <v>1.033794439776101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050768015100204</v>
+        <v>1.050212360650824</v>
       </c>
       <c r="J3">
-        <v>1.034133056536744</v>
+        <v>1.033603989769249</v>
       </c>
       <c r="K3">
-        <v>1.040740653182297</v>
+        <v>1.039649351701873</v>
       </c>
       <c r="L3">
-        <v>1.036886723550962</v>
+        <v>1.036472525040872</v>
       </c>
       <c r="M3">
-        <v>1.044306509503383</v>
+        <v>1.044012430211446</v>
       </c>
       <c r="N3">
-        <v>1.015290125836596</v>
+        <v>1.016117269479128</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043638014124019</v>
+        <v>1.043405271052223</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039874781491363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039111633208871</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022533943057445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016094618245562</v>
+        <v>1.015488364993388</v>
       </c>
       <c r="D4">
-        <v>1.031846483563536</v>
+        <v>1.030651873146723</v>
       </c>
       <c r="E4">
-        <v>1.028251345550515</v>
+        <v>1.027782644002955</v>
       </c>
       <c r="F4">
-        <v>1.035822868468947</v>
+        <v>1.035490381687081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051262573455784</v>
+        <v>1.050656486253448</v>
       </c>
       <c r="J4">
-        <v>1.035095393860507</v>
+        <v>1.034504006685409</v>
       </c>
       <c r="K4">
-        <v>1.041575162228107</v>
+        <v>1.040393913527289</v>
       </c>
       <c r="L4">
-        <v>1.038020351466937</v>
+        <v>1.037556933031966</v>
       </c>
       <c r="M4">
-        <v>1.04550734427873</v>
+        <v>1.045178537541173</v>
       </c>
       <c r="N4">
-        <v>1.015612579237856</v>
+        <v>1.016356815549421</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044588389602413</v>
+        <v>1.044328162534285</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040465744619147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03963907932829</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022666891422595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016961988943695</v>
+        <v>1.016329585870993</v>
       </c>
       <c r="D5">
-        <v>1.032418347846731</v>
+        <v>1.031186219627457</v>
       </c>
       <c r="E5">
-        <v>1.028949291582332</v>
+        <v>1.028460016702455</v>
       </c>
       <c r="F5">
-        <v>1.036547035971206</v>
+        <v>1.036200048483169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051468097278702</v>
+        <v>1.05084099893927</v>
       </c>
       <c r="J5">
-        <v>1.035497751013786</v>
+        <v>1.034880399684169</v>
       </c>
       <c r="K5">
-        <v>1.041925445247293</v>
+        <v>1.04070673762823</v>
       </c>
       <c r="L5">
-        <v>1.03849427555817</v>
+        <v>1.038010369452982</v>
       </c>
       <c r="M5">
-        <v>1.046009447951881</v>
+        <v>1.045666199159859</v>
       </c>
       <c r="N5">
-        <v>1.015747677509747</v>
+        <v>1.01645721894751</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044985768649504</v>
+        <v>1.044714111871293</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040720586964134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039868146942908</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022722588840582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017109936369088</v>
+        <v>1.016473077253278</v>
       </c>
       <c r="D6">
-        <v>1.032518407777888</v>
+        <v>1.03127994313434</v>
       </c>
       <c r="E6">
-        <v>1.02906844242495</v>
+        <v>1.028575657721161</v>
       </c>
       <c r="F6">
-        <v>1.036669957255397</v>
+        <v>1.036320496395269</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051504668112429</v>
+        <v>1.050874008815759</v>
       </c>
       <c r="J6">
-        <v>1.035567771539736</v>
+        <v>1.034945993606544</v>
       </c>
       <c r="K6">
-        <v>1.041988290202235</v>
+        <v>1.040763254408377</v>
       </c>
       <c r="L6">
-        <v>1.038575831997417</v>
+        <v>1.038088429935341</v>
       </c>
       <c r="M6">
-        <v>1.046095110617023</v>
+        <v>1.045749397945165</v>
       </c>
       <c r="N6">
-        <v>1.015771509213757</v>
+        <v>1.016474965188891</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04505356448382</v>
+        <v>1.044779957746557</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040773759338268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03991771412297</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02273313892324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016113704195353</v>
+        <v>1.015513125140876</v>
       </c>
       <c r="D7">
-        <v>1.031865674641731</v>
+        <v>1.030674865839716</v>
       </c>
       <c r="E7">
-        <v>1.02826677233307</v>
+        <v>1.02780262068251</v>
       </c>
       <c r="F7">
-        <v>1.035836876702569</v>
+        <v>1.035507618756082</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051271517373929</v>
+        <v>1.050668296787486</v>
       </c>
       <c r="J7">
-        <v>1.035108068859677</v>
+        <v>1.034522210521299</v>
       </c>
       <c r="K7">
-        <v>1.041591261337185</v>
+        <v>1.040413766620121</v>
       </c>
       <c r="L7">
-        <v>1.038032713375226</v>
+        <v>1.037573791584416</v>
       </c>
       <c r="M7">
-        <v>1.045518334605696</v>
+        <v>1.045192719617558</v>
       </c>
       <c r="N7">
-        <v>1.015617704585097</v>
+        <v>1.016388117033242</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044597087660305</v>
+        <v>1.044339386637579</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040497220207528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039675209216721</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02267236709323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011872654898705</v>
+        <v>1.011413856480587</v>
       </c>
       <c r="D8">
-        <v>1.029086871542619</v>
+        <v>1.028089737510133</v>
       </c>
       <c r="E8">
-        <v>1.024865306659673</v>
+        <v>1.02451284754985</v>
       </c>
       <c r="F8">
-        <v>1.032309728254808</v>
+        <v>1.032059368225221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050254791780039</v>
+        <v>1.04976137624609</v>
       </c>
       <c r="J8">
-        <v>1.033141974138363</v>
+        <v>1.032696069404637</v>
       </c>
       <c r="K8">
-        <v>1.03988674568957</v>
+        <v>1.038902197420388</v>
       </c>
       <c r="L8">
-        <v>1.035718674519936</v>
+        <v>1.035370706516378</v>
       </c>
       <c r="M8">
-        <v>1.043069131013015</v>
+        <v>1.042821903619306</v>
       </c>
       <c r="N8">
-        <v>1.014959227582612</v>
+        <v>1.015954894275964</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042658715593374</v>
+        <v>1.042463052244707</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039296548194733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038611427219579</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022401901510972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004108490433733</v>
+        <v>1.003892961079366</v>
       </c>
       <c r="D9">
-        <v>1.024014880993788</v>
+        <v>1.023360280377375</v>
       </c>
       <c r="E9">
-        <v>1.018683319099137</v>
+        <v>1.018521877454542</v>
       </c>
       <c r="F9">
-        <v>1.025924272439579</v>
+        <v>1.025809310196307</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048312145363056</v>
+        <v>1.048009817195907</v>
       </c>
       <c r="J9">
-        <v>1.029516996859145</v>
+        <v>1.029308993867138</v>
       </c>
       <c r="K9">
-        <v>1.036729988941552</v>
+        <v>1.036085391045898</v>
       </c>
       <c r="L9">
-        <v>1.031480374472074</v>
+        <v>1.031321431318226</v>
       </c>
       <c r="M9">
-        <v>1.03861029659416</v>
+        <v>1.038497081547906</v>
       </c>
       <c r="N9">
-        <v>1.013744289163294</v>
+        <v>1.015062867750508</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039129849026719</v>
+        <v>1.039040246732111</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037061344987235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036616308090391</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021874884100096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9987887617377322</v>
+        <v>0.9987693890562577</v>
       </c>
       <c r="D10">
-        <v>1.020566354814816</v>
+        <v>1.020166636039317</v>
       </c>
       <c r="E10">
-        <v>1.014538300719248</v>
+        <v>1.014530973962298</v>
       </c>
       <c r="F10">
-        <v>1.021724735688819</v>
+        <v>1.021719510222965</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046949876236861</v>
+        <v>1.046792507261541</v>
       </c>
       <c r="J10">
-        <v>1.027050518733555</v>
+        <v>1.027031917337514</v>
       </c>
       <c r="K10">
-        <v>1.034573947435502</v>
+        <v>1.034181078182407</v>
       </c>
       <c r="L10">
-        <v>1.028649930998987</v>
+        <v>1.028642731667683</v>
       </c>
       <c r="M10">
-        <v>1.03571251756764</v>
+        <v>1.035707381337915</v>
       </c>
       <c r="N10">
-        <v>1.012921859377688</v>
+        <v>1.014576596920471</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036887981006972</v>
+        <v>1.036883916259396</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035553698956517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035288327226243</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021512591427477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9968979845961945</v>
+        <v>0.9969805440673474</v>
       </c>
       <c r="D11">
-        <v>1.019395749237588</v>
+        <v>1.019104011521047</v>
       </c>
       <c r="E11">
-        <v>1.013542858894718</v>
+        <v>1.013614980122264</v>
       </c>
       <c r="F11">
-        <v>1.021265387232972</v>
+        <v>1.021316773596998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046582335036123</v>
+        <v>1.046491069388297</v>
       </c>
       <c r="J11">
-        <v>1.026400382865863</v>
+        <v>1.026479477671675</v>
       </c>
       <c r="K11">
-        <v>1.033960930847792</v>
+        <v>1.033674428212647</v>
       </c>
       <c r="L11">
-        <v>1.028213817497098</v>
+        <v>1.028284625632596</v>
       </c>
       <c r="M11">
-        <v>1.035797111353424</v>
+        <v>1.03584758039545</v>
       </c>
       <c r="N11">
-        <v>1.012735518327027</v>
+        <v>1.014679476909964</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037391682973043</v>
+        <v>1.037431603382843</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035153107177805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034966156937166</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021447116401855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9963548099200439</v>
+        <v>0.9964685247298176</v>
       </c>
       <c r="D12">
-        <v>1.019076493125256</v>
+        <v>1.018814292027169</v>
       </c>
       <c r="E12">
-        <v>1.013467370524618</v>
+        <v>1.01356299377186</v>
       </c>
       <c r="F12">
-        <v>1.021589337827348</v>
+        <v>1.021657405521489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046528423755623</v>
+        <v>1.046456159396059</v>
       </c>
       <c r="J12">
-        <v>1.026314245962109</v>
+        <v>1.026423098582532</v>
       </c>
       <c r="K12">
-        <v>1.033847121631354</v>
+        <v>1.033589703705263</v>
       </c>
       <c r="L12">
-        <v>1.028341026589211</v>
+        <v>1.028434880986611</v>
       </c>
       <c r="M12">
-        <v>1.03631428801768</v>
+        <v>1.0363811224473</v>
       </c>
       <c r="N12">
-        <v>1.012730235355814</v>
+        <v>1.014782115688189</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038127373512368</v>
+        <v>1.038180220828328</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035072640420133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034906255224818</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021452248866116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9968198521535494</v>
+        <v>0.9969036905796415</v>
       </c>
       <c r="D13">
-        <v>1.019402594057392</v>
+        <v>1.019105489554012</v>
       </c>
       <c r="E13">
-        <v>1.014102761259083</v>
+        <v>1.014173822531648</v>
       </c>
       <c r="F13">
-        <v>1.022557960170128</v>
+        <v>1.022608493769845</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I13">
-        <v>1.046723147841068</v>
+        <v>1.046630558364836</v>
       </c>
       <c r="J13">
-        <v>1.026666298195337</v>
+        <v>1.026746569601042</v>
       </c>
       <c r="K13">
-        <v>1.034124459286384</v>
+        <v>1.033832752305119</v>
       </c>
       <c r="L13">
-        <v>1.028921527874998</v>
+        <v>1.028991281145398</v>
       </c>
       <c r="M13">
-        <v>1.03722275315601</v>
+        <v>1.037272376460619</v>
       </c>
       <c r="N13">
-        <v>1.012868498913217</v>
+        <v>1.01485962868636</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039122424634164</v>
+        <v>1.039161652910183</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035266235151287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035075360451709</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021515949918156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9976004313120097</v>
+        <v>0.9976363358670114</v>
       </c>
       <c r="D14">
-        <v>1.019923274405271</v>
+        <v>1.019573149796223</v>
       </c>
       <c r="E14">
-        <v>1.014864223799866</v>
+        <v>1.014896987464922</v>
       </c>
       <c r="F14">
-        <v>1.02352176388585</v>
+        <v>1.023545046614907</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046971290045799</v>
+        <v>1.046847024265143</v>
       </c>
       <c r="J14">
-        <v>1.027109174256978</v>
+        <v>1.027143572819986</v>
       </c>
       <c r="K14">
-        <v>1.034495489257856</v>
+        <v>1.03415164766845</v>
       </c>
       <c r="L14">
-        <v>1.029527771845974</v>
+        <v>1.029559940203457</v>
       </c>
       <c r="M14">
-        <v>1.038029726794965</v>
+        <v>1.038052595713942</v>
       </c>
       <c r="N14">
-        <v>1.013029716562389</v>
+        <v>1.014903312760574</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039933638512794</v>
+        <v>1.039951714441172</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035529989463566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035302387964651</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021587247566321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9980149062446636</v>
+        <v>0.9980262478096483</v>
       </c>
       <c r="D15">
-        <v>1.020196478158389</v>
+        <v>1.019819570899262</v>
       </c>
       <c r="E15">
-        <v>1.015216487494787</v>
+        <v>1.015229847352951</v>
       </c>
       <c r="F15">
-        <v>1.023919648418491</v>
+        <v>1.023929140237242</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047089795315191</v>
+        <v>1.0469493977367</v>
       </c>
       <c r="J15">
-        <v>1.027318910939947</v>
+        <v>1.027329780888567</v>
       </c>
       <c r="K15">
-        <v>1.034677441127825</v>
+        <v>1.034307246899977</v>
       </c>
       <c r="L15">
-        <v>1.029786670994055</v>
+        <v>1.029799789977588</v>
       </c>
       <c r="M15">
-        <v>1.038334642918742</v>
+        <v>1.03834396735296</v>
       </c>
       <c r="N15">
-        <v>1.013102777125411</v>
+        <v>1.014913310454397</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040212174587237</v>
+        <v>1.040219544562898</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035664504043661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035418839469974</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021619376320398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000169735116567</v>
+        <v>1.000063522946254</v>
       </c>
       <c r="D16">
-        <v>1.021589242787155</v>
+        <v>1.021082820111285</v>
       </c>
       <c r="E16">
-        <v>1.016848411088825</v>
+        <v>1.016769787798233</v>
       </c>
       <c r="F16">
-        <v>1.025548427000608</v>
+        <v>1.025492597343892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047641338130463</v>
+        <v>1.047422974199314</v>
       </c>
       <c r="J16">
-        <v>1.028299856614104</v>
+        <v>1.028197843587942</v>
       </c>
       <c r="K16">
-        <v>1.035543772526893</v>
+        <v>1.035045981267986</v>
       </c>
       <c r="L16">
-        <v>1.030884178213325</v>
+        <v>1.030806910444872</v>
       </c>
       <c r="M16">
-        <v>1.03943585583175</v>
+        <v>1.039380967739406</v>
       </c>
       <c r="N16">
-        <v>1.013426382361613</v>
+        <v>1.014935196385595</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041043862303653</v>
+        <v>1.041000477854825</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036280197820134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035944617191529</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021757783810208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001417735477086</v>
+        <v>1.001253043763755</v>
       </c>
       <c r="D17">
-        <v>1.022388460627914</v>
+        <v>1.021814973533092</v>
       </c>
       <c r="E17">
-        <v>1.017705024110768</v>
+        <v>1.017580903066966</v>
       </c>
       <c r="F17">
-        <v>1.026289406940454</v>
+        <v>1.026201272909867</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047933242367092</v>
+        <v>1.047674948578573</v>
       </c>
       <c r="J17">
-        <v>1.028821541010006</v>
+        <v>1.028663154364221</v>
       </c>
       <c r="K17">
-        <v>1.036015005210432</v>
+        <v>1.035451021358136</v>
       </c>
       <c r="L17">
-        <v>1.031409581803167</v>
+        <v>1.031287540863916</v>
       </c>
       <c r="M17">
-        <v>1.039851671402773</v>
+        <v>1.039764982713963</v>
       </c>
       <c r="N17">
-        <v>1.013590490821173</v>
+        <v>1.014957772386908</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041243523992374</v>
+        <v>1.041174997012861</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036615964886431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036233831367908</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021827347583233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001988086038883</v>
+        <v>1.00180256077487</v>
       </c>
       <c r="D18">
-        <v>1.022734440295066</v>
+        <v>1.022136461457173</v>
       </c>
       <c r="E18">
-        <v>1.017932266600407</v>
+        <v>1.017792298457349</v>
       </c>
       <c r="F18">
-        <v>1.02625834176569</v>
+        <v>1.02615890530582</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048018951484655</v>
+        <v>1.047746060004336</v>
       </c>
       <c r="J18">
-        <v>1.028976195706093</v>
+        <v>1.028797642072265</v>
       </c>
       <c r="K18">
-        <v>1.03617195666456</v>
+        <v>1.035583725825126</v>
       </c>
       <c r="L18">
-        <v>1.031448481943406</v>
+        <v>1.031310821956653</v>
       </c>
       <c r="M18">
-        <v>1.039638709122302</v>
+        <v>1.039540878369702</v>
       </c>
       <c r="N18">
-        <v>1.013624461709983</v>
+        <v>1.014939999755489</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040837501726697</v>
+        <v>1.040760150894102</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036715304253924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03631489174805</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021837676737733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001947272844807</v>
+        <v>1.001770264826128</v>
       </c>
       <c r="D19">
-        <v>1.022680696539232</v>
+        <v>1.022093672621407</v>
       </c>
       <c r="E19">
-        <v>1.017580230327026</v>
+        <v>1.017447530119083</v>
       </c>
       <c r="F19">
-        <v>1.025508506136382</v>
+        <v>1.025414134353752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047924894212224</v>
+        <v>1.047658042957333</v>
       </c>
       <c r="J19">
-        <v>1.02880271756899</v>
+        <v>1.028632322921074</v>
       </c>
       <c r="K19">
-        <v>1.036056580477181</v>
+        <v>1.035479076083035</v>
       </c>
       <c r="L19">
-        <v>1.031039298161</v>
+        <v>1.030908776485541</v>
       </c>
       <c r="M19">
-        <v>1.038838728574036</v>
+        <v>1.038745875429423</v>
       </c>
       <c r="N19">
-        <v>1.013544507926794</v>
+        <v>1.014868876917497</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03987936766348</v>
+        <v>1.039805928428941</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036640121533252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036247917974741</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021797741462792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000185380116655</v>
+        <v>1.000096898317142</v>
       </c>
       <c r="D20">
-        <v>1.021486272271001</v>
+        <v>1.021007418602177</v>
       </c>
       <c r="E20">
-        <v>1.015627459552581</v>
+        <v>1.015565455361503</v>
       </c>
       <c r="F20">
-        <v>1.022826174484674</v>
+        <v>1.022781971208973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047321657692305</v>
+        <v>1.047117309803317</v>
       </c>
       <c r="J20">
-        <v>1.027709157541192</v>
+        <v>1.027624085207691</v>
       </c>
       <c r="K20">
-        <v>1.035161547858431</v>
+        <v>1.034690668991834</v>
       </c>
       <c r="L20">
-        <v>1.029400974301244</v>
+        <v>1.029340017601781</v>
       </c>
       <c r="M20">
-        <v>1.036479186502213</v>
+        <v>1.03643571650208</v>
       </c>
       <c r="N20">
-        <v>1.013144125488057</v>
+        <v>1.014637376062781</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037484150501601</v>
+        <v>1.037449748476156</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036011216782791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035694791761784</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021612335822646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9961086409272331</v>
+        <v>0.996256849540862</v>
       </c>
       <c r="D21">
-        <v>1.01883825400695</v>
+        <v>1.018617264187815</v>
       </c>
       <c r="E21">
-        <v>1.012371842264263</v>
+        <v>1.012497704232673</v>
       </c>
       <c r="F21">
-        <v>1.019426431665829</v>
+        <v>1.019516294793815</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04623546212367</v>
+        <v>1.046186778388809</v>
       </c>
       <c r="J21">
-        <v>1.025769964063791</v>
+        <v>1.025911908281106</v>
       </c>
       <c r="K21">
-        <v>1.033471308107646</v>
+        <v>1.033254307288408</v>
       </c>
       <c r="L21">
-        <v>1.027122556891875</v>
+        <v>1.027246110041933</v>
       </c>
       <c r="M21">
-        <v>1.034048879757438</v>
+        <v>1.034137123875788</v>
       </c>
       <c r="N21">
-        <v>1.012491816036071</v>
+        <v>1.014595825211754</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035519777429381</v>
+        <v>1.035589617215971</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034819377250953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034682781814433</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.0213352757879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9935193063537587</v>
+        <v>0.9938163291742842</v>
       </c>
       <c r="D22">
-        <v>1.017157716272385</v>
+        <v>1.017098890375454</v>
       </c>
       <c r="E22">
-        <v>1.010340372620183</v>
+        <v>1.010584446802474</v>
       </c>
       <c r="F22">
-        <v>1.017343760371184</v>
+        <v>1.017518175451327</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045539831068997</v>
+        <v>1.045588705495794</v>
       </c>
       <c r="J22">
-        <v>1.024546602607728</v>
+        <v>1.024830349639174</v>
       </c>
       <c r="K22">
-        <v>1.032396769785012</v>
+        <v>1.032339058500602</v>
       </c>
       <c r="L22">
-        <v>1.025709730685031</v>
+        <v>1.025949099964752</v>
       </c>
       <c r="M22">
-        <v>1.032579289894413</v>
+        <v>1.03275040278821</v>
       </c>
       <c r="N22">
-        <v>1.012081055866703</v>
+        <v>1.014564282502837</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034356686519312</v>
+        <v>1.034492112056223</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034046124303693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034020852763739</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021156885412077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9948899881793414</v>
+        <v>0.9950984509706472</v>
       </c>
       <c r="D23">
-        <v>1.018041293530714</v>
+        <v>1.017889511666176</v>
       </c>
       <c r="E23">
-        <v>1.011414779431348</v>
+        <v>1.011588365175165</v>
       </c>
       <c r="F23">
-        <v>1.018446630517481</v>
+        <v>1.01857061760316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045905475195503</v>
+        <v>1.045897636800728</v>
       </c>
       <c r="J23">
-        <v>1.025191213375363</v>
+        <v>1.025390628467874</v>
       </c>
       <c r="K23">
-        <v>1.03295888770696</v>
+        <v>1.032809909384959</v>
       </c>
       <c r="L23">
-        <v>1.026455794393488</v>
+        <v>1.026626120117969</v>
       </c>
       <c r="M23">
-        <v>1.03335674310609</v>
+        <v>1.033478443225518</v>
       </c>
       <c r="N23">
-        <v>1.012296548283657</v>
+        <v>1.014537456890699</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034971993644724</v>
+        <v>1.035068311869124</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.0344339305823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034343186347071</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021247032612596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000197591377724</v>
+        <v>1.000109327757291</v>
       </c>
       <c r="D24">
-        <v>1.021480938624107</v>
+        <v>1.021002309476966</v>
       </c>
       <c r="E24">
-        <v>1.015590754906573</v>
+        <v>1.015529036424667</v>
       </c>
       <c r="F24">
-        <v>1.02273700059718</v>
+        <v>1.022692994522313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047307323939817</v>
+        <v>1.047103099478039</v>
       </c>
       <c r="J24">
-        <v>1.027688037303786</v>
+        <v>1.027603169847467</v>
       </c>
       <c r="K24">
-        <v>1.035141041592706</v>
+        <v>1.034670373398915</v>
       </c>
       <c r="L24">
-        <v>1.029349501657607</v>
+        <v>1.029288824598983</v>
       </c>
       <c r="M24">
-        <v>1.036376257327745</v>
+        <v>1.036332980485593</v>
       </c>
       <c r="N24">
-        <v>1.013132954111504</v>
+        <v>1.014624875281416</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037361751181899</v>
+        <v>1.037327500312162</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035969317900727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035650368144836</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021603876601358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006161769743589</v>
+        <v>1.005873657455664</v>
       </c>
       <c r="D25">
-        <v>1.02536298421984</v>
+        <v>1.024612170371073</v>
       </c>
       <c r="E25">
-        <v>1.020312971930338</v>
+        <v>1.020094408612746</v>
       </c>
       <c r="F25">
-        <v>1.027601982734271</v>
+        <v>1.027446447366195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048840861117294</v>
+        <v>1.048483961602251</v>
       </c>
       <c r="J25">
-        <v>1.030483530382532</v>
+        <v>1.030204953682277</v>
       </c>
       <c r="K25">
-        <v>1.037579929605068</v>
+        <v>1.036840061270147</v>
       </c>
       <c r="L25">
-        <v>1.032603931402631</v>
+        <v>1.032388592412407</v>
       </c>
       <c r="M25">
-        <v>1.03978640793761</v>
+        <v>1.039633125825355</v>
       </c>
       <c r="N25">
-        <v>1.01406965428164</v>
+        <v>1.015269594750497</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040060663469532</v>
+        <v>1.039939350870723</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03769087581231</v>
+        <v>1.037181282663999</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022019655257181</v>
       </c>
     </row>
   </sheetData>
